--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Local</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>stdev</t>
   </si>
   <si>
     <t>144 cores 1Gbit</t>
@@ -129,8 +132,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="367">
+  <cellStyleXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="367">
+  <cellStyles count="375">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -686,6 +697,10 @@
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -869,6 +884,10 @@
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1200,15 +1219,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:I47"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -1216,15 +1235,9 @@
     </row>
     <row r="2" spans="1:19">
       <c r="K2">
-        <v>0.11600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M2">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="N2">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -1232,30 +1245,18 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="B4">
-        <v>0.109</v>
-      </c>
       <c r="C4">
         <v>0.186</v>
       </c>
       <c r="D4">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E4">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="K4">
@@ -1981,7 +1982,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
   <si>
     <t>Local</t>
   </si>
@@ -73,6 +74,9 @@
   </si>
   <si>
     <t>8 cores 1Gbit</t>
+  </si>
+  <si>
+    <t>Computation</t>
   </si>
 </sst>
 </file>
@@ -132,7 +136,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="375">
+  <cellStyleXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,12 +512,137 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="375">
+  <cellStyles count="499">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -701,6 +830,68 @@
     <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -888,6 +1079,68 @@
     <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1217,15 +1470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1233,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="K2">
         <v>0.14000000000000001</v>
       </c>
@@ -1241,7 +1494,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="C4">
         <v>0.186</v>
       </c>
@@ -1266,13 +1519,21 @@
         <v>5.1410610261478508E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="K5">
+        <f>K4*1000</f>
+        <v>9409</v>
+      </c>
+      <c r="L5">
+        <f>L4*1000</f>
+        <v>51.41061026147851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>941.31666670000004</v>
       </c>
@@ -1280,15 +1541,15 @@
         <v>0.947640543</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:23">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1301,20 +1562,26 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>12</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
         <v>13</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="W9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1339,648 +1606,586 @@
       <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10" t="s">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>2</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>3</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>3</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>2</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="W10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>34.4679</v>
+      </c>
+      <c r="C11">
+        <v>0.18124699999999999</v>
+      </c>
+      <c r="D11">
+        <v>34.6248</v>
+      </c>
+      <c r="E11">
+        <v>0.29081800000000002</v>
+      </c>
+      <c r="F11">
+        <v>22.161300000000001</v>
+      </c>
+      <c r="G11">
+        <v>1.8990800000000001</v>
+      </c>
+      <c r="H11">
+        <v>178.36600000000001</v>
+      </c>
+      <c r="I11">
+        <v>33.718899999999998</v>
+      </c>
+      <c r="J11">
+        <f>H11-F11-D11-B11</f>
+        <v>87.112000000000009</v>
+      </c>
+      <c r="N11">
+        <v>1000</v>
+      </c>
+      <c r="O11">
+        <v>2.1684399999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.169158</v>
+      </c>
+      <c r="Q11">
+        <v>1.84002</v>
+      </c>
+      <c r="R11">
+        <v>0.25249199999999999</v>
+      </c>
+      <c r="S11">
+        <v>2.0088300000000001</v>
+      </c>
+      <c r="T11">
+        <v>0.411829</v>
+      </c>
+      <c r="U11">
+        <v>115.99</v>
+      </c>
+      <c r="V11">
+        <v>71.818200000000004</v>
+      </c>
+      <c r="W11">
+        <f>U11-S11-Q11-O11</f>
+        <v>109.97270999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>138.114</v>
+      </c>
+      <c r="C12">
+        <v>0.50234900000000005</v>
+      </c>
+      <c r="D12">
+        <v>138.51499999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.46370499999999998</v>
+      </c>
+      <c r="F12">
+        <v>120.9</v>
+      </c>
+      <c r="G12">
+        <v>0.12745500000000001</v>
+      </c>
+      <c r="H12">
+        <v>566.22199999999998</v>
+      </c>
+      <c r="I12">
+        <v>5.4855600000000004</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J20" si="0">H12-F12-D12-B12</f>
+        <v>168.69300000000001</v>
+      </c>
+      <c r="N12">
+        <v>2000</v>
+      </c>
+      <c r="O12">
+        <v>7.4395300000000004</v>
+      </c>
+      <c r="P12">
+        <v>0.34578300000000001</v>
+      </c>
+      <c r="Q12">
+        <v>6.0344199999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.64000400000000002</v>
+      </c>
+      <c r="S12">
+        <v>4.6187800000000001</v>
+      </c>
+      <c r="T12">
+        <v>1.7803800000000001</v>
+      </c>
+      <c r="U12">
+        <v>164.226</v>
+      </c>
+      <c r="V12">
+        <v>3.9483299999999999</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ref="W12:W20" si="1">U12-S12-Q12-O12</f>
+        <v>146.13327000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13">
+        <v>310.798</v>
+      </c>
+      <c r="C13">
+        <v>0.29265099999999999</v>
+      </c>
+      <c r="D13">
+        <v>310.291</v>
+      </c>
+      <c r="E13">
+        <v>0.13698099999999999</v>
+      </c>
+      <c r="F13">
+        <v>289.46199999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.577237</v>
+      </c>
+      <c r="H13">
+        <v>1360.2</v>
+      </c>
+      <c r="I13">
+        <v>8.0993300000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>449.64900000000011</v>
+      </c>
+      <c r="N13">
+        <v>3000</v>
+      </c>
+      <c r="O13">
+        <v>16.9817</v>
+      </c>
+      <c r="P13">
+        <v>0.51381699999999997</v>
+      </c>
+      <c r="Q13">
+        <v>14.1647</v>
+      </c>
+      <c r="R13">
+        <v>2.1418900000000001</v>
+      </c>
+      <c r="S13">
+        <v>16.2608</v>
+      </c>
+      <c r="T13">
+        <v>0.20503299999999999</v>
+      </c>
+      <c r="U13">
+        <v>480.03</v>
+      </c>
+      <c r="V13">
+        <v>3.32613</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>432.62279999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>4000</v>
+      </c>
+      <c r="B14">
+        <v>551.73800000000006</v>
+      </c>
+      <c r="C14">
+        <v>0.49830999999999998</v>
+      </c>
+      <c r="D14">
+        <v>551.71600000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.314442</v>
+      </c>
+      <c r="F14">
+        <v>526.81299999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.88322100000000003</v>
+      </c>
+      <c r="H14">
+        <v>2689.53</v>
+      </c>
+      <c r="I14">
+        <v>7.4739500000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1059.2630000000001</v>
+      </c>
+      <c r="N14">
+        <v>4000</v>
+      </c>
+      <c r="O14">
+        <v>28.605599999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.74281299999999995</v>
+      </c>
+      <c r="Q14">
+        <v>25.214600000000001</v>
+      </c>
+      <c r="R14">
+        <v>2.2113499999999999</v>
+      </c>
+      <c r="S14">
+        <v>27.834399999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.83474000000000004</v>
+      </c>
+      <c r="U14">
+        <v>1135.73</v>
+      </c>
+      <c r="V14">
+        <v>5.8869100000000003</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>1054.0753999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
         <v>5000</v>
       </c>
-      <c r="B11">
-        <v>861.55799999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.64617899999999995</v>
-      </c>
-      <c r="D11">
-        <v>862.17399999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.674292</v>
-      </c>
-      <c r="F11">
-        <v>834.89700000000005</v>
-      </c>
-      <c r="G11">
-        <v>1.41906</v>
-      </c>
-      <c r="H11">
-        <v>2610.35</v>
-      </c>
-      <c r="I11">
-        <v>22.2651</v>
-      </c>
-      <c r="K11">
+      <c r="B15">
+        <v>861.51</v>
+      </c>
+      <c r="C15">
+        <v>0.466389</v>
+      </c>
+      <c r="D15">
+        <v>862.04200000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.89905400000000002</v>
+      </c>
+      <c r="F15">
+        <v>830.62</v>
+      </c>
+      <c r="G15">
+        <v>0.277642</v>
+      </c>
+      <c r="H15">
+        <v>4669.6000000000004</v>
+      </c>
+      <c r="I15">
+        <v>12.4193</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2115.4280000000008</v>
+      </c>
+      <c r="N15">
         <v>5000</v>
       </c>
-      <c r="L11">
-        <v>42.3322</v>
-      </c>
-      <c r="M11">
-        <v>0.60492400000000002</v>
-      </c>
-      <c r="N11">
-        <v>38.521099999999997</v>
-      </c>
-      <c r="O11">
-        <v>0.378639</v>
-      </c>
-      <c r="P11">
-        <v>29.481200000000001</v>
-      </c>
-      <c r="Q11">
-        <v>0.46860800000000002</v>
-      </c>
-      <c r="R11">
-        <v>215.67400000000001</v>
-      </c>
-      <c r="S11">
-        <v>87.915400000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
+      <c r="O15">
+        <v>45.559800000000003</v>
+      </c>
+      <c r="P15">
+        <v>0.923678</v>
+      </c>
+      <c r="Q15">
+        <v>42.658000000000001</v>
+      </c>
+      <c r="R15">
+        <v>2.0767500000000001</v>
+      </c>
+      <c r="S15">
+        <v>43.199100000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.69603800000000005</v>
+      </c>
+      <c r="U15">
+        <v>2230.71</v>
+      </c>
+      <c r="V15">
+        <v>37.642000000000003</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>2099.2931000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
         <v>6000</v>
       </c>
-      <c r="B12">
-        <v>1243.5999999999999</v>
-      </c>
-      <c r="C12">
-        <v>6.1018800000000004</v>
-      </c>
-      <c r="D12">
-        <v>1241.3599999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.31652999999999998</v>
-      </c>
-      <c r="F12">
-        <v>1204.3</v>
-      </c>
-      <c r="G12">
-        <v>0.84738800000000003</v>
-      </c>
-      <c r="H12">
-        <v>3737.16</v>
-      </c>
-      <c r="I12">
-        <v>5.52081</v>
-      </c>
-      <c r="K12">
+      <c r="B16">
+        <v>1240.98</v>
+      </c>
+      <c r="C16">
+        <v>1.10762</v>
+      </c>
+      <c r="D16">
+        <v>1240.21</v>
+      </c>
+      <c r="E16">
+        <v>1.0584100000000001</v>
+      </c>
+      <c r="F16">
+        <v>1198.3399999999999</v>
+      </c>
+      <c r="G16">
+        <v>1.51573</v>
+      </c>
+      <c r="H16">
+        <v>7515.17</v>
+      </c>
+      <c r="I16">
+        <v>106.768</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>3835.64</v>
+      </c>
+      <c r="N16">
         <v>6000</v>
       </c>
-      <c r="L12">
-        <v>62.464199999999998</v>
-      </c>
-      <c r="M12">
-        <v>2.4311099999999999</v>
-      </c>
-      <c r="N12">
-        <v>58.241999999999997</v>
-      </c>
-      <c r="O12">
-        <v>2.2904900000000001</v>
-      </c>
-      <c r="P12">
-        <v>46.352899999999998</v>
-      </c>
-      <c r="Q12">
-        <v>2.7371099999999999</v>
-      </c>
-      <c r="R12">
-        <v>253.316</v>
-      </c>
-      <c r="S12">
-        <v>6.7151500000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
+      <c r="O16">
+        <v>61.584899999999998</v>
+      </c>
+      <c r="P16">
+        <v>0.74808200000000002</v>
+      </c>
+      <c r="Q16">
+        <v>56.840899999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.69760699999999998</v>
+      </c>
+      <c r="S16">
+        <v>62.468400000000003</v>
+      </c>
+      <c r="T16">
+        <v>1.70519</v>
+      </c>
+      <c r="U16">
+        <v>4109.51</v>
+      </c>
+      <c r="V16">
+        <v>93.2928</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>3928.6158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
         <v>7000</v>
       </c>
-      <c r="B13">
-        <v>1689.67</v>
-      </c>
-      <c r="C13">
-        <v>1.0100800000000001</v>
-      </c>
-      <c r="D13">
-        <v>1688.54</v>
-      </c>
-      <c r="E13">
-        <v>1.0667500000000001</v>
-      </c>
-      <c r="F13">
-        <v>1640.68</v>
-      </c>
-      <c r="G13">
-        <v>1.27267</v>
-      </c>
-      <c r="H13">
-        <v>5073.1000000000004</v>
-      </c>
-      <c r="I13">
-        <v>2.3960699999999999</v>
-      </c>
-      <c r="K13">
+      <c r="B17">
+        <v>1689.66</v>
+      </c>
+      <c r="C17">
+        <v>2.33866</v>
+      </c>
+      <c r="D17">
+        <v>1728.92</v>
+      </c>
+      <c r="E17">
+        <v>80.924000000000007</v>
+      </c>
+      <c r="F17">
+        <v>1642.28</v>
+      </c>
+      <c r="G17">
+        <v>0.76403200000000004</v>
+      </c>
+      <c r="H17">
+        <v>12596.6</v>
+      </c>
+      <c r="I17">
+        <v>692.37</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>7535.74</v>
+      </c>
+      <c r="N17">
         <v>7000</v>
       </c>
-      <c r="L13">
-        <v>83.525400000000005</v>
-      </c>
-      <c r="M13">
-        <v>1.99593</v>
-      </c>
-      <c r="N13">
-        <v>80.864999999999995</v>
-      </c>
-      <c r="O13">
-        <v>2.0760800000000001</v>
-      </c>
-      <c r="P13">
-        <v>65.384699999999995</v>
-      </c>
-      <c r="Q13">
-        <v>1.9842</v>
-      </c>
-      <c r="R13">
-        <v>332.88299999999998</v>
-      </c>
-      <c r="S13">
-        <v>5.6184099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14">
+      <c r="O17">
+        <v>85.361400000000003</v>
+      </c>
+      <c r="P17">
+        <v>2.23272</v>
+      </c>
+      <c r="Q17">
+        <v>80.498699999999999</v>
+      </c>
+      <c r="R17">
+        <v>3.1066699999999998</v>
+      </c>
+      <c r="S17">
+        <v>84.722899999999996</v>
+      </c>
+      <c r="T17">
+        <v>2.2775799999999999</v>
+      </c>
+      <c r="U17">
+        <v>7745.7</v>
+      </c>
+      <c r="V17">
+        <v>390.24299999999999</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>7495.1170000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
         <v>8000</v>
       </c>
-      <c r="B14">
-        <v>2206.2399999999998</v>
-      </c>
-      <c r="C14">
-        <v>1.4006400000000001</v>
-      </c>
-      <c r="D14">
-        <v>2204.36</v>
-      </c>
-      <c r="E14">
-        <v>0.598163</v>
-      </c>
-      <c r="F14">
-        <v>2147.56</v>
-      </c>
-      <c r="G14">
-        <v>0.74925799999999998</v>
-      </c>
-      <c r="H14">
-        <v>6615.08</v>
-      </c>
-      <c r="I14">
-        <v>2.9332699999999998</v>
-      </c>
-      <c r="K14">
+      <c r="B18">
+        <v>2605.7800000000002</v>
+      </c>
+      <c r="C18">
+        <v>507.66399999999999</v>
+      </c>
+      <c r="D18">
+        <v>2786.23</v>
+      </c>
+      <c r="E18">
+        <v>1051.92</v>
+      </c>
+      <c r="F18">
+        <v>2148.6999999999998</v>
+      </c>
+      <c r="G18">
+        <v>3.27834</v>
+      </c>
+      <c r="H18">
+        <v>29885.1</v>
+      </c>
+      <c r="I18">
+        <v>4946.76</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>22344.39</v>
+      </c>
+      <c r="N18">
         <v>8000</v>
       </c>
-      <c r="L14">
-        <v>110.181</v>
-      </c>
-      <c r="M14">
-        <v>2.38917</v>
-      </c>
-      <c r="N14">
-        <v>106.34</v>
-      </c>
-      <c r="O14">
-        <v>2.9898500000000001</v>
-      </c>
-      <c r="P14">
-        <v>86.903700000000001</v>
-      </c>
-      <c r="Q14">
-        <v>2.3995000000000002</v>
-      </c>
-      <c r="R14">
-        <v>431.98</v>
-      </c>
-      <c r="S14">
-        <v>8.3905499999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>9000</v>
-      </c>
-      <c r="B15">
-        <v>2790.75</v>
-      </c>
-      <c r="C15">
-        <v>1.5302800000000001</v>
-      </c>
-      <c r="D15">
-        <v>2790.34</v>
-      </c>
-      <c r="E15">
-        <v>1.69737</v>
-      </c>
-      <c r="F15">
-        <v>2725.08</v>
-      </c>
-      <c r="G15">
-        <v>0.50517400000000001</v>
-      </c>
-      <c r="H15">
-        <v>8363.34</v>
-      </c>
-      <c r="I15">
-        <v>3.75841</v>
-      </c>
-      <c r="K15">
-        <v>9000</v>
-      </c>
-      <c r="L15">
-        <v>153.369</v>
-      </c>
-      <c r="M15">
-        <v>36.816299999999998</v>
-      </c>
-      <c r="N15">
-        <v>129.251</v>
-      </c>
-      <c r="O15">
-        <v>1.5267299999999999</v>
-      </c>
-      <c r="P15">
-        <v>110.514</v>
-      </c>
-      <c r="Q15">
-        <v>1.6768099999999999</v>
-      </c>
-      <c r="R15">
-        <v>547.76800000000003</v>
-      </c>
-      <c r="S15">
-        <v>36.7423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16">
-        <v>10000</v>
-      </c>
-      <c r="B16">
-        <v>3447.64</v>
-      </c>
-      <c r="C16">
-        <v>3.0003799999999998</v>
-      </c>
-      <c r="D16">
-        <v>3447.06</v>
-      </c>
-      <c r="E16">
-        <v>5.22011</v>
-      </c>
-      <c r="F16">
-        <v>3377.54</v>
-      </c>
-      <c r="G16">
-        <v>0.649316</v>
-      </c>
-      <c r="H16">
-        <v>10323.299999999999</v>
-      </c>
-      <c r="I16">
-        <v>7.4278399999999998</v>
-      </c>
-      <c r="K16">
-        <v>10000</v>
-      </c>
-      <c r="L16">
-        <v>168.524</v>
-      </c>
-      <c r="M16">
-        <v>4.0373700000000001</v>
-      </c>
-      <c r="N16">
-        <v>161.45699999999999</v>
-      </c>
-      <c r="O16">
-        <v>5.6121999999999996</v>
-      </c>
-      <c r="P16">
-        <v>137.25200000000001</v>
-      </c>
-      <c r="Q16">
-        <v>2.37629</v>
-      </c>
-      <c r="R16">
-        <v>649.72799999999995</v>
-      </c>
-      <c r="S16">
-        <v>10.611800000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17">
-        <v>11000</v>
-      </c>
-      <c r="B17">
-        <v>4178.43</v>
-      </c>
-      <c r="C17">
-        <v>1.33372</v>
-      </c>
-      <c r="D17">
-        <v>4218.71</v>
-      </c>
-      <c r="E17">
-        <v>81.057100000000005</v>
-      </c>
-      <c r="F17">
-        <v>4086.38</v>
-      </c>
-      <c r="G17">
-        <v>3.6642899999999998</v>
-      </c>
-      <c r="H17">
-        <v>12539.4</v>
-      </c>
-      <c r="I17">
-        <v>82.295199999999994</v>
-      </c>
-      <c r="K17">
-        <v>11000</v>
-      </c>
-      <c r="L17">
-        <v>209.04499999999999</v>
-      </c>
-      <c r="M17">
-        <v>6.0069999999999997</v>
-      </c>
-      <c r="N17">
-        <v>213.21799999999999</v>
-      </c>
-      <c r="O17">
-        <v>20.262799999999999</v>
-      </c>
-      <c r="P17">
-        <v>170.32900000000001</v>
-      </c>
-      <c r="Q17">
-        <v>2.0206</v>
-      </c>
-      <c r="R17">
-        <v>813.37</v>
-      </c>
-      <c r="S17">
-        <v>23.881499999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18">
-        <v>12000</v>
-      </c>
-      <c r="B18">
-        <v>4973.41</v>
-      </c>
-      <c r="C18">
-        <v>2.1083400000000001</v>
-      </c>
-      <c r="D18">
-        <v>4972.09</v>
-      </c>
-      <c r="E18">
-        <v>0.90253399999999995</v>
-      </c>
-      <c r="F18">
-        <v>4864.99</v>
-      </c>
-      <c r="G18">
-        <v>3.88191</v>
-      </c>
-      <c r="H18">
-        <v>14871.3</v>
-      </c>
-      <c r="I18">
-        <v>5.2890800000000002</v>
-      </c>
-      <c r="K18">
-        <v>12000</v>
-      </c>
-      <c r="L18">
-        <v>244.7</v>
-      </c>
-      <c r="M18">
-        <v>7.6800199999999998</v>
-      </c>
-      <c r="N18">
-        <v>241.12700000000001</v>
-      </c>
       <c r="O18">
-        <v>7.1522899999999998</v>
+        <v>115.874</v>
       </c>
       <c r="P18">
-        <v>196.93100000000001</v>
+        <v>4.1911100000000001</v>
       </c>
       <c r="Q18">
-        <v>4.6330600000000004</v>
+        <v>112.209</v>
       </c>
       <c r="R18">
-        <v>968.04100000000005</v>
+        <v>5.4715100000000003</v>
       </c>
       <c r="S18">
-        <v>26.942499999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19">
-        <v>13000</v>
-      </c>
-      <c r="B19">
-        <v>6094.34</v>
-      </c>
-      <c r="C19">
-        <v>445.971</v>
-      </c>
-      <c r="D19">
-        <v>6179.4</v>
-      </c>
-      <c r="E19">
-        <v>590.24300000000005</v>
-      </c>
-      <c r="F19">
-        <v>5719.51</v>
-      </c>
-      <c r="G19">
-        <v>4.1274499999999996</v>
-      </c>
-      <c r="H19">
-        <v>18049</v>
-      </c>
-      <c r="I19">
-        <v>1036.01</v>
-      </c>
-      <c r="K19">
-        <v>13000</v>
-      </c>
-      <c r="L19">
-        <v>287.86700000000002</v>
-      </c>
-      <c r="M19">
-        <v>7.33256</v>
-      </c>
-      <c r="N19">
-        <v>281.95499999999998</v>
-      </c>
-      <c r="O19">
-        <v>9.1601800000000004</v>
-      </c>
-      <c r="P19">
-        <v>234.834</v>
-      </c>
-      <c r="Q19">
-        <v>3.6621199999999998</v>
-      </c>
-      <c r="R19">
-        <v>1110.8800000000001</v>
-      </c>
-      <c r="S19">
-        <v>20.704000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20">
-        <v>14000</v>
-      </c>
-      <c r="B20">
-        <v>6667.6</v>
-      </c>
-      <c r="C20">
-        <v>5.6888500000000004</v>
-      </c>
-      <c r="D20">
-        <v>6664.09</v>
-      </c>
-      <c r="E20">
-        <v>1.01213</v>
-      </c>
-      <c r="F20">
-        <v>6632.29</v>
-      </c>
-      <c r="G20">
-        <v>4.1684099999999997</v>
-      </c>
-      <c r="H20">
-        <v>20031.8</v>
-      </c>
-      <c r="I20">
-        <v>12.4366</v>
-      </c>
-      <c r="K20">
-        <v>14000</v>
-      </c>
-      <c r="L20">
-        <v>345.90499999999997</v>
-      </c>
-      <c r="M20">
-        <v>11.763199999999999</v>
-      </c>
-      <c r="N20">
-        <v>332.505</v>
-      </c>
-      <c r="O20">
-        <v>9.9489199999999993</v>
-      </c>
-      <c r="P20">
-        <v>276.28899999999999</v>
-      </c>
-      <c r="Q20">
-        <v>7.4960100000000001</v>
-      </c>
-      <c r="R20">
-        <v>1315.76</v>
-      </c>
-      <c r="S20">
-        <v>34.320300000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21">
-        <v>15000</v>
-      </c>
-      <c r="B21">
-        <v>9715.5400000000009</v>
-      </c>
-      <c r="C21">
-        <v>1888.25</v>
-      </c>
-      <c r="D21">
-        <v>9433.67</v>
-      </c>
-      <c r="E21">
-        <v>1480.24</v>
-      </c>
-      <c r="F21">
-        <v>7619.29</v>
-      </c>
-      <c r="G21">
-        <v>1.13889</v>
-      </c>
-      <c r="H21">
-        <v>26829.7</v>
-      </c>
-      <c r="I21">
-        <v>3200.3</v>
-      </c>
-      <c r="K21">
-        <v>15000</v>
-      </c>
-      <c r="L21">
-        <v>386.089</v>
-      </c>
-      <c r="M21">
-        <v>8.6022800000000004</v>
-      </c>
-      <c r="N21">
-        <v>382.30500000000001</v>
-      </c>
-      <c r="O21">
-        <v>16.0931</v>
-      </c>
-      <c r="P21">
-        <v>318.52100000000002</v>
-      </c>
-      <c r="Q21">
-        <v>6.61409</v>
-      </c>
-      <c r="R21">
-        <v>1498.69</v>
-      </c>
-      <c r="S21">
-        <v>43.9788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>111.554</v>
+      </c>
+      <c r="T18">
+        <v>4.31412</v>
+      </c>
+      <c r="U18">
+        <v>23848.2</v>
+      </c>
+      <c r="V18">
+        <v>4200.34</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>23508.563000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="B19" s="2">
+        <f>B18/$H$18</f>
+        <v>8.7193283609557956E-2</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <f t="shared" ref="C19:G19" si="2">D18/$H$18</f>
+        <v>9.323140963222476E-2</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1898705374919269E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <f>O18/$U$18</f>
+        <v>4.8588153403611167E-3</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2">
+        <f t="shared" ref="P19:U19" si="3">Q18/$U$18</f>
+        <v>4.7051349787405336E-3</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2">
+        <f t="shared" si="3"/>
+        <v>4.677669593512299E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="B21" s="2">
+        <f>SUM(B19:F19)</f>
+        <v>0.252323398616702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1988,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:23">
       <c r="B28">
         <v>0.11600000000000001</v>
       </c>
@@ -2019,12 +2224,12 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>9.4090000000000007</v>
       </c>
@@ -2032,12 +2237,15 @@
         <v>5.1410610261478508E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="N34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -2050,20 +2258,26 @@
       <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="L35" t="s">
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
         <v>11</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>12</v>
       </c>
-      <c r="P35" t="s">
+      <c r="S35" t="s">
         <v>13</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="W35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="B36" t="s">
         <v>2</v>
       </c>
@@ -2088,646 +2302,570 @@
       <c r="I36" t="s">
         <v>3</v>
       </c>
-      <c r="L36" t="s">
+      <c r="J36" t="s">
         <v>2</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" t="s">
         <v>3</v>
       </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
         <v>2</v>
       </c>
-      <c r="O36" t="s">
+      <c r="R36" t="s">
         <v>3</v>
       </c>
-      <c r="P36" t="s">
+      <c r="S36" t="s">
         <v>2</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="T36" t="s">
         <v>3</v>
       </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>2</v>
       </c>
-      <c r="S36" t="s">
+      <c r="V36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37">
+      <c r="W36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B37">
+        <v>4.5576800000000004</v>
+      </c>
+      <c r="C37">
+        <v>0.16997999999999999</v>
+      </c>
+      <c r="D37">
+        <v>4.0691300000000004</v>
+      </c>
+      <c r="E37">
+        <v>0.112581</v>
+      </c>
+      <c r="F37">
+        <v>1.9063099999999999</v>
+      </c>
+      <c r="G37">
+        <v>1.0858399999999999</v>
+      </c>
+      <c r="H37">
+        <v>205.55500000000001</v>
+      </c>
+      <c r="I37">
+        <v>21.383199999999999</v>
+      </c>
+      <c r="J37">
+        <f>H37-F37-D37-B37</f>
+        <v>195.02188000000001</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O37">
+        <v>1.2381800000000001</v>
+      </c>
+      <c r="P37">
+        <v>0.15640299999999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.78407800000000005</v>
+      </c>
+      <c r="R37">
+        <v>1.9237299999999999E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.64296900000000001</v>
+      </c>
+      <c r="T37">
+        <v>0.35591699999999998</v>
+      </c>
+      <c r="U37">
+        <v>206.37</v>
+      </c>
+      <c r="V37">
+        <v>49.902700000000003</v>
+      </c>
+      <c r="W37">
+        <f>U37-S37-Q37-O37</f>
+        <v>203.70477300000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B38">
+        <v>16.009699999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.19988300000000001</v>
+      </c>
+      <c r="D38">
+        <v>15.536199999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.161054</v>
+      </c>
+      <c r="F38">
+        <v>16.5609</v>
+      </c>
+      <c r="G38">
+        <v>3.0083899999999999</v>
+      </c>
+      <c r="H38">
+        <v>1337.89</v>
+      </c>
+      <c r="I38">
+        <v>5.3365200000000002</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J44" si="4">H38-F38-D38-B38</f>
+        <v>1289.7832000000001</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="O38">
+        <v>4.1445699999999999</v>
+      </c>
+      <c r="P38">
+        <v>0.64346800000000004</v>
+      </c>
+      <c r="Q38">
+        <v>3.1994799999999999</v>
+      </c>
+      <c r="R38">
+        <v>0.122831</v>
+      </c>
+      <c r="S38">
+        <v>2.0405700000000002</v>
+      </c>
+      <c r="T38">
+        <v>1.1392</v>
+      </c>
+      <c r="U38">
+        <v>1290.69</v>
+      </c>
+      <c r="V38">
+        <v>2.7359499999999999</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ref="W38:W44" si="5">U38-S38-Q38-O38</f>
+        <v>1281.3053800000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B39">
+        <v>35.311</v>
+      </c>
+      <c r="C39">
+        <v>0.10216</v>
+      </c>
+      <c r="D39">
+        <v>35.097200000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.24798600000000001</v>
+      </c>
+      <c r="F39">
+        <v>52.907400000000003</v>
+      </c>
+      <c r="G39">
+        <v>1.57033</v>
+      </c>
+      <c r="H39">
+        <v>4424.2700000000004</v>
+      </c>
+      <c r="I39">
+        <v>23.736799999999999</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>4300.9544000000005</v>
+      </c>
+      <c r="N39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O39">
+        <v>11.2453</v>
+      </c>
+      <c r="P39">
+        <v>1.6976899999999999</v>
+      </c>
+      <c r="Q39">
+        <v>6.7823000000000002</v>
+      </c>
+      <c r="R39">
+        <v>0.36729699999999998</v>
+      </c>
+      <c r="S39">
+        <v>6.2560799999999999</v>
+      </c>
+      <c r="T39">
+        <v>0.64010599999999995</v>
+      </c>
+      <c r="U39">
+        <v>4375.71</v>
+      </c>
+      <c r="V39">
+        <v>44.787300000000002</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>4351.4263200000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B40">
+        <v>63.06</v>
+      </c>
+      <c r="C40">
+        <v>1.1243799999999999</v>
+      </c>
+      <c r="D40">
+        <v>61.739400000000003</v>
+      </c>
+      <c r="E40">
+        <v>0.90982799999999997</v>
+      </c>
+      <c r="F40">
+        <v>95.449299999999994</v>
+      </c>
+      <c r="G40">
+        <v>1.7746900000000001</v>
+      </c>
+      <c r="H40">
+        <v>11889</v>
+      </c>
+      <c r="I40">
+        <v>292.14800000000002</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>11668.7513</v>
+      </c>
+      <c r="N40" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O40">
+        <v>16.335999999999999</v>
+      </c>
+      <c r="P40">
+        <v>0.45403300000000002</v>
+      </c>
+      <c r="Q40">
+        <v>11.872400000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.50785000000000002</v>
+      </c>
+      <c r="S40">
+        <v>11.8895</v>
+      </c>
+      <c r="T40">
+        <v>0.81598700000000002</v>
+      </c>
+      <c r="U40">
+        <v>11842</v>
+      </c>
+      <c r="V40">
+        <v>70.101500000000001</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="5"/>
+        <v>11801.902100000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
         <v>5000</v>
       </c>
-      <c r="B37">
-        <v>88.031800000000004</v>
-      </c>
-      <c r="C37">
-        <v>5.3885800000000001</v>
-      </c>
-      <c r="D37">
-        <v>87.681799999999996</v>
-      </c>
-      <c r="E37">
-        <v>4.9174100000000003</v>
-      </c>
-      <c r="F37">
-        <v>92.979399999999998</v>
-      </c>
-      <c r="G37">
-        <v>0.26677800000000002</v>
-      </c>
-      <c r="H37">
-        <v>321.01400000000001</v>
-      </c>
-      <c r="I37">
-        <v>62.871699999999997</v>
-      </c>
-      <c r="K37">
+      <c r="B41">
+        <v>97.630600000000001</v>
+      </c>
+      <c r="C41">
+        <v>9.9066100000000004E-2</v>
+      </c>
+      <c r="D41">
+        <v>95.191199999999995</v>
+      </c>
+      <c r="E41">
+        <v>2.1014300000000001</v>
+      </c>
+      <c r="F41">
+        <v>142.57300000000001</v>
+      </c>
+      <c r="G41">
+        <v>4.3521299999999998</v>
+      </c>
+      <c r="H41">
+        <v>23857.3</v>
+      </c>
+      <c r="I41">
+        <v>63.332799999999999</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>23521.905199999997</v>
+      </c>
+      <c r="N41" s="1">
         <v>5000</v>
       </c>
-      <c r="L37">
-        <v>31.9024</v>
-      </c>
-      <c r="M37">
-        <v>3.34938</v>
-      </c>
-      <c r="N37">
-        <v>19.252300000000002</v>
-      </c>
-      <c r="O37">
-        <v>1.0502199999999999</v>
-      </c>
-      <c r="P37">
-        <v>14.355399999999999</v>
-      </c>
-      <c r="Q37">
-        <v>0.56968399999999997</v>
-      </c>
-      <c r="R37">
-        <v>116.908</v>
-      </c>
-      <c r="S37">
-        <v>27.907699999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38">
+      <c r="O41">
+        <v>32.078699999999998</v>
+      </c>
+      <c r="P41">
+        <v>3.3100800000000001</v>
+      </c>
+      <c r="Q41">
+        <v>20.182600000000001</v>
+      </c>
+      <c r="R41">
+        <v>0.936608</v>
+      </c>
+      <c r="S41">
+        <v>19.2803</v>
+      </c>
+      <c r="T41">
+        <v>0.92628999999999995</v>
+      </c>
+      <c r="U41">
+        <v>24054.799999999999</v>
+      </c>
+      <c r="V41">
+        <v>267.33499999999998</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="5"/>
+        <v>23983.258400000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
         <v>6000</v>
       </c>
-      <c r="B38">
-        <v>133.40799999999999</v>
-      </c>
-      <c r="C38">
-        <v>7.2579799999999999</v>
-      </c>
-      <c r="D38">
-        <v>132.69499999999999</v>
-      </c>
-      <c r="E38">
-        <v>6.2254500000000004</v>
-      </c>
-      <c r="F38">
-        <v>132.934</v>
-      </c>
-      <c r="G38">
-        <v>5.8196300000000001</v>
-      </c>
-      <c r="H38">
-        <v>427.16199999999998</v>
-      </c>
-      <c r="I38">
-        <v>6.2026500000000002</v>
-      </c>
-      <c r="K38">
+      <c r="B42">
+        <v>140.1</v>
+      </c>
+      <c r="C42">
+        <v>0.24343200000000001</v>
+      </c>
+      <c r="D42">
+        <v>131.37100000000001</v>
+      </c>
+      <c r="E42">
+        <v>7.1109900000000001</v>
+      </c>
+      <c r="F42">
+        <v>192.209</v>
+      </c>
+      <c r="G42">
+        <v>5.9148399999999999</v>
+      </c>
+      <c r="H42">
+        <v>45614.7</v>
+      </c>
+      <c r="I42">
+        <v>161.417</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>45151.02</v>
+      </c>
+      <c r="N42" s="1">
         <v>6000</v>
       </c>
-      <c r="L38">
-        <v>40.639800000000001</v>
-      </c>
-      <c r="M38">
-        <v>2.3939499999999998</v>
-      </c>
-      <c r="N38">
-        <v>28.9682</v>
-      </c>
-      <c r="O38">
-        <v>2.0374699999999999</v>
-      </c>
-      <c r="P38">
-        <v>22.006900000000002</v>
-      </c>
-      <c r="Q38">
-        <v>0.92552900000000005</v>
-      </c>
-      <c r="R38">
-        <v>137.52799999999999</v>
-      </c>
-      <c r="S38">
-        <v>4.7656400000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39">
+      <c r="O42">
+        <v>44.2652</v>
+      </c>
+      <c r="P42">
+        <v>4.3238300000000001</v>
+      </c>
+      <c r="Q42">
+        <v>30.123000000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.58267100000000005</v>
+      </c>
+      <c r="S42">
+        <v>28.394100000000002</v>
+      </c>
+      <c r="T42">
+        <v>1.7996700000000001</v>
+      </c>
+      <c r="U42">
+        <v>45420.800000000003</v>
+      </c>
+      <c r="V42">
+        <v>276.31799999999998</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>45318.017700000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="1">
         <v>7000</v>
       </c>
-      <c r="B39">
-        <v>181.66499999999999</v>
-      </c>
-      <c r="C39">
-        <v>8.2699499999999997</v>
-      </c>
-      <c r="D39">
-        <v>174.78700000000001</v>
-      </c>
-      <c r="E39">
-        <v>7.0351100000000004</v>
-      </c>
-      <c r="F39">
-        <v>186.833</v>
-      </c>
-      <c r="G39">
-        <v>10.0961</v>
-      </c>
-      <c r="H39">
-        <v>569.721</v>
-      </c>
-      <c r="I39">
-        <v>17.8964</v>
-      </c>
-      <c r="K39">
+      <c r="B43">
+        <v>188.00299999999999</v>
+      </c>
+      <c r="C43">
+        <v>3.0268799999999998</v>
+      </c>
+      <c r="D43">
+        <v>170.261</v>
+      </c>
+      <c r="E43">
+        <v>3.14656</v>
+      </c>
+      <c r="F43">
+        <v>246.44900000000001</v>
+      </c>
+      <c r="G43">
+        <v>10.3987</v>
+      </c>
+      <c r="H43">
+        <v>82049.2</v>
+      </c>
+      <c r="I43">
+        <v>453.85700000000003</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>81444.487000000008</v>
+      </c>
+      <c r="N43" s="1">
         <v>7000</v>
       </c>
-      <c r="L39">
-        <v>58.395800000000001</v>
-      </c>
-      <c r="M39">
-        <v>5.3858800000000002</v>
-      </c>
-      <c r="N39">
-        <v>39.136299999999999</v>
-      </c>
-      <c r="O39">
-        <v>2.2621500000000001</v>
-      </c>
-      <c r="P39">
-        <v>30.737300000000001</v>
-      </c>
-      <c r="Q39">
-        <v>0.98782099999999995</v>
-      </c>
-      <c r="R39">
-        <v>185.32400000000001</v>
-      </c>
-      <c r="S39">
-        <v>7.7344499999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40">
+      <c r="O43">
+        <v>66.0364</v>
+      </c>
+      <c r="P43">
+        <v>8.7558699999999998</v>
+      </c>
+      <c r="Q43">
+        <v>41.001300000000001</v>
+      </c>
+      <c r="R43">
+        <v>0.69289100000000003</v>
+      </c>
+      <c r="S43">
+        <v>38.804200000000002</v>
+      </c>
+      <c r="T43">
+        <v>2.33351</v>
+      </c>
+      <c r="U43">
+        <v>82141.8</v>
+      </c>
+      <c r="V43">
+        <v>521.84900000000005</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="5"/>
+        <v>81995.958100000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="1">
         <v>8000</v>
       </c>
-      <c r="B40">
-        <v>242.42</v>
-      </c>
-      <c r="C40">
-        <v>1.77335</v>
-      </c>
-      <c r="D40">
-        <v>217.87200000000001</v>
-      </c>
-      <c r="E40">
-        <v>2.39212E-2</v>
-      </c>
-      <c r="F40">
-        <v>240.25200000000001</v>
-      </c>
-      <c r="G40">
-        <v>1.32063</v>
-      </c>
-      <c r="H40">
-        <v>736.42399999999998</v>
-      </c>
-      <c r="I40">
-        <v>12.0063</v>
-      </c>
-      <c r="K40">
+      <c r="B44">
+        <v>246.08099999999999</v>
+      </c>
+      <c r="C44">
+        <v>1.2195199999999999</v>
+      </c>
+      <c r="D44">
+        <v>219.66300000000001</v>
+      </c>
+      <c r="E44">
+        <v>2.8430200000000001</v>
+      </c>
+      <c r="F44">
+        <v>299.476</v>
+      </c>
+      <c r="G44">
+        <v>18.226900000000001</v>
+      </c>
+      <c r="H44">
+        <v>156657</v>
+      </c>
+      <c r="I44">
+        <v>2295.92</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>155891.78</v>
+      </c>
+      <c r="N44" s="1">
         <v>8000</v>
       </c>
-      <c r="L40">
-        <v>70.474400000000003</v>
-      </c>
-      <c r="M40">
-        <v>3.18418</v>
-      </c>
-      <c r="N40">
-        <v>51.955399999999997</v>
-      </c>
-      <c r="O40">
-        <v>2.3426800000000001</v>
-      </c>
-      <c r="P40">
-        <v>38.174999999999997</v>
-      </c>
-      <c r="Q40">
-        <v>1.3877200000000001</v>
-      </c>
-      <c r="R40">
-        <v>228.88800000000001</v>
-      </c>
-      <c r="S40">
-        <v>8.4862300000000008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41">
-        <v>9000</v>
-      </c>
-      <c r="B41">
-        <v>309.64699999999999</v>
-      </c>
-      <c r="C41">
-        <v>12.584</v>
-      </c>
-      <c r="D41">
-        <v>276.71499999999997</v>
-      </c>
-      <c r="E41">
-        <v>1.18666</v>
-      </c>
-      <c r="F41">
-        <v>297.77800000000002</v>
-      </c>
-      <c r="G41">
-        <v>5.9555999999999996</v>
-      </c>
-      <c r="H41">
-        <v>918.90599999999995</v>
-      </c>
-      <c r="I41">
-        <v>21.567299999999999</v>
-      </c>
-      <c r="K41">
-        <v>9000</v>
-      </c>
-      <c r="L41">
-        <v>93.250799999999998</v>
-      </c>
-      <c r="M41">
-        <v>4.3472099999999996</v>
-      </c>
-      <c r="N41">
-        <v>67.814400000000006</v>
-      </c>
-      <c r="O41">
-        <v>1.46523</v>
-      </c>
-      <c r="P41">
-        <v>47.572699999999998</v>
-      </c>
-      <c r="Q41">
-        <v>3.2791000000000001</v>
-      </c>
-      <c r="R41">
-        <v>291.20600000000002</v>
-      </c>
-      <c r="S41">
-        <v>6.90402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42">
-        <v>10000</v>
-      </c>
-      <c r="B42">
-        <v>371.87299999999999</v>
-      </c>
-      <c r="C42">
-        <v>20.198799999999999</v>
-      </c>
-      <c r="D42">
-        <v>340.27300000000002</v>
-      </c>
-      <c r="E42">
-        <v>3.2799700000000001E-2</v>
-      </c>
-      <c r="F42">
-        <v>363.23599999999999</v>
-      </c>
-      <c r="G42">
-        <v>8.2199399999999994</v>
-      </c>
-      <c r="H42">
-        <v>1110.1600000000001</v>
-      </c>
-      <c r="I42">
-        <v>31.947800000000001</v>
-      </c>
-      <c r="K42">
-        <v>10000</v>
-      </c>
-      <c r="L42">
-        <v>120.26300000000001</v>
-      </c>
-      <c r="M42">
-        <v>16.199100000000001</v>
-      </c>
-      <c r="N42">
-        <v>79.7821</v>
-      </c>
-      <c r="O42">
-        <v>4.86538</v>
-      </c>
-      <c r="P42">
-        <v>57.804699999999997</v>
-      </c>
-      <c r="Q42">
-        <v>2.8904100000000001</v>
-      </c>
-      <c r="R42">
-        <v>357.13499999999999</v>
-      </c>
-      <c r="S42">
-        <v>22.254300000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43">
-        <v>11000</v>
-      </c>
-      <c r="B43">
-        <v>440.28100000000001</v>
-      </c>
-      <c r="C43">
-        <v>8.6449300000000004</v>
-      </c>
-      <c r="D43">
-        <v>411.66800000000001</v>
-      </c>
-      <c r="E43">
-        <v>6.1759300000000003E-2</v>
-      </c>
-      <c r="F43">
-        <v>434.548</v>
-      </c>
-      <c r="G43">
-        <v>7.6276999999999999</v>
-      </c>
-      <c r="H43">
-        <v>1319.01</v>
-      </c>
-      <c r="I43">
-        <v>10.8506</v>
-      </c>
-      <c r="K43">
-        <v>11000</v>
-      </c>
-      <c r="L43">
-        <v>151.13999999999999</v>
-      </c>
-      <c r="M43">
-        <v>18.499500000000001</v>
-      </c>
-      <c r="N43">
-        <v>101.184</v>
-      </c>
-      <c r="O43">
-        <v>1.6491199999999999</v>
-      </c>
-      <c r="P43">
-        <v>69.837100000000007</v>
-      </c>
-      <c r="Q43">
-        <v>3.8081</v>
-      </c>
-      <c r="R43">
-        <v>437.65100000000001</v>
-      </c>
-      <c r="S43">
-        <v>18.714400000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44">
-        <v>12000</v>
-      </c>
-      <c r="B44">
-        <v>515.88400000000001</v>
-      </c>
-      <c r="C44">
-        <v>9.9819600000000008</v>
-      </c>
-      <c r="D44">
-        <v>489.846</v>
-      </c>
-      <c r="E44">
-        <v>6.1942400000000002E-2</v>
-      </c>
-      <c r="F44">
-        <v>515.21</v>
-      </c>
-      <c r="G44">
-        <v>12.943099999999999</v>
-      </c>
-      <c r="H44">
-        <v>1554.17</v>
-      </c>
-      <c r="I44">
-        <v>21.442900000000002</v>
-      </c>
-      <c r="K44">
-        <v>12000</v>
-      </c>
-      <c r="L44">
-        <v>166.41300000000001</v>
-      </c>
-      <c r="M44">
-        <v>22.349399999999999</v>
-      </c>
-      <c r="N44">
-        <v>111.872</v>
-      </c>
       <c r="O44">
-        <v>6.2070400000000001</v>
+        <v>79.381900000000002</v>
       </c>
       <c r="P44">
-        <v>77.7</v>
+        <v>11.6881</v>
       </c>
       <c r="Q44">
-        <v>0.63691600000000004</v>
+        <v>53.626600000000003</v>
       </c>
       <c r="R44">
-        <v>489.24</v>
+        <v>0.81404200000000004</v>
       </c>
       <c r="S44">
-        <v>28.991299999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45">
-        <v>13000</v>
-      </c>
-      <c r="B45">
-        <v>606.80799999999999</v>
-      </c>
-      <c r="C45">
-        <v>12.4802</v>
-      </c>
-      <c r="D45">
-        <v>665.63699999999994</v>
-      </c>
-      <c r="E45">
-        <v>181.54300000000001</v>
-      </c>
-      <c r="F45">
-        <v>611.24699999999996</v>
-      </c>
-      <c r="G45">
-        <v>18.923100000000002</v>
-      </c>
-      <c r="H45">
-        <v>1918.05</v>
-      </c>
-      <c r="I45">
-        <v>189.02799999999999</v>
-      </c>
-      <c r="K45">
-        <v>13000</v>
-      </c>
-      <c r="L45">
-        <v>189.37200000000001</v>
-      </c>
-      <c r="M45">
-        <v>3.9030999999999998</v>
-      </c>
-      <c r="N45">
-        <v>140.67500000000001</v>
-      </c>
-      <c r="O45">
-        <v>2.8219699999999999</v>
-      </c>
-      <c r="P45">
-        <v>93.9285</v>
-      </c>
-      <c r="Q45">
-        <v>4.56311</v>
-      </c>
-      <c r="R45">
-        <v>571.85500000000002</v>
-      </c>
-      <c r="S45">
-        <v>9.9409299999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46">
-        <v>14000</v>
-      </c>
-      <c r="B46">
-        <v>693.56100000000004</v>
-      </c>
-      <c r="C46">
-        <v>8.0083199999999994</v>
-      </c>
-      <c r="D46">
-        <v>666.68100000000004</v>
-      </c>
-      <c r="E46">
-        <v>3.1686400000000003E-2</v>
-      </c>
-      <c r="F46">
-        <v>694.529</v>
-      </c>
-      <c r="G46">
-        <v>7.3972699999999998</v>
-      </c>
-      <c r="H46">
-        <v>2113.52</v>
-      </c>
-      <c r="I46">
-        <v>57.291499999999999</v>
-      </c>
-      <c r="K46">
-        <v>14000</v>
-      </c>
-      <c r="L46">
-        <v>225.43600000000001</v>
-      </c>
-      <c r="M46">
-        <v>3.2178599999999999</v>
-      </c>
-      <c r="N46">
-        <v>158.66999999999999</v>
-      </c>
-      <c r="O46">
-        <v>7.3597599999999996</v>
-      </c>
-      <c r="P46">
-        <v>104.813</v>
-      </c>
-      <c r="Q46">
-        <v>0.49669099999999999</v>
-      </c>
-      <c r="R46">
-        <v>660.01</v>
-      </c>
-      <c r="S46">
-        <v>8.4717699999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47">
-        <v>15000</v>
-      </c>
-      <c r="B47">
-        <v>794.43200000000002</v>
-      </c>
-      <c r="C47">
-        <v>9.6436399999999995</v>
-      </c>
-      <c r="D47">
-        <v>765.26</v>
-      </c>
-      <c r="E47">
-        <v>7.0381200000000005E-2</v>
-      </c>
-      <c r="F47">
-        <v>794.15200000000004</v>
-      </c>
-      <c r="G47">
-        <v>10.052</v>
-      </c>
-      <c r="H47">
-        <v>2384.4899999999998</v>
-      </c>
-      <c r="I47">
-        <v>23.008099999999999</v>
-      </c>
-      <c r="K47">
-        <v>15000</v>
-      </c>
-      <c r="L47">
-        <v>259.61700000000002</v>
-      </c>
-      <c r="M47">
-        <v>2.6839200000000001</v>
-      </c>
-      <c r="N47">
-        <v>181.62700000000001</v>
-      </c>
-      <c r="O47">
-        <v>5.9564300000000001</v>
-      </c>
-      <c r="P47">
-        <v>125.40900000000001</v>
-      </c>
-      <c r="Q47">
-        <v>4.4100799999999998</v>
-      </c>
-      <c r="R47">
-        <v>765.08500000000004</v>
-      </c>
-      <c r="S47">
-        <v>17.2943</v>
-      </c>
+        <v>50.285200000000003</v>
+      </c>
+      <c r="T44">
+        <v>2.75569</v>
+      </c>
+      <c r="U44">
+        <v>155718</v>
+      </c>
+      <c r="V44">
+        <v>2521.4499999999998</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="5"/>
+        <v>155534.70629999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2">
+        <f>B44/$H$44</f>
+        <v>1.57082671058427E-3</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <f t="shared" ref="C45:G45" si="6">D44/$H$44</f>
+        <v>1.402190773473257E-3</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9116668900847073E-3</v>
+      </c>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2738,4 +2876,23 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dopencl summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Aparapi Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>Local</t>
   </si>
@@ -29,6 +30,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>STDEV</t>
   </si>
   <si>
     <t>STDDEV</t>
@@ -77,6 +81,39 @@
   </si>
   <si>
     <t>Computation</t>
+  </si>
+  <si>
+    <t>BUFFER AVG</t>
+  </si>
+  <si>
+    <t>BUFFER STDEV</t>
+  </si>
+  <si>
+    <t>COMPUTATION AVG</t>
+  </si>
+  <si>
+    <t>COMPUTATION STDEV</t>
+  </si>
+  <si>
+    <t>TOTAL AVG</t>
+  </si>
+  <si>
+    <t>TOTAL STDEV</t>
+  </si>
+  <si>
+    <t>n=100</t>
+  </si>
+  <si>
+    <t>Aparapi small kernel small data</t>
+  </si>
+  <si>
+    <t>Aparapi large kernel small data</t>
+  </si>
+  <si>
+    <t>Aparapi</t>
+  </si>
+  <si>
+    <t>Original</t>
   </si>
 </sst>
 </file>
@@ -136,8 +173,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="499">
+  <cellStyleXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -642,7 +769,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="499">
+  <cellStyles count="589">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -892,6 +1019,51 @@
     <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1141,6 +1313,51 @@
     <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1472,18 +1689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1496,13 +1713,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1521,7 +1738,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1"/>
       <c r="K5">
@@ -1551,34 +1768,34 @@
     </row>
     <row r="9" spans="1:23">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="Q9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="S9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" t="s">
-        <v>13</v>
-      </c>
       <c r="U9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1586,25 +1803,25 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -1613,25 +1830,25 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="s">
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s">
         <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10" t="s">
         <v>2</v>
       </c>
       <c r="V10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W10" t="s">
         <v>2</v>
@@ -2187,27 +2404,27 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2226,7 +2443,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2247,34 +2464,34 @@
     </row>
     <row r="35" spans="1:23">
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="Q35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
+      <c r="S35" t="s">
         <v>14</v>
       </c>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" t="s">
-        <v>13</v>
-      </c>
       <c r="U35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2282,25 +2499,25 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>2</v>
@@ -2309,25 +2526,25 @@
         <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="s">
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S36" t="s">
         <v>2</v>
       </c>
       <c r="T36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U36" t="s">
         <v>2</v>
       </c>
       <c r="V36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W36" t="s">
         <v>2</v>
@@ -2880,15 +3097,2189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <f>'dopencl matrix'!B11+'dopencl matrix'!D11+'dopencl matrix'!F11</f>
+        <v>91.254000000000005</v>
+      </c>
+      <c r="C4">
+        <f>SQRT('dopencl matrix'!C11^2+'dopencl matrix'!E11^2+'dopencl matrix'!G11^2)</f>
+        <v>1.9297487998527167</v>
+      </c>
+      <c r="D4">
+        <f>F4-B4</f>
+        <v>87.112000000000009</v>
+      </c>
+      <c r="E4">
+        <f>SQRT(G4^2-C4^2)</f>
+        <v>33.663634485590926</v>
+      </c>
+      <c r="F4">
+        <f>'dopencl matrix'!H11</f>
+        <v>178.36600000000001</v>
+      </c>
+      <c r="G4">
+        <f>'dopencl matrix'!I11</f>
+        <v>33.718899999999998</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <f>'dopencl matrix'!O11+'dopencl matrix'!Q11+'dopencl matrix'!S11</f>
+        <v>6.0172899999999991</v>
+      </c>
+      <c r="L4">
+        <f>SQRT('dopencl matrix'!P11^2+'dopencl matrix'!R11^2+'dopencl matrix'!T11^2)</f>
+        <v>0.51182981963637086</v>
+      </c>
+      <c r="M4">
+        <f>O4-K4</f>
+        <v>109.97270999999999</v>
+      </c>
+      <c r="N4">
+        <f>SQRT(P4^2-L4^2)</f>
+        <v>71.816376137171744</v>
+      </c>
+      <c r="O4">
+        <f>'dopencl matrix'!U11</f>
+        <v>115.99</v>
+      </c>
+      <c r="P4">
+        <f>'dopencl matrix'!V11</f>
+        <v>71.818200000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <f>'dopencl matrix'!B12+'dopencl matrix'!D12+'dopencl matrix'!F12</f>
+        <v>397.529</v>
+      </c>
+      <c r="C5">
+        <f>SQRT('dopencl matrix'!C12^2+'dopencl matrix'!E12^2+'dopencl matrix'!G12^2)</f>
+        <v>0.69542909189291191</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D11" si="0">F5-B5</f>
+        <v>168.69299999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="1">SQRT(G5^2-C5^2)</f>
+        <v>5.4413001104284815</v>
+      </c>
+      <c r="F5">
+        <f>'dopencl matrix'!H12</f>
+        <v>566.22199999999998</v>
+      </c>
+      <c r="G5">
+        <f>'dopencl matrix'!I12</f>
+        <v>5.4855600000000004</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K5">
+        <f>'dopencl matrix'!O12+'dopencl matrix'!Q12+'dopencl matrix'!S12</f>
+        <v>18.09273</v>
+      </c>
+      <c r="L5">
+        <f>SQRT('dopencl matrix'!P12^2+'dopencl matrix'!R12^2+'dopencl matrix'!T12^2)</f>
+        <v>1.9232586793005773</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M11" si="2">O5-K5</f>
+        <v>146.13327000000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N11" si="3">SQRT(P5^2-L5^2)</f>
+        <v>3.4482438778884243</v>
+      </c>
+      <c r="O5">
+        <f>'dopencl matrix'!U12</f>
+        <v>164.226</v>
+      </c>
+      <c r="P5">
+        <f>'dopencl matrix'!V12</f>
+        <v>3.9483299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6">
+        <f>'dopencl matrix'!B13+'dopencl matrix'!D13+'dopencl matrix'!F13</f>
+        <v>910.55099999999993</v>
+      </c>
+      <c r="C6">
+        <f>SQRT('dopencl matrix'!C13^2+'dopencl matrix'!E13^2+'dopencl matrix'!G13^2)</f>
+        <v>0.66152169755118384</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>449.64900000000011</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>8.072269537903761</v>
+      </c>
+      <c r="F6">
+        <f>'dopencl matrix'!H13</f>
+        <v>1360.2</v>
+      </c>
+      <c r="G6">
+        <f>'dopencl matrix'!I13</f>
+        <v>8.0993300000000001</v>
+      </c>
+      <c r="J6">
+        <v>3000</v>
+      </c>
+      <c r="K6">
+        <f>'dopencl matrix'!O13+'dopencl matrix'!Q13+'dopencl matrix'!S13</f>
+        <v>47.407200000000003</v>
+      </c>
+      <c r="L6">
+        <f>SQRT('dopencl matrix'!P13^2+'dopencl matrix'!R13^2+'dopencl matrix'!T13^2)</f>
+        <v>2.2121797423984337</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>432.62279999999998</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>2.4838280061674962</v>
+      </c>
+      <c r="O6">
+        <f>'dopencl matrix'!U13</f>
+        <v>480.03</v>
+      </c>
+      <c r="P6">
+        <f>'dopencl matrix'!V13</f>
+        <v>3.32613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B7">
+        <f>'dopencl matrix'!B14+'dopencl matrix'!D14+'dopencl matrix'!F14</f>
+        <v>1630.2670000000003</v>
+      </c>
+      <c r="C7">
+        <f>SQRT('dopencl matrix'!C14^2+'dopencl matrix'!E14^2+'dopencl matrix'!G14^2)</f>
+        <v>1.0617278193138768</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1059.2629999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.3981526505064092</v>
+      </c>
+      <c r="F7">
+        <f>'dopencl matrix'!H14</f>
+        <v>2689.53</v>
+      </c>
+      <c r="G7">
+        <f>'dopencl matrix'!I14</f>
+        <v>7.4739500000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K7">
+        <f>'dopencl matrix'!O14+'dopencl matrix'!Q14+'dopencl matrix'!S14</f>
+        <v>81.654600000000002</v>
+      </c>
+      <c r="L7">
+        <f>SQRT('dopencl matrix'!P14^2+'dopencl matrix'!R14^2+'dopencl matrix'!T14^2)</f>
+        <v>2.4776260498850506</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1054.0753999999999</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>5.3401384350062502</v>
+      </c>
+      <c r="O7">
+        <f>'dopencl matrix'!U14</f>
+        <v>1135.73</v>
+      </c>
+      <c r="P7">
+        <f>'dopencl matrix'!V14</f>
+        <v>5.8869100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8">
+        <f>'dopencl matrix'!B15+'dopencl matrix'!D15+'dopencl matrix'!F15</f>
+        <v>2554.172</v>
+      </c>
+      <c r="C8">
+        <f>SQRT('dopencl matrix'!C15^2+'dopencl matrix'!E15^2+'dopencl matrix'!G15^2)</f>
+        <v>1.0501913513265095</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2115.4280000000003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>12.374817599286018</v>
+      </c>
+      <c r="F8">
+        <f>'dopencl matrix'!H15</f>
+        <v>4669.6000000000004</v>
+      </c>
+      <c r="G8">
+        <f>'dopencl matrix'!I15</f>
+        <v>12.4193</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+      <c r="K8">
+        <f>'dopencl matrix'!O15+'dopencl matrix'!Q15+'dopencl matrix'!S15</f>
+        <v>131.4169</v>
+      </c>
+      <c r="L8">
+        <f>SQRT('dopencl matrix'!P15^2+'dopencl matrix'!R15^2+'dopencl matrix'!T15^2)</f>
+        <v>2.3770865587159422</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2099.2930999999999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>37.566868694267988</v>
+      </c>
+      <c r="O8">
+        <f>'dopencl matrix'!U15</f>
+        <v>2230.71</v>
+      </c>
+      <c r="P8">
+        <f>'dopencl matrix'!V15</f>
+        <v>37.642000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B9">
+        <f>'dopencl matrix'!B16+'dopencl matrix'!D16+'dopencl matrix'!F16</f>
+        <v>3679.5299999999997</v>
+      </c>
+      <c r="C9">
+        <f>SQRT('dopencl matrix'!C16^2+'dopencl matrix'!E16^2+'dopencl matrix'!G16^2)</f>
+        <v>2.1551081702318333</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3835.6400000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>106.74624739434451</v>
+      </c>
+      <c r="F9">
+        <f>'dopencl matrix'!H16</f>
+        <v>7515.17</v>
+      </c>
+      <c r="G9">
+        <f>'dopencl matrix'!I16</f>
+        <v>106.768</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K9">
+        <f>'dopencl matrix'!O16+'dopencl matrix'!Q16+'dopencl matrix'!S16</f>
+        <v>180.89420000000001</v>
+      </c>
+      <c r="L9">
+        <f>SQRT('dopencl matrix'!P16^2+'dopencl matrix'!R16^2+'dopencl matrix'!T16^2)</f>
+        <v>1.9884554662533933</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>3928.6158</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>93.271606487176612</v>
+      </c>
+      <c r="O9">
+        <f>'dopencl matrix'!U16</f>
+        <v>4109.51</v>
+      </c>
+      <c r="P9">
+        <f>'dopencl matrix'!V16</f>
+        <v>93.2928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>7000</v>
+      </c>
+      <c r="B10">
+        <f>'dopencl matrix'!B17+'dopencl matrix'!D17+'dopencl matrix'!F17</f>
+        <v>5060.8599999999997</v>
+      </c>
+      <c r="C10">
+        <f>SQRT('dopencl matrix'!C17^2+'dopencl matrix'!E17^2+'dopencl matrix'!G17^2)</f>
+        <v>80.961391116337822</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>7535.7400000000007</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>687.6201495364337</v>
+      </c>
+      <c r="F10">
+        <f>'dopencl matrix'!H17</f>
+        <v>12596.6</v>
+      </c>
+      <c r="G10">
+        <f>'dopencl matrix'!I17</f>
+        <v>692.37</v>
+      </c>
+      <c r="J10">
+        <v>7000</v>
+      </c>
+      <c r="K10">
+        <f>'dopencl matrix'!O17+'dopencl matrix'!Q17+'dopencl matrix'!S17</f>
+        <v>250.58299999999997</v>
+      </c>
+      <c r="L10">
+        <f>SQRT('dopencl matrix'!P17^2+'dopencl matrix'!R17^2+'dopencl matrix'!T17^2)</f>
+        <v>4.4523934848236397</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>7495.1170000000002</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>390.21759986097027</v>
+      </c>
+      <c r="O10">
+        <f>'dopencl matrix'!U17</f>
+        <v>7745.7</v>
+      </c>
+      <c r="P10">
+        <f>'dopencl matrix'!V17</f>
+        <v>390.24299999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B11">
+        <f>'dopencl matrix'!B18+'dopencl matrix'!D18+'dopencl matrix'!F18</f>
+        <v>7540.71</v>
+      </c>
+      <c r="C11">
+        <f>SQRT('dopencl matrix'!C18^2+'dopencl matrix'!E18^2+'dopencl matrix'!G18^2)</f>
+        <v>1168.0193366589253</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>22344.39</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>4806.8872804332368</v>
+      </c>
+      <c r="F11">
+        <f>'dopencl matrix'!H18</f>
+        <v>29885.1</v>
+      </c>
+      <c r="G11">
+        <f>'dopencl matrix'!I18</f>
+        <v>4946.76</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K11">
+        <f>'dopencl matrix'!O18+'dopencl matrix'!Q18+'dopencl matrix'!S18</f>
+        <v>339.637</v>
+      </c>
+      <c r="L11">
+        <f>SQRT('dopencl matrix'!P18^2+'dopencl matrix'!R18^2+'dopencl matrix'!T18^2)</f>
+        <v>8.1310796384367059</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>23508.563000000002</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>4200.3321298611509</v>
+      </c>
+      <c r="O11">
+        <f>'dopencl matrix'!U18</f>
+        <v>23848.2</v>
+      </c>
+      <c r="P11">
+        <f>'dopencl matrix'!V18</f>
+        <v>4200.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>1000</v>
+      </c>
+      <c r="B30">
+        <f>'dopencl matrix'!B37+'dopencl matrix'!D37+'dopencl matrix'!F37</f>
+        <v>10.53312</v>
+      </c>
+      <c r="C30">
+        <f>SQRT('dopencl matrix'!C37^2+'dopencl matrix'!E37^2+'dopencl matrix'!G37^2)</f>
+        <v>1.1048150015097549</v>
+      </c>
+      <c r="D30">
+        <f>F30-B30</f>
+        <v>195.02188000000001</v>
+      </c>
+      <c r="E30">
+        <f>SQRT(G30^2-C30^2)</f>
+        <v>21.35463945030304</v>
+      </c>
+      <c r="F30">
+        <f>'dopencl matrix'!H37</f>
+        <v>205.55500000000001</v>
+      </c>
+      <c r="G30">
+        <f>'dopencl matrix'!I37</f>
+        <v>21.383199999999999</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <f>'dopencl matrix'!O37+'dopencl matrix'!Q37+'dopencl matrix'!S37</f>
+        <v>2.6652269999999998</v>
+      </c>
+      <c r="L30">
+        <f>SQRT('dopencl matrix'!P37^2+'dopencl matrix'!R37^2+'dopencl matrix'!T37^2)</f>
+        <v>0.389241419955906</v>
+      </c>
+      <c r="M30">
+        <f>O30-K30</f>
+        <v>203.70477300000002</v>
+      </c>
+      <c r="N30">
+        <f>SQRT(P30^2-L30^2)</f>
+        <v>49.901181933968168</v>
+      </c>
+      <c r="O30">
+        <f>'dopencl matrix'!U37</f>
+        <v>206.37</v>
+      </c>
+      <c r="P30">
+        <f>'dopencl matrix'!V37</f>
+        <v>49.902700000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B31">
+        <f>'dopencl matrix'!B38+'dopencl matrix'!D38+'dopencl matrix'!F38</f>
+        <v>48.106799999999993</v>
+      </c>
+      <c r="C31">
+        <f>SQRT('dopencl matrix'!C38^2+'dopencl matrix'!E38^2+'dopencl matrix'!G38^2)</f>
+        <v>3.0193214464023201</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D37" si="4">F31-B31</f>
+        <v>1289.7832000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E37" si="5">SQRT(G31^2-C31^2)</f>
+        <v>4.400243597085848</v>
+      </c>
+      <c r="F31">
+        <f>'dopencl matrix'!H38</f>
+        <v>1337.89</v>
+      </c>
+      <c r="G31">
+        <f>'dopencl matrix'!I38</f>
+        <v>5.3365200000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <f>'dopencl matrix'!O38+'dopencl matrix'!Q38+'dopencl matrix'!S38</f>
+        <v>9.38462</v>
+      </c>
+      <c r="L31">
+        <f>SQRT('dopencl matrix'!P38^2+'dopencl matrix'!R38^2+'dopencl matrix'!T38^2)</f>
+        <v>1.3141214409577981</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M37" si="6">O31-K31</f>
+        <v>1281.30538</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N37" si="7">SQRT(P31^2-L31^2)</f>
+        <v>2.399688988372243</v>
+      </c>
+      <c r="O31">
+        <f>'dopencl matrix'!U38</f>
+        <v>1290.69</v>
+      </c>
+      <c r="P31">
+        <f>'dopencl matrix'!V38</f>
+        <v>2.7359499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>3000</v>
+      </c>
+      <c r="B32">
+        <f>'dopencl matrix'!B39+'dopencl matrix'!D39+'dopencl matrix'!F39</f>
+        <v>123.31559999999999</v>
+      </c>
+      <c r="C32">
+        <f>SQRT('dopencl matrix'!C39^2+'dopencl matrix'!E39^2+'dopencl matrix'!G39^2)</f>
+        <v>1.5930693741001991</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>4300.9544000000005</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>23.683281111562728</v>
+      </c>
+      <c r="F32">
+        <f>'dopencl matrix'!H39</f>
+        <v>4424.2700000000004</v>
+      </c>
+      <c r="G32">
+        <f>'dopencl matrix'!I39</f>
+        <v>23.736799999999999</v>
+      </c>
+      <c r="J32">
+        <v>3000</v>
+      </c>
+      <c r="K32">
+        <f>'dopencl matrix'!O39+'dopencl matrix'!Q39+'dopencl matrix'!S39</f>
+        <v>24.28368</v>
+      </c>
+      <c r="L32">
+        <f>SQRT('dopencl matrix'!P39^2+'dopencl matrix'!R39^2+'dopencl matrix'!T39^2)</f>
+        <v>1.8511602074226314</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>4351.4263200000005</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>44.749027332182933</v>
+      </c>
+      <c r="O32">
+        <f>'dopencl matrix'!U39</f>
+        <v>4375.71</v>
+      </c>
+      <c r="P32">
+        <f>'dopencl matrix'!V39</f>
+        <v>44.787300000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B33">
+        <f>'dopencl matrix'!B40+'dopencl matrix'!D40+'dopencl matrix'!F40</f>
+        <v>220.24869999999999</v>
+      </c>
+      <c r="C33">
+        <f>SQRT('dopencl matrix'!C40^2+'dopencl matrix'!E40^2+'dopencl matrix'!G40^2)</f>
+        <v>2.289441410057047</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>11668.7513</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>292.13902916596049</v>
+      </c>
+      <c r="F33">
+        <f>'dopencl matrix'!H40</f>
+        <v>11889</v>
+      </c>
+      <c r="G33">
+        <f>'dopencl matrix'!I40</f>
+        <v>292.14800000000002</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K33">
+        <f>'dopencl matrix'!O40+'dopencl matrix'!Q40+'dopencl matrix'!S40</f>
+        <v>40.097899999999996</v>
+      </c>
+      <c r="L33">
+        <f>SQRT('dopencl matrix'!P40^2+'dopencl matrix'!R40^2+'dopencl matrix'!T40^2)</f>
+        <v>1.0629639560013313</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>11801.902099999999</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>70.093440562425258</v>
+      </c>
+      <c r="O33">
+        <f>'dopencl matrix'!U40</f>
+        <v>11842</v>
+      </c>
+      <c r="P33">
+        <f>'dopencl matrix'!V40</f>
+        <v>70.101500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>5000</v>
+      </c>
+      <c r="B34">
+        <f>'dopencl matrix'!B41+'dopencl matrix'!D41+'dopencl matrix'!F41</f>
+        <v>335.39480000000003</v>
+      </c>
+      <c r="C34">
+        <f>SQRT('dopencl matrix'!C41^2+'dopencl matrix'!E41^2+'dopencl matrix'!G41^2)</f>
+        <v>4.8339277687993238</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>23521.905200000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>63.148053795552805</v>
+      </c>
+      <c r="F34">
+        <f>'dopencl matrix'!H41</f>
+        <v>23857.3</v>
+      </c>
+      <c r="G34">
+        <f>'dopencl matrix'!I41</f>
+        <v>63.332799999999999</v>
+      </c>
+      <c r="J34">
+        <v>5000</v>
+      </c>
+      <c r="K34">
+        <f>'dopencl matrix'!O41+'dopencl matrix'!Q41+'dopencl matrix'!S41</f>
+        <v>71.541600000000003</v>
+      </c>
+      <c r="L34">
+        <f>SQRT('dopencl matrix'!P41^2+'dopencl matrix'!R41^2+'dopencl matrix'!T41^2)</f>
+        <v>3.5625661139358527</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>23983.258399999999</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>267.31126116885503</v>
+      </c>
+      <c r="O34">
+        <f>'dopencl matrix'!U41</f>
+        <v>24054.799999999999</v>
+      </c>
+      <c r="P34">
+        <f>'dopencl matrix'!V41</f>
+        <v>267.33499999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f>'dopencl matrix'!B42+'dopencl matrix'!D42+'dopencl matrix'!F42</f>
+        <v>463.68</v>
+      </c>
+      <c r="C35">
+        <f>SQRT('dopencl matrix'!C42^2+'dopencl matrix'!E42^2+'dopencl matrix'!G42^2)</f>
+        <v>9.2526088290991737</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>45151.02</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>161.15159669967801</v>
+      </c>
+      <c r="F35">
+        <f>'dopencl matrix'!H42</f>
+        <v>45614.7</v>
+      </c>
+      <c r="G35">
+        <f>'dopencl matrix'!I42</f>
+        <v>161.417</v>
+      </c>
+      <c r="J35" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K35">
+        <f>'dopencl matrix'!O42+'dopencl matrix'!Q42+'dopencl matrix'!S42</f>
+        <v>102.78229999999999</v>
+      </c>
+      <c r="L35">
+        <f>SQRT('dopencl matrix'!P42^2+'dopencl matrix'!R42^2+'dopencl matrix'!T42^2)</f>
+        <v>4.7195151734093406</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>45318.017700000004</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>276.27769236861656</v>
+      </c>
+      <c r="O35">
+        <f>'dopencl matrix'!U42</f>
+        <v>45420.800000000003</v>
+      </c>
+      <c r="P35">
+        <f>'dopencl matrix'!V42</f>
+        <v>276.31799999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>7000</v>
+      </c>
+      <c r="B36">
+        <f>'dopencl matrix'!B43+'dopencl matrix'!D43+'dopencl matrix'!F43</f>
+        <v>604.71299999999997</v>
+      </c>
+      <c r="C36">
+        <f>SQRT('dopencl matrix'!C43^2+'dopencl matrix'!E43^2+'dopencl matrix'!G43^2)</f>
+        <v>11.278111723954503</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>81444.486999999994</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>453.71685073946946</v>
+      </c>
+      <c r="F36">
+        <f>'dopencl matrix'!H43</f>
+        <v>82049.2</v>
+      </c>
+      <c r="G36">
+        <f>'dopencl matrix'!I43</f>
+        <v>453.85700000000003</v>
+      </c>
+      <c r="J36">
+        <v>7000</v>
+      </c>
+      <c r="K36">
+        <f>'dopencl matrix'!O43+'dopencl matrix'!Q43+'dopencl matrix'!S43</f>
+        <v>145.84190000000001</v>
+      </c>
+      <c r="L36">
+        <f>SQRT('dopencl matrix'!P43^2+'dopencl matrix'!R43^2+'dopencl matrix'!T43^2)</f>
+        <v>9.0879385074328596</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>81995.958100000003</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>521.76986131309388</v>
+      </c>
+      <c r="O36">
+        <f>'dopencl matrix'!U43</f>
+        <v>82141.8</v>
+      </c>
+      <c r="P36">
+        <f>'dopencl matrix'!V43</f>
+        <v>521.84900000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B37">
+        <f>'dopencl matrix'!B44+'dopencl matrix'!D44+'dopencl matrix'!F44</f>
+        <v>765.22</v>
+      </c>
+      <c r="C37">
+        <f>SQRT('dopencl matrix'!C44^2+'dopencl matrix'!E44^2+'dopencl matrix'!G44^2)</f>
+        <v>18.487560016421853</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>155891.78</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>2295.8455646067832</v>
+      </c>
+      <c r="F37">
+        <f>'dopencl matrix'!H44</f>
+        <v>156657</v>
+      </c>
+      <c r="G37">
+        <f>'dopencl matrix'!I44</f>
+        <v>2295.92</v>
+      </c>
+      <c r="J37" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K37">
+        <f>'dopencl matrix'!O44+'dopencl matrix'!Q44+'dopencl matrix'!S44</f>
+        <v>183.2937</v>
+      </c>
+      <c r="L37">
+        <f>SQRT('dopencl matrix'!P44^2+'dopencl matrix'!R44^2+'dopencl matrix'!T44^2)</f>
+        <v>12.036119530972764</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>155534.70629999999</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>2521.421272680675</v>
+      </c>
+      <c r="O37">
+        <f>'dopencl matrix'!U44</f>
+        <v>155718</v>
+      </c>
+      <c r="P37">
+        <f>'dopencl matrix'!V44</f>
+        <v>2521.4499999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>224.2</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>206.37</v>
+      </c>
+      <c r="F3">
+        <v>49.902700000000003</v>
+      </c>
+      <c r="G3">
+        <f>B3/E3</f>
+        <v>1.0863982167950768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>1595.8</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="E4">
+        <v>1290.69</v>
+      </c>
+      <c r="F4">
+        <v>2.7359499999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="0">B4/E4</f>
+        <v>1.2363929371111575</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5">
+        <v>5312.8</v>
+      </c>
+      <c r="C5">
+        <v>2.04</v>
+      </c>
+      <c r="E5">
+        <v>4375.71</v>
+      </c>
+      <c r="F5">
+        <v>44.787300000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.2141572453384708</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(L:L)</f>
+        <v>199.87</v>
+      </c>
+      <c r="J5">
+        <f>STDEV(L:L)</f>
+        <v>12.644841644007258</v>
+      </c>
+      <c r="L5">
+        <v>214</v>
+      </c>
+      <c r="N5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6">
+        <v>12613.8</v>
+      </c>
+      <c r="C6">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E6">
+        <v>11842</v>
+      </c>
+      <c r="F6">
+        <v>70.101500000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.0651748015537916</v>
+      </c>
+      <c r="L6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>24732.400000000001</v>
+      </c>
+      <c r="C7">
+        <v>38.81</v>
+      </c>
+      <c r="E7">
+        <v>24054.799999999999</v>
+      </c>
+      <c r="F7">
+        <v>267.33499999999998</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.0281690140845072</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>192</v>
+      </c>
+      <c r="N7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8">
+        <v>42903.8</v>
+      </c>
+      <c r="C8">
+        <v>43.74</v>
+      </c>
+      <c r="E8">
+        <v>45420.800000000003</v>
+      </c>
+      <c r="F8">
+        <v>276.31799999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.94458485979991547</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(N:N)</f>
+        <v>242.82</v>
+      </c>
+      <c r="J8">
+        <f>STDEV(N:N)</f>
+        <v>13.155157992900799</v>
+      </c>
+      <c r="L8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9">
+        <v>68075.199999999997</v>
+      </c>
+      <c r="C9">
+        <v>222.12</v>
+      </c>
+      <c r="E9">
+        <v>82141.8</v>
+      </c>
+      <c r="F9">
+        <v>521.84900000000005</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.82875223089827588</v>
+      </c>
+      <c r="L9">
+        <v>182</v>
+      </c>
+      <c r="N9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10">
+        <v>101557</v>
+      </c>
+      <c r="C10">
+        <v>316.44</v>
+      </c>
+      <c r="E10">
+        <v>155718</v>
+      </c>
+      <c r="F10">
+        <v>2521.4499999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.6521853607161664</v>
+      </c>
+      <c r="L10">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="L11">
+        <v>194</v>
+      </c>
+      <c r="N11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="L12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="L13">
+        <v>198</v>
+      </c>
+      <c r="N13">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="L14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="L15">
+        <v>215</v>
+      </c>
+      <c r="N15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="L16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14">
+      <c r="L17">
+        <v>208</v>
+      </c>
+      <c r="N17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14">
+      <c r="L18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14">
+      <c r="L19">
+        <v>196</v>
+      </c>
+      <c r="N19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14">
+      <c r="L20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14">
+      <c r="L21">
+        <v>192</v>
+      </c>
+      <c r="N21">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="12:14">
+      <c r="L22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="12:14">
+      <c r="L23">
+        <v>185</v>
+      </c>
+      <c r="N23">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="12:14">
+      <c r="L24">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="12:14">
+      <c r="L25">
+        <v>197</v>
+      </c>
+      <c r="N25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="12:14">
+      <c r="L26">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="12:14">
+      <c r="L27">
+        <v>199</v>
+      </c>
+      <c r="N27">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="12:14">
+      <c r="L28">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="12:14">
+      <c r="L29">
+        <v>185</v>
+      </c>
+      <c r="N29">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="12:14">
+      <c r="L30">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="12:14">
+      <c r="L31">
+        <v>192</v>
+      </c>
+      <c r="N31">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="12:14">
+      <c r="L32">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14">
+      <c r="L33">
+        <v>194</v>
+      </c>
+      <c r="N33">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14">
+      <c r="L34">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14">
+      <c r="L35">
+        <v>210</v>
+      </c>
+      <c r="N35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14">
+      <c r="L36">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14">
+      <c r="L37">
+        <v>209</v>
+      </c>
+      <c r="N37">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14">
+      <c r="L38">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14">
+      <c r="L39">
+        <v>197</v>
+      </c>
+      <c r="N39">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14">
+      <c r="L40">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="12:14">
+      <c r="L41">
+        <v>203</v>
+      </c>
+      <c r="N41">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="12:14">
+      <c r="L42">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="12:14">
+      <c r="L43">
+        <v>208</v>
+      </c>
+      <c r="N43">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="12:14">
+      <c r="L44">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="12:14">
+      <c r="L45">
+        <v>210</v>
+      </c>
+      <c r="N45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="12:14">
+      <c r="L46">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="12:14">
+      <c r="L47">
+        <v>197</v>
+      </c>
+      <c r="N47">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="12:14">
+      <c r="L48">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="12:14">
+      <c r="L49">
+        <v>214</v>
+      </c>
+      <c r="N49">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14">
+      <c r="L50">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14">
+      <c r="L51">
+        <v>224</v>
+      </c>
+      <c r="N51">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14">
+      <c r="L52">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14">
+      <c r="L53">
+        <v>194</v>
+      </c>
+      <c r="N53">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="12:14">
+      <c r="L54">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="12:14">
+      <c r="L55">
+        <v>178</v>
+      </c>
+      <c r="N55">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="12:14">
+      <c r="L56">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="12:14">
+      <c r="L57">
+        <v>190</v>
+      </c>
+      <c r="N57">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="12:14">
+      <c r="L58">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="12:14">
+      <c r="L59">
+        <v>202</v>
+      </c>
+      <c r="N59">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="12:14">
+      <c r="L60">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="12:14">
+      <c r="L61">
+        <v>187</v>
+      </c>
+      <c r="N61">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="12:14">
+      <c r="L62">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="12:14">
+      <c r="L63">
+        <v>191</v>
+      </c>
+      <c r="N63">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="12:14">
+      <c r="L64">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="12:14">
+      <c r="L65">
+        <v>179</v>
+      </c>
+      <c r="N65">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="12:14">
+      <c r="L66">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="12:14">
+      <c r="L67">
+        <v>193</v>
+      </c>
+      <c r="N67">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="12:14">
+      <c r="L68">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="12:14">
+      <c r="L69">
+        <v>218</v>
+      </c>
+      <c r="N69">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="12:14">
+      <c r="L70">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="12:14">
+      <c r="L71">
+        <v>204</v>
+      </c>
+      <c r="N71">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="12:14">
+      <c r="L72">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="12:14">
+      <c r="L73">
+        <v>196</v>
+      </c>
+      <c r="N73">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="12:14">
+      <c r="L74">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="12:14">
+      <c r="L75">
+        <v>194</v>
+      </c>
+      <c r="N75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="12:14">
+      <c r="L76">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="12:14">
+      <c r="L77">
+        <v>204</v>
+      </c>
+      <c r="N77">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="12:14">
+      <c r="L78">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="12:14">
+      <c r="L79">
+        <v>213</v>
+      </c>
+      <c r="N79">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="12:14">
+      <c r="L80">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="12:14">
+      <c r="L81">
+        <v>210</v>
+      </c>
+      <c r="N81">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="12:14">
+      <c r="L82">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="12:14">
+      <c r="L83">
+        <v>181</v>
+      </c>
+      <c r="N83">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="12:14">
+      <c r="L84">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="12:14">
+      <c r="L85">
+        <v>193</v>
+      </c>
+      <c r="N85">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="12:14">
+      <c r="L86">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="12:14">
+      <c r="L87">
+        <v>195</v>
+      </c>
+      <c r="N87">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="12:14">
+      <c r="L88">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="12:14">
+      <c r="L89">
+        <v>207</v>
+      </c>
+      <c r="N89">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="12:14">
+      <c r="L90">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="12:14">
+      <c r="L91">
+        <v>210</v>
+      </c>
+      <c r="N91">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="12:14">
+      <c r="L92">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="12:14">
+      <c r="L93">
+        <v>181</v>
+      </c>
+      <c r="N93">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="12:14">
+      <c r="L94">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="12:14">
+      <c r="L95">
+        <v>220</v>
+      </c>
+      <c r="N95">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="12:14">
+      <c r="L96">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="12:14">
+      <c r="L97">
+        <v>197</v>
+      </c>
+      <c r="N97">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="12:14">
+      <c r="L98">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="12:14">
+      <c r="L99">
+        <v>188</v>
+      </c>
+      <c r="N99">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="12:14">
+      <c r="L100">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="12:14">
+      <c r="L101">
+        <v>177</v>
+      </c>
+      <c r="N101">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="12:14">
+      <c r="L102">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="12:14">
+      <c r="L103">
+        <v>209</v>
+      </c>
+      <c r="N103">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="12:14">
+      <c r="L104">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="12:14">
+      <c r="N105">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="12:14">
+      <c r="N107">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="12:14">
+      <c r="N109">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="12:14">
+      <c r="N111">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="14:14">
+      <c r="N113">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="14:14">
+      <c r="N115">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="14:14">
+      <c r="N117">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="14:14">
+      <c r="N119">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="14:14">
+      <c r="N121">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="14:14">
+      <c r="N123">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="14:14">
+      <c r="N125">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="14:14">
+      <c r="N127">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="14:14">
+      <c r="N129">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131" spans="14:14">
+      <c r="N131">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="14:14">
+      <c r="N133">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="14:14">
+      <c r="N135">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="14:14">
+      <c r="N137">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="14:14">
+      <c r="N139">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="14:14">
+      <c r="N141">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="143" spans="14:14">
+      <c r="N143">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="14:14">
+      <c r="N145">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="14:14">
+      <c r="N147">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="14:14">
+      <c r="N149">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="14:14">
+      <c r="N151">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="14:14">
+      <c r="N153">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="155" spans="14:14">
+      <c r="N155">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" spans="14:14">
+      <c r="N157">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="14:14">
+      <c r="N159">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="14:14">
+      <c r="N161">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="163" spans="14:14">
+      <c r="N163">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="14:14">
+      <c r="N165">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="14:14">
+      <c r="N167">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="14:14">
+      <c r="N169">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="14:14">
+      <c r="N171">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="173" spans="14:14">
+      <c r="N173">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="14:14">
+      <c r="N175">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="14:14">
+      <c r="N177">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="179" spans="14:14">
+      <c r="N179">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="14:14">
+      <c r="N181">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" spans="14:14">
+      <c r="N183">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="185" spans="14:14">
+      <c r="N185">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="14:14">
+      <c r="N187">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="14:14">
+      <c r="N189">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="14:14">
+      <c r="N191">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="14:14">
+      <c r="N193">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="14:14">
+      <c r="N195">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="14:14">
+      <c r="N197">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="14:14">
+      <c r="N199">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="14:14">
+      <c r="N201">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="203" spans="14:14">
+      <c r="N203">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
     <sheet name="dopencl summary" sheetId="2" r:id="rId2"/>
     <sheet name="Aparapi Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Sharded Matrix" sheetId="4" r:id="rId4"/>
+    <sheet name="cluster ut" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
   <si>
     <t>Local</t>
   </si>
@@ -107,20 +109,29 @@
     <t>Aparapi small kernel small data</t>
   </si>
   <si>
-    <t>Aparapi large kernel small data</t>
-  </si>
-  <si>
     <t>Aparapi</t>
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>2 Devices 1Gbit</t>
+  </si>
+  <si>
+    <t>Single Device</t>
+  </si>
+  <si>
+    <t>Aparapi &gt;100lines</t>
+  </si>
+  <si>
+    <t>Aparapi &gt;1000lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +166,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF010000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF41286F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF41286F"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +213,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="589">
+  <cellStyleXfs count="619">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -763,13 +803,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="589">
+  <cellStyles count="619">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1064,6 +1143,21 @@
     <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1358,6 +1452,21 @@
     <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1947,7 +2056,7 @@
         <v>5.4855600000000004</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J20" si="0">H12-F12-D12-B12</f>
+        <f t="shared" ref="J12:J18" si="0">H12-F12-D12-B12</f>
         <v>168.69300000000001</v>
       </c>
       <c r="N12">
@@ -1978,7 +2087,7 @@
         <v>3.9483299999999999</v>
       </c>
       <c r="W12">
-        <f t="shared" ref="W12:W20" si="1">U12-S12-Q12-O12</f>
+        <f t="shared" ref="W12:W18" si="1">U12-S12-Q12-O12</f>
         <v>146.13327000000001</v>
       </c>
     </row>
@@ -2373,7 +2482,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <f t="shared" ref="C19:G19" si="2">D18/$H$18</f>
+        <f t="shared" ref="D19:F19" si="2">D18/$H$18</f>
         <v>9.323140963222476E-2</v>
       </c>
       <c r="E19" s="2"/>
@@ -2387,7 +2496,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2">
-        <f t="shared" ref="P19:U19" si="3">Q18/$U$18</f>
+        <f t="shared" ref="Q19:S19" si="3">Q18/$U$18</f>
         <v>4.7051349787405336E-3</v>
       </c>
       <c r="R19" s="2"/>
@@ -3070,7 +3179,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
-        <f t="shared" ref="C45:G45" si="6">D44/$H$44</f>
+        <f t="shared" ref="D45:F45" si="6">D44/$H$44</f>
         <v>1.402190773473257E-3</v>
       </c>
       <c r="E45" s="2"/>
@@ -4166,26 +4275,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -4220,7 +4329,7 @@
         <v>1.0863982167950768</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -4244,7 +4353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -4279,7 +4388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -4302,8 +4411,11 @@
       <c r="L6">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -4324,7 +4436,7 @@
         <v>1.0281690140845072</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <v>192</v>
@@ -4333,7 +4445,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -4364,8 +4476,11 @@
       <c r="L8">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -4392,7 +4507,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -4412,11 +4527,25 @@
         <f t="shared" si="0"/>
         <v>0.6521853607161664</v>
       </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
       <c r="L10">
         <v>214</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="I11">
+        <f>AVERAGE(P:P)</f>
+        <v>500.69</v>
+      </c>
+      <c r="J11">
+        <f>STDEV(P:P)</f>
+        <v>15.120188524290995</v>
+      </c>
       <c r="L11">
         <v>194</v>
       </c>
@@ -4424,12 +4553,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="L12">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="L13">
         <v>198</v>
       </c>
@@ -4437,12 +4569,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="L14">
         <v>195</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="L15">
         <v>215</v>
       </c>
@@ -4450,12 +4585,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="L16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="12:14">
+      <c r="P16">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16">
       <c r="L17">
         <v>208</v>
       </c>
@@ -4463,12 +4601,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="12:14">
+    <row r="18" spans="12:16">
       <c r="L18">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="12:14">
+      <c r="P18">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16">
       <c r="L19">
         <v>196</v>
       </c>
@@ -4476,12 +4617,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="12:14">
+    <row r="20" spans="12:16">
       <c r="L20">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="12:14">
+      <c r="P20">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16">
       <c r="L21">
         <v>192</v>
       </c>
@@ -4489,12 +4633,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="12:14">
+    <row r="22" spans="12:16">
       <c r="L22">
         <v>211</v>
       </c>
-    </row>
-    <row r="23" spans="12:14">
+      <c r="P22">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16">
       <c r="L23">
         <v>185</v>
       </c>
@@ -4502,12 +4649,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="12:14">
+    <row r="24" spans="12:16">
       <c r="L24">
         <v>208</v>
       </c>
-    </row>
-    <row r="25" spans="12:14">
+      <c r="P24">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16">
       <c r="L25">
         <v>197</v>
       </c>
@@ -4515,12 +4665,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="12:14">
+    <row r="26" spans="12:16">
       <c r="L26">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="12:14">
+      <c r="P26">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16">
       <c r="L27">
         <v>199</v>
       </c>
@@ -4528,12 +4681,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="12:14">
+    <row r="28" spans="12:16">
       <c r="L28">
         <v>211</v>
       </c>
-    </row>
-    <row r="29" spans="12:14">
+      <c r="P28">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16">
       <c r="L29">
         <v>185</v>
       </c>
@@ -4541,12 +4697,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="12:14">
+    <row r="30" spans="12:16">
       <c r="L30">
         <v>214</v>
       </c>
-    </row>
-    <row r="31" spans="12:14">
+      <c r="P30">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16">
       <c r="L31">
         <v>192</v>
       </c>
@@ -4554,12 +4713,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="12:14">
+    <row r="32" spans="12:16">
       <c r="L32">
         <v>193</v>
       </c>
-    </row>
-    <row r="33" spans="12:14">
+      <c r="P32">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16">
       <c r="L33">
         <v>194</v>
       </c>
@@ -4567,12 +4729,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="12:14">
+    <row r="34" spans="12:16">
       <c r="L34">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="12:14">
+      <c r="P34">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16">
       <c r="L35">
         <v>210</v>
       </c>
@@ -4580,12 +4745,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="12:14">
+    <row r="36" spans="12:16">
       <c r="L36">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="12:14">
+      <c r="P36">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16">
       <c r="L37">
         <v>209</v>
       </c>
@@ -4593,12 +4761,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="12:14">
+    <row r="38" spans="12:16">
       <c r="L38">
         <v>186</v>
       </c>
-    </row>
-    <row r="39" spans="12:14">
+      <c r="P38">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16">
       <c r="L39">
         <v>197</v>
       </c>
@@ -4606,12 +4777,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="12:14">
+    <row r="40" spans="12:16">
       <c r="L40">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="12:14">
+      <c r="P40">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16">
       <c r="L41">
         <v>203</v>
       </c>
@@ -4619,12 +4793,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="12:14">
+    <row r="42" spans="12:16">
       <c r="L42">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="12:14">
+      <c r="P42">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16">
       <c r="L43">
         <v>208</v>
       </c>
@@ -4632,12 +4809,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="12:14">
+    <row r="44" spans="12:16">
       <c r="L44">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="12:14">
+      <c r="P44">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16">
       <c r="L45">
         <v>210</v>
       </c>
@@ -4645,12 +4825,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="12:14">
+    <row r="46" spans="12:16">
       <c r="L46">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" spans="12:14">
+      <c r="P46">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="12:16">
       <c r="L47">
         <v>197</v>
       </c>
@@ -4658,12 +4841,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="12:14">
+    <row r="48" spans="12:16">
       <c r="L48">
         <v>193</v>
       </c>
-    </row>
-    <row r="49" spans="12:14">
+      <c r="P48">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16">
       <c r="L49">
         <v>214</v>
       </c>
@@ -4671,12 +4857,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="12:14">
+    <row r="50" spans="12:16">
       <c r="L50">
         <v>188</v>
       </c>
-    </row>
-    <row r="51" spans="12:14">
+      <c r="P50">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16">
       <c r="L51">
         <v>224</v>
       </c>
@@ -4684,12 +4873,15 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="12:14">
+    <row r="52" spans="12:16">
       <c r="L52">
         <v>213</v>
       </c>
-    </row>
-    <row r="53" spans="12:14">
+      <c r="P52">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16">
       <c r="L53">
         <v>194</v>
       </c>
@@ -4697,12 +4889,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="12:14">
+    <row r="54" spans="12:16">
       <c r="L54">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="12:14">
+      <c r="P54">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16">
       <c r="L55">
         <v>178</v>
       </c>
@@ -4710,12 +4905,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="12:14">
+    <row r="56" spans="12:16">
       <c r="L56">
         <v>214</v>
       </c>
-    </row>
-    <row r="57" spans="12:14">
+      <c r="P56">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16">
       <c r="L57">
         <v>190</v>
       </c>
@@ -4723,12 +4921,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="12:14">
+    <row r="58" spans="12:16">
       <c r="L58">
         <v>223</v>
       </c>
-    </row>
-    <row r="59" spans="12:14">
+      <c r="P58">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16">
       <c r="L59">
         <v>202</v>
       </c>
@@ -4736,12 +4937,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="12:14">
+    <row r="60" spans="12:16">
       <c r="L60">
         <v>209</v>
       </c>
-    </row>
-    <row r="61" spans="12:14">
+      <c r="P60">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16">
       <c r="L61">
         <v>187</v>
       </c>
@@ -4749,12 +4953,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="12:14">
+    <row r="62" spans="12:16">
       <c r="L62">
         <v>220</v>
       </c>
-    </row>
-    <row r="63" spans="12:14">
+      <c r="P62">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16">
       <c r="L63">
         <v>191</v>
       </c>
@@ -4762,12 +4969,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="12:14">
+    <row r="64" spans="12:16">
       <c r="L64">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" spans="12:14">
+      <c r="P64">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16">
       <c r="L65">
         <v>179</v>
       </c>
@@ -4775,12 +4985,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="12:14">
+    <row r="66" spans="12:16">
       <c r="L66">
         <v>210</v>
       </c>
-    </row>
-    <row r="67" spans="12:14">
+      <c r="P66">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16">
       <c r="L67">
         <v>193</v>
       </c>
@@ -4788,12 +5001,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="12:14">
+    <row r="68" spans="12:16">
       <c r="L68">
         <v>182</v>
       </c>
-    </row>
-    <row r="69" spans="12:14">
+      <c r="P68">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16">
       <c r="L69">
         <v>218</v>
       </c>
@@ -4801,12 +5017,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="12:14">
+    <row r="70" spans="12:16">
       <c r="L70">
         <v>226</v>
       </c>
-    </row>
-    <row r="71" spans="12:14">
+      <c r="P70">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" spans="12:16">
       <c r="L71">
         <v>204</v>
       </c>
@@ -4814,12 +5033,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="12:14">
+    <row r="72" spans="12:16">
       <c r="L72">
         <v>198</v>
       </c>
-    </row>
-    <row r="73" spans="12:14">
+      <c r="P72">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16">
       <c r="L73">
         <v>196</v>
       </c>
@@ -4827,12 +5049,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="12:14">
+    <row r="74" spans="12:16">
       <c r="L74">
         <v>176</v>
       </c>
-    </row>
-    <row r="75" spans="12:14">
+      <c r="P74">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="12:16">
       <c r="L75">
         <v>194</v>
       </c>
@@ -4840,12 +5065,15 @@
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="12:14">
+    <row r="76" spans="12:16">
       <c r="L76">
         <v>191</v>
       </c>
-    </row>
-    <row r="77" spans="12:14">
+      <c r="P76">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16">
       <c r="L77">
         <v>204</v>
       </c>
@@ -4853,12 +5081,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="12:14">
+    <row r="78" spans="12:16">
       <c r="L78">
         <v>212</v>
       </c>
-    </row>
-    <row r="79" spans="12:14">
+      <c r="P78">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16">
       <c r="L79">
         <v>213</v>
       </c>
@@ -4866,12 +5097,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="12:14">
+    <row r="80" spans="12:16">
       <c r="L80">
         <v>192</v>
       </c>
-    </row>
-    <row r="81" spans="12:14">
+      <c r="P80">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16">
       <c r="L81">
         <v>210</v>
       </c>
@@ -4879,12 +5113,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="12:14">
+    <row r="82" spans="12:16">
       <c r="L82">
         <v>212</v>
       </c>
-    </row>
-    <row r="83" spans="12:14">
+      <c r="P82">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16">
       <c r="L83">
         <v>181</v>
       </c>
@@ -4892,12 +5129,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="12:14">
+    <row r="84" spans="12:16">
       <c r="L84">
         <v>190</v>
       </c>
-    </row>
-    <row r="85" spans="12:14">
+      <c r="P84">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="12:16">
       <c r="L85">
         <v>193</v>
       </c>
@@ -4905,12 +5145,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="12:14">
+    <row r="86" spans="12:16">
       <c r="L86">
         <v>186</v>
       </c>
-    </row>
-    <row r="87" spans="12:14">
+      <c r="P86">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16">
       <c r="L87">
         <v>195</v>
       </c>
@@ -4918,12 +5161,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="12:14">
+    <row r="88" spans="12:16">
       <c r="L88">
         <v>214</v>
       </c>
-    </row>
-    <row r="89" spans="12:14">
+      <c r="P88">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16">
       <c r="L89">
         <v>207</v>
       </c>
@@ -4931,12 +5177,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="12:14">
+    <row r="90" spans="12:16">
       <c r="L90">
         <v>207</v>
       </c>
-    </row>
-    <row r="91" spans="12:14">
+      <c r="P90">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16">
       <c r="L91">
         <v>210</v>
       </c>
@@ -4944,12 +5193,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="12:14">
+    <row r="92" spans="12:16">
       <c r="L92">
         <v>220</v>
       </c>
-    </row>
-    <row r="93" spans="12:14">
+      <c r="P92">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16">
       <c r="L93">
         <v>181</v>
       </c>
@@ -4957,12 +5209,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="12:14">
+    <row r="94" spans="12:16">
       <c r="L94">
         <v>209</v>
       </c>
-    </row>
-    <row r="95" spans="12:14">
+      <c r="P94">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16">
       <c r="L95">
         <v>220</v>
       </c>
@@ -4970,12 +5225,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="12:14">
+    <row r="96" spans="12:16">
       <c r="L96">
         <v>195</v>
       </c>
-    </row>
-    <row r="97" spans="12:14">
+      <c r="P96">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="97" spans="12:16">
       <c r="L97">
         <v>197</v>
       </c>
@@ -4983,12 +5241,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="12:14">
+    <row r="98" spans="12:16">
       <c r="L98">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" spans="12:14">
+      <c r="P98">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="12:16">
       <c r="L99">
         <v>188</v>
       </c>
@@ -4996,12 +5257,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="100" spans="12:14">
+    <row r="100" spans="12:16">
       <c r="L100">
         <v>191</v>
       </c>
-    </row>
-    <row r="101" spans="12:14">
+      <c r="P100">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="101" spans="12:16">
       <c r="L101">
         <v>177</v>
       </c>
@@ -5009,12 +5273,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="12:14">
+    <row r="102" spans="12:16">
       <c r="L102">
         <v>191</v>
       </c>
-    </row>
-    <row r="103" spans="12:14">
+      <c r="P102">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="12:16">
       <c r="L103">
         <v>209</v>
       </c>
@@ -5022,259 +5289,512 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="12:14">
+    <row r="104" spans="12:16">
       <c r="L104">
         <v>216</v>
       </c>
-    </row>
-    <row r="105" spans="12:14">
+      <c r="P104">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="12:16">
       <c r="N105">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="12:14">
+    <row r="106" spans="12:16">
+      <c r="P106">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="107" spans="12:16">
       <c r="N107">
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="12:14">
+    <row r="108" spans="12:16">
+      <c r="P108">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="109" spans="12:16">
       <c r="N109">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="12:14">
+    <row r="110" spans="12:16">
+      <c r="P110">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="111" spans="12:16">
       <c r="N111">
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="14:14">
+    <row r="112" spans="12:16">
+      <c r="P112">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="113" spans="14:16">
       <c r="N113">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="14:14">
+    <row r="114" spans="14:16">
+      <c r="P114">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="14:16">
       <c r="N115">
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="14:14">
+    <row r="116" spans="14:16">
+      <c r="P116">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="14:16">
       <c r="N117">
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="14:14">
+    <row r="118" spans="14:16">
+      <c r="P118">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="119" spans="14:16">
       <c r="N119">
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="14:14">
+    <row r="120" spans="14:16">
+      <c r="P120">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="14:16">
       <c r="N121">
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="14:14">
+    <row r="122" spans="14:16">
+      <c r="P122">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="14:16">
       <c r="N123">
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="14:14">
+    <row r="124" spans="14:16">
+      <c r="P124">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="14:16">
       <c r="N125">
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="14:14">
+    <row r="126" spans="14:16">
+      <c r="P126">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="14:16">
       <c r="N127">
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="14:14">
+    <row r="128" spans="14:16">
+      <c r="P128">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="14:16">
       <c r="N129">
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="14:14">
+    <row r="130" spans="14:16">
+      <c r="P130">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="14:16">
       <c r="N131">
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="14:14">
+    <row r="132" spans="14:16">
+      <c r="P132">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="133" spans="14:16">
       <c r="N133">
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="14:14">
+    <row r="134" spans="14:16">
+      <c r="P134">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="135" spans="14:16">
       <c r="N135">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="14:14">
+    <row r="136" spans="14:16">
+      <c r="P136">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="14:16">
       <c r="N137">
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="14:14">
+    <row r="138" spans="14:16">
+      <c r="P138">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="139" spans="14:16">
       <c r="N139">
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="14:14">
+    <row r="140" spans="14:16">
+      <c r="P140">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="141" spans="14:16">
       <c r="N141">
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="14:14">
+    <row r="142" spans="14:16">
+      <c r="P142">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="143" spans="14:16">
       <c r="N143">
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="14:14">
+    <row r="144" spans="14:16">
+      <c r="P144">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="145" spans="14:16">
       <c r="N145">
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="14:14">
+    <row r="146" spans="14:16">
+      <c r="P146">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="147" spans="14:16">
       <c r="N147">
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="14:14">
+    <row r="148" spans="14:16">
+      <c r="P148">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="149" spans="14:16">
       <c r="N149">
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="14:14">
+    <row r="150" spans="14:16">
+      <c r="P150">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="14:16">
       <c r="N151">
         <v>233</v>
       </c>
     </row>
-    <row r="153" spans="14:14">
+    <row r="152" spans="14:16">
+      <c r="P152">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="153" spans="14:16">
       <c r="N153">
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="14:14">
+    <row r="154" spans="14:16">
+      <c r="P154">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="155" spans="14:16">
       <c r="N155">
         <v>253</v>
       </c>
     </row>
-    <row r="157" spans="14:14">
+    <row r="156" spans="14:16">
+      <c r="P156">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="157" spans="14:16">
       <c r="N157">
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="14:14">
+    <row r="158" spans="14:16">
+      <c r="P158">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="14:16">
       <c r="N159">
         <v>249</v>
       </c>
     </row>
-    <row r="161" spans="14:14">
+    <row r="160" spans="14:16">
+      <c r="P160">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="161" spans="14:16">
       <c r="N161">
         <v>232</v>
       </c>
     </row>
-    <row r="163" spans="14:14">
+    <row r="162" spans="14:16">
+      <c r="P162">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="14:16">
       <c r="N163">
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="14:14">
+    <row r="164" spans="14:16">
+      <c r="P164">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="165" spans="14:16">
       <c r="N165">
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="14:14">
+    <row r="166" spans="14:16">
+      <c r="P166">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="167" spans="14:16">
       <c r="N167">
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="14:14">
+    <row r="168" spans="14:16">
+      <c r="P168">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="169" spans="14:16">
       <c r="N169">
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="14:14">
+    <row r="170" spans="14:16">
+      <c r="P170">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="171" spans="14:16">
       <c r="N171">
         <v>245</v>
       </c>
     </row>
-    <row r="173" spans="14:14">
+    <row r="172" spans="14:16">
+      <c r="P172">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="14:16">
       <c r="N173">
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="14:14">
+    <row r="174" spans="14:16">
+      <c r="P174">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="14:16">
       <c r="N175">
         <v>217</v>
       </c>
     </row>
-    <row r="177" spans="14:14">
+    <row r="176" spans="14:16">
+      <c r="P176">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="177" spans="14:16">
       <c r="N177">
         <v>252</v>
       </c>
     </row>
-    <row r="179" spans="14:14">
+    <row r="178" spans="14:16">
+      <c r="P178">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="179" spans="14:16">
       <c r="N179">
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="14:14">
+    <row r="180" spans="14:16">
+      <c r="P180">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="181" spans="14:16">
       <c r="N181">
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="14:14">
+    <row r="182" spans="14:16">
+      <c r="P182">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="183" spans="14:16">
       <c r="N183">
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="14:14">
+    <row r="184" spans="14:16">
+      <c r="P184">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="185" spans="14:16">
       <c r="N185">
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="14:14">
+    <row r="186" spans="14:16">
+      <c r="P186">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="187" spans="14:16">
       <c r="N187">
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="14:14">
+    <row r="188" spans="14:16">
+      <c r="P188">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="189" spans="14:16">
       <c r="N189">
         <v>230</v>
       </c>
     </row>
-    <row r="191" spans="14:14">
+    <row r="190" spans="14:16">
+      <c r="P190">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="191" spans="14:16">
       <c r="N191">
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="14:14">
+    <row r="192" spans="14:16">
+      <c r="P192">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="193" spans="14:16">
       <c r="N193">
         <v>253</v>
       </c>
     </row>
-    <row r="195" spans="14:14">
+    <row r="194" spans="14:16">
+      <c r="P194">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="195" spans="14:16">
       <c r="N195">
         <v>239</v>
       </c>
     </row>
-    <row r="197" spans="14:14">
+    <row r="196" spans="14:16">
+      <c r="P196">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="14:16">
       <c r="N197">
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="14:14">
+    <row r="198" spans="14:16">
+      <c r="P198">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="14:16">
       <c r="N199">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="14:14">
+    <row r="200" spans="14:16">
+      <c r="P200">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="14:16">
       <c r="N201">
         <v>225</v>
       </c>
     </row>
-    <row r="203" spans="14:14">
+    <row r="202" spans="14:16">
+      <c r="P202">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="203" spans="14:16">
       <c r="N203">
         <v>247</v>
+      </c>
+    </row>
+    <row r="204" spans="14:16">
+      <c r="P204">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5286,4 +5806,1539 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="10:16">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="10:16">
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>481.4</v>
+      </c>
+      <c r="L3">
+        <v>6.12</v>
+      </c>
+      <c r="M3">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="N3">
+        <v>10.23</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="0">K3/M3</f>
+        <v>0.89947683109118071</v>
+      </c>
+    </row>
+    <row r="4" spans="10:16">
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4">
+        <v>2139.1999999999998</v>
+      </c>
+      <c r="L4">
+        <v>15.16</v>
+      </c>
+      <c r="M4">
+        <v>2719.2</v>
+      </c>
+      <c r="N4">
+        <v>31.84</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.78670197116799057</v>
+      </c>
+    </row>
+    <row r="5" spans="10:16">
+      <c r="J5">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>5655</v>
+      </c>
+      <c r="L5">
+        <v>48.73</v>
+      </c>
+      <c r="M5">
+        <v>7796.2</v>
+      </c>
+      <c r="N5">
+        <v>29.48</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.72535337728637028</v>
+      </c>
+    </row>
+    <row r="6" spans="10:16">
+      <c r="J6">
+        <v>4000</v>
+      </c>
+      <c r="K6">
+        <v>11626.4</v>
+      </c>
+      <c r="L6">
+        <v>120.09</v>
+      </c>
+      <c r="M6">
+        <v>16915</v>
+      </c>
+      <c r="N6">
+        <v>40.14</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.68734259532958908</v>
+      </c>
+    </row>
+    <row r="7" spans="10:16">
+      <c r="J7">
+        <v>5000</v>
+      </c>
+      <c r="K7">
+        <v>20279.8</v>
+      </c>
+      <c r="L7">
+        <v>33.65</v>
+      </c>
+      <c r="M7">
+        <v>31284.799999999999</v>
+      </c>
+      <c r="N7">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.64823172914642258</v>
+      </c>
+    </row>
+    <row r="8" spans="10:16">
+      <c r="J8">
+        <v>6000</v>
+      </c>
+      <c r="K8">
+        <v>32804.6</v>
+      </c>
+      <c r="L8">
+        <v>232.71</v>
+      </c>
+      <c r="M8">
+        <v>52027.4</v>
+      </c>
+      <c r="N8">
+        <v>109.6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.63052545389544734</v>
+      </c>
+    </row>
+    <row r="9" spans="10:16">
+      <c r="J9">
+        <v>7000</v>
+      </c>
+      <c r="K9">
+        <v>49707.8</v>
+      </c>
+      <c r="L9">
+        <v>421.68</v>
+      </c>
+      <c r="M9">
+        <v>81267.399999999994</v>
+      </c>
+      <c r="N9">
+        <v>349.61</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.6116573189249318</v>
+      </c>
+    </row>
+    <row r="10" spans="10:16">
+      <c r="J10">
+        <v>8000</v>
+      </c>
+      <c r="K10">
+        <v>70965.399999999994</v>
+      </c>
+      <c r="L10">
+        <v>437.87</v>
+      </c>
+      <c r="M10">
+        <v>118798</v>
+      </c>
+      <c r="N10">
+        <v>311.64</v>
+      </c>
+      <c r="P10">
+        <f>K10/M10</f>
+        <v>0.5973619084496371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3">
+        <v>41275</v>
+      </c>
+      <c r="B1" s="4">
+        <v>31065</v>
+      </c>
+      <c r="C1" s="5">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4">
+        <v>259692</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1189076</v>
+      </c>
+      <c r="F1" s="4">
+        <v>229983</v>
+      </c>
+      <c r="G1" s="4">
+        <v>281861</v>
+      </c>
+      <c r="H1" s="4">
+        <v>40217</v>
+      </c>
+      <c r="I1" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J1" s="5">
+        <v>78.930000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3">
+        <v>41306</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43197</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4">
+        <v>203097</v>
+      </c>
+      <c r="E2" s="4">
+        <v>912654</v>
+      </c>
+      <c r="F2" s="4">
+        <v>196042</v>
+      </c>
+      <c r="G2" s="4">
+        <v>233284</v>
+      </c>
+      <c r="H2" s="4">
+        <v>52377</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="J2" s="5">
+        <v>72.319999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3">
+        <v>41334</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60368</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4">
+        <v>265057</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2529113</v>
+      </c>
+      <c r="F3" s="4">
+        <v>246789</v>
+      </c>
+      <c r="G3" s="4">
+        <v>300580</v>
+      </c>
+      <c r="H3" s="4">
+        <v>69612</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="J3" s="5">
+        <v>84.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>41365</v>
+      </c>
+      <c r="B4" s="4">
+        <v>58799</v>
+      </c>
+      <c r="C4" s="5">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4">
+        <v>266861</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2455763</v>
+      </c>
+      <c r="F4" s="4">
+        <v>255621</v>
+      </c>
+      <c r="G4" s="4">
+        <v>278149</v>
+      </c>
+      <c r="H4" s="4">
+        <v>73397</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="J4" s="5">
+        <v>80.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>41395</v>
+      </c>
+      <c r="B5" s="4">
+        <v>94168</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
+        <v>286148</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3902610</v>
+      </c>
+      <c r="F5" s="4">
+        <v>255357</v>
+      </c>
+      <c r="G5" s="4">
+        <v>293238</v>
+      </c>
+      <c r="H5" s="4">
+        <v>104511</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B6" s="4">
+        <v>28050</v>
+      </c>
+      <c r="C6" s="5">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4">
+        <v>274405</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1307781</v>
+      </c>
+      <c r="F6" s="4">
+        <v>250900</v>
+      </c>
+      <c r="G6" s="4">
+        <v>285340</v>
+      </c>
+      <c r="H6" s="4">
+        <v>37354</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
+        <v>41456</v>
+      </c>
+      <c r="B7" s="4">
+        <v>19987</v>
+      </c>
+      <c r="C7" s="5">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4">
+        <v>267532</v>
+      </c>
+      <c r="E7" s="4">
+        <v>747745</v>
+      </c>
+      <c r="F7" s="4">
+        <v>238544</v>
+      </c>
+      <c r="G7" s="4">
+        <v>273697</v>
+      </c>
+      <c r="H7" s="4">
+        <v>27649</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>76.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>41487</v>
+      </c>
+      <c r="B8" s="4">
+        <v>23114</v>
+      </c>
+      <c r="C8" s="5">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>298123</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1022083</v>
+      </c>
+      <c r="F8" s="4">
+        <v>260617</v>
+      </c>
+      <c r="G8" s="4">
+        <v>305740</v>
+      </c>
+      <c r="H8" s="4">
+        <v>28278</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>85.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>41518</v>
+      </c>
+      <c r="B9" s="6">
+        <v>50830</v>
+      </c>
+      <c r="C9" s="7">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6">
+        <v>290808</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2155175</v>
+      </c>
+      <c r="F9" s="6">
+        <v>267533</v>
+      </c>
+      <c r="G9" s="6">
+        <v>305323</v>
+      </c>
+      <c r="H9" s="6">
+        <v>56684</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J9" s="5">
+        <v>88.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>41548</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40193</v>
+      </c>
+      <c r="C10" s="5">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4">
+        <v>247323</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1454128</v>
+      </c>
+      <c r="F10" s="4">
+        <v>282097</v>
+      </c>
+      <c r="G10" s="4">
+        <v>294255</v>
+      </c>
+      <c r="H10" s="4">
+        <v>41987</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="J10" s="5">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
+        <v>41579</v>
+      </c>
+      <c r="B11" s="4">
+        <v>52144</v>
+      </c>
+      <c r="C11" s="5">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4">
+        <v>288281</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1743118</v>
+      </c>
+      <c r="F11" s="4">
+        <v>284133</v>
+      </c>
+      <c r="G11" s="4">
+        <v>300983</v>
+      </c>
+      <c r="H11" s="4">
+        <v>53859</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="J11" s="5">
+        <v>87.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3">
+        <v>41609</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44591</v>
+      </c>
+      <c r="C12" s="5">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>244663</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1405118</v>
+      </c>
+      <c r="F12" s="4">
+        <v>251138</v>
+      </c>
+      <c r="G12" s="4">
+        <v>259117</v>
+      </c>
+      <c r="H12" s="4">
+        <v>46118</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="J12" s="5">
+        <v>72.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17">
+      <c r="A13" s="8"/>
+      <c r="J13">
+        <f>AVERAGE(J1:J12)</f>
+        <v>81.096666666666678</v>
+      </c>
+      <c r="K13">
+        <f>STDEV(J1:J12)</f>
+        <v>5.2038662782996497</v>
+      </c>
+      <c r="L13">
+        <f>MIN(J1:J12)</f>
+        <v>72.319999999999993</v>
+      </c>
+      <c r="M13">
+        <f>MAX(J1:J12)</f>
+        <v>88.35</v>
+      </c>
+      <c r="N13">
+        <f>ABS(M13-L13)</f>
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="18">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3">
+        <v>41275</v>
+      </c>
+      <c r="B16" s="4">
+        <v>82739</v>
+      </c>
+      <c r="C16" s="5">
+        <v>120</v>
+      </c>
+      <c r="D16" s="4">
+        <v>601868</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1670641</v>
+      </c>
+      <c r="F16" s="4">
+        <v>344030</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1448128</v>
+      </c>
+      <c r="H16" s="4">
+        <v>455972</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="J16" s="5">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3">
+        <v>41306</v>
+      </c>
+      <c r="B17" s="4">
+        <v>154467</v>
+      </c>
+      <c r="C17" s="5">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4">
+        <v>504389</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3362768</v>
+      </c>
+      <c r="F17" s="4">
+        <v>269725</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1178271</v>
+      </c>
+      <c r="H17" s="4">
+        <v>550619</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="J17" s="5">
+        <v>69.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3">
+        <v>41334</v>
+      </c>
+      <c r="B18" s="4">
+        <v>204474</v>
+      </c>
+      <c r="C18" s="5">
+        <v>147</v>
+      </c>
+      <c r="D18" s="4">
+        <v>750774</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3434836</v>
+      </c>
+      <c r="F18" s="4">
+        <v>449952</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1348127</v>
+      </c>
+      <c r="H18" s="4">
+        <v>387864</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="J18" s="5">
+        <v>71.680000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3">
+        <v>41365</v>
+      </c>
+      <c r="B19" s="4">
+        <v>392644</v>
+      </c>
+      <c r="C19" s="5">
+        <v>148</v>
+      </c>
+      <c r="D19" s="4">
+        <v>790634</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5375478</v>
+      </c>
+      <c r="F19" s="4">
+        <v>499238</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1367823</v>
+      </c>
+      <c r="H19" s="4">
+        <v>618888</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="J19" s="5">
+        <v>75.150000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="3">
+        <v>41395</v>
+      </c>
+      <c r="B20" s="4">
+        <v>295232</v>
+      </c>
+      <c r="C20" s="5">
+        <v>139</v>
+      </c>
+      <c r="D20" s="4">
+        <v>851918</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4186113</v>
+      </c>
+      <c r="F20" s="4">
+        <v>548855</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1377309</v>
+      </c>
+      <c r="H20" s="4">
+        <v>717113</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="J20" s="5">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B21" s="4">
+        <v>504595</v>
+      </c>
+      <c r="C21" s="5">
+        <v>115</v>
+      </c>
+      <c r="D21" s="4">
+        <v>722065</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7663194</v>
+      </c>
+      <c r="F21" s="4">
+        <v>406622</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1348851</v>
+      </c>
+      <c r="H21" s="4">
+        <v>903648</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="J21" s="5">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3">
+        <v>41456</v>
+      </c>
+      <c r="B22" s="4">
+        <v>180082</v>
+      </c>
+      <c r="C22" s="5">
+        <v>129</v>
+      </c>
+      <c r="D22" s="4">
+        <v>826744</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3208650</v>
+      </c>
+      <c r="F22" s="4">
+        <v>518270</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1274331</v>
+      </c>
+      <c r="H22" s="4">
+        <v>298292</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="J22" s="5">
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3">
+        <v>41487</v>
+      </c>
+      <c r="B23" s="4">
+        <v>241449</v>
+      </c>
+      <c r="C23" s="5">
+        <v>121</v>
+      </c>
+      <c r="D23" s="4">
+        <v>808675</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4539863</v>
+      </c>
+      <c r="F23" s="4">
+        <v>448813</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1287586</v>
+      </c>
+      <c r="H23" s="4">
+        <v>355065</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="J23" s="5">
+        <v>68.459999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3">
+        <v>41518</v>
+      </c>
+      <c r="B24" s="4">
+        <v>173461</v>
+      </c>
+      <c r="C24" s="5">
+        <v>135</v>
+      </c>
+      <c r="D24" s="4">
+        <v>717576</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3013799</v>
+      </c>
+      <c r="F24" s="4">
+        <v>342802</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1182882</v>
+      </c>
+      <c r="H24" s="4">
+        <v>351445</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="J24" s="5">
+        <v>64.989999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3">
+        <v>41548</v>
+      </c>
+      <c r="B25" s="10">
+        <v>142468</v>
+      </c>
+      <c r="C25" s="5">
+        <v>140</v>
+      </c>
+      <c r="D25" s="4">
+        <v>800309</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3781799</v>
+      </c>
+      <c r="F25" s="4">
+        <v>477225</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1355864</v>
+      </c>
+      <c r="H25" s="4">
+        <v>288123</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="J25" s="5">
+        <v>72.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3">
+        <v>41579</v>
+      </c>
+      <c r="B26" s="4">
+        <v>294733</v>
+      </c>
+      <c r="C26" s="5">
+        <v>146</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1030671</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8395043</v>
+      </c>
+      <c r="F26" s="4">
+        <v>769720</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1405593</v>
+      </c>
+      <c r="H26" s="4">
+        <v>403198</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="J26" s="5">
+        <v>77.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3">
+        <v>41609</v>
+      </c>
+      <c r="B27" s="4">
+        <v>264593</v>
+      </c>
+      <c r="C27" s="5">
+        <v>134</v>
+      </c>
+      <c r="D27" s="4">
+        <v>865914</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4534049</v>
+      </c>
+      <c r="F27" s="4">
+        <v>608689</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1151032</v>
+      </c>
+      <c r="H27" s="4">
+        <v>440453</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="J27" s="5">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17">
+      <c r="A28" s="8"/>
+      <c r="J28">
+        <f>AVERAGE(J16:J27)</f>
+        <v>71.019166666666678</v>
+      </c>
+      <c r="K28">
+        <f>STDEV(J16:J27)</f>
+        <v>4.8612184374876328</v>
+      </c>
+      <c r="L28">
+        <f>MIN(J16:J27)</f>
+        <v>61.2</v>
+      </c>
+      <c r="M28">
+        <f>MAX(J16:J27)</f>
+        <v>77.22</v>
+      </c>
+      <c r="N28">
+        <f>ABS(M28-L28)</f>
+        <v>16.019999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="18">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="18">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="18">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3">
+        <v>41275</v>
+      </c>
+      <c r="B33" s="4">
+        <v>29392</v>
+      </c>
+      <c r="C33" s="5">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4">
+        <v>609921</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1215124</v>
+      </c>
+      <c r="F33" s="4">
+        <v>240904</v>
+      </c>
+      <c r="G33" s="4">
+        <v>651243</v>
+      </c>
+      <c r="H33" s="4">
+        <v>59315</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J33" s="5">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="3">
+        <v>41306</v>
+      </c>
+      <c r="B34" s="4">
+        <v>18201</v>
+      </c>
+      <c r="C34" s="5">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4">
+        <v>311975</v>
+      </c>
+      <c r="E34" s="4">
+        <v>436083</v>
+      </c>
+      <c r="F34" s="4">
+        <v>106844</v>
+      </c>
+      <c r="G34" s="4">
+        <v>383896</v>
+      </c>
+      <c r="H34" s="4">
+        <v>56734</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2.92</v>
+      </c>
+      <c r="J34" s="5">
+        <v>57.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="3">
+        <v>41334</v>
+      </c>
+      <c r="B35" s="4">
+        <v>23070</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16</v>
+      </c>
+      <c r="D35" s="4">
+        <v>427662</v>
+      </c>
+      <c r="E35" s="4">
+        <v>580618</v>
+      </c>
+      <c r="F35" s="4">
+        <v>166924</v>
+      </c>
+      <c r="G35" s="4">
+        <v>562392</v>
+      </c>
+      <c r="H35" s="4">
+        <v>43387</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="J35" s="5">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="3">
+        <v>41365</v>
+      </c>
+      <c r="B36" s="4">
+        <v>9851</v>
+      </c>
+      <c r="C36" s="5">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4">
+        <v>122480</v>
+      </c>
+      <c r="E36" s="4">
+        <v>215113</v>
+      </c>
+      <c r="F36" s="4">
+        <v>112712</v>
+      </c>
+      <c r="G36" s="4">
+        <v>674342</v>
+      </c>
+      <c r="H36" s="4">
+        <v>25011</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J36" s="5">
+        <v>94.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="3">
+        <v>41395</v>
+      </c>
+      <c r="B37" s="4">
+        <v>22885</v>
+      </c>
+      <c r="C37" s="5">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4">
+        <v>223973</v>
+      </c>
+      <c r="E37" s="4">
+        <v>895838</v>
+      </c>
+      <c r="F37" s="4">
+        <v>189236</v>
+      </c>
+      <c r="G37" s="4">
+        <v>485275</v>
+      </c>
+      <c r="H37" s="4">
+        <v>33000</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="J37" s="5">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="3">
+        <v>41426</v>
+      </c>
+      <c r="B38" s="4">
+        <v>23590</v>
+      </c>
+      <c r="C38" s="5">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4">
+        <v>303553</v>
+      </c>
+      <c r="E38" s="4">
+        <v>964880</v>
+      </c>
+      <c r="F38" s="4">
+        <v>226173</v>
+      </c>
+      <c r="G38" s="4">
+        <v>531018</v>
+      </c>
+      <c r="H38" s="4">
+        <v>27720</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="J38" s="5">
+        <v>74.349999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="3">
+        <v>41456</v>
+      </c>
+      <c r="B39" s="4">
+        <v>13480</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4">
+        <v>172888</v>
+      </c>
+      <c r="E39" s="4">
+        <v>572809</v>
+      </c>
+      <c r="F39" s="4">
+        <v>150954</v>
+      </c>
+      <c r="G39" s="4">
+        <v>623161</v>
+      </c>
+      <c r="H39" s="4">
+        <v>15338</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J39" s="5">
+        <v>84.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="3">
+        <v>41487</v>
+      </c>
+      <c r="B40" s="4">
+        <v>16588</v>
+      </c>
+      <c r="C40" s="5">
+        <v>14</v>
+      </c>
+      <c r="D40" s="4">
+        <v>167149</v>
+      </c>
+      <c r="E40" s="4">
+        <v>505177</v>
+      </c>
+      <c r="F40" s="4">
+        <v>167278</v>
+      </c>
+      <c r="G40" s="4">
+        <v>427233</v>
+      </c>
+      <c r="H40" s="4">
+        <v>22471</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>57.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="3">
+        <v>41518</v>
+      </c>
+      <c r="B41" s="4">
+        <v>13546</v>
+      </c>
+      <c r="C41" s="5">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>157176</v>
+      </c>
+      <c r="E41" s="4">
+        <v>438497</v>
+      </c>
+      <c r="F41" s="4">
+        <v>137557</v>
+      </c>
+      <c r="G41" s="4">
+        <v>455443</v>
+      </c>
+      <c r="H41" s="4">
+        <v>22892</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J41" s="5">
+        <v>63.77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="3">
+        <v>41548</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10592</v>
+      </c>
+      <c r="C42" s="5">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4">
+        <v>129192</v>
+      </c>
+      <c r="E42" s="4">
+        <v>382077</v>
+      </c>
+      <c r="F42" s="4">
+        <v>107286</v>
+      </c>
+      <c r="G42" s="4">
+        <v>600688</v>
+      </c>
+      <c r="H42" s="4">
+        <v>26318</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>81.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="3">
+        <v>41579</v>
+      </c>
+      <c r="B43" s="4">
+        <v>19245</v>
+      </c>
+      <c r="C43" s="5">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4">
+        <v>150757</v>
+      </c>
+      <c r="E43" s="4">
+        <v>537774</v>
+      </c>
+      <c r="F43" s="4">
+        <v>121227</v>
+      </c>
+      <c r="G43" s="4">
+        <v>409866</v>
+      </c>
+      <c r="H43" s="4">
+        <v>19834</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="J43" s="5">
+        <v>57.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="3">
+        <v>41609</v>
+      </c>
+      <c r="B44" s="4">
+        <v>18812</v>
+      </c>
+      <c r="C44" s="5">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4">
+        <v>151858</v>
+      </c>
+      <c r="E44" s="4">
+        <v>451141</v>
+      </c>
+      <c r="F44" s="4">
+        <v>116393</v>
+      </c>
+      <c r="G44" s="4">
+        <v>824030</v>
+      </c>
+      <c r="H44" s="4">
+        <v>25413</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J44" s="5">
+        <v>111.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="J45">
+        <f>AVERAGE(J33:J44)</f>
+        <v>76.087499999999991</v>
+      </c>
+      <c r="K45">
+        <f>STDEV(J33:J44)</f>
+        <v>16.87035006642235</v>
+      </c>
+      <c r="L45">
+        <f>MIN(J33:J44)</f>
+        <v>57.38</v>
+      </c>
+      <c r="M45">
+        <f>MAX(J33:J44)</f>
+        <v>111.65</v>
+      </c>
+      <c r="N45">
+        <f>ABS(M45-L45)</f>
+        <v>54.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -5813,7 +5813,7 @@
   <dimension ref="J1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
   <si>
     <t>Local</t>
   </si>
@@ -79,9 +79,6 @@
     <t>144 cores 1Gbit</t>
   </si>
   <si>
-    <t>8 cores 1Gbit</t>
-  </si>
-  <si>
     <t>Computation</t>
   </si>
   <si>
@@ -106,13 +103,7 @@
     <t>n=100</t>
   </si>
   <si>
-    <t>Aparapi small kernel small data</t>
-  </si>
-  <si>
     <t>Aparapi</t>
-  </si>
-  <si>
-    <t>Original</t>
   </si>
   <si>
     <t>2 Devices 1Gbit</t>
@@ -121,10 +112,19 @@
     <t>Single Device</t>
   </si>
   <si>
-    <t>Aparapi &gt;100lines</t>
+    <t>Aparapi 1000lines</t>
   </si>
   <si>
-    <t>Aparapi &gt;1000lines</t>
+    <t>Aparapi 1 lines small data</t>
+  </si>
+  <si>
+    <t>8 cores 10Gbit</t>
+  </si>
+  <si>
+    <t>Original like Aparapi</t>
+  </si>
+  <si>
+    <t>Original by hand</t>
   </si>
 </sst>
 </file>
@@ -213,8 +213,134 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="619">
+  <cellStyleXfs count="745">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,7 +974,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="619">
+  <cellStyles count="745">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1158,6 +1284,69 @@
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1467,6 +1656,69 @@
     <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1798,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showRuler="0" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1889,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
         <v>12</v>
@@ -1904,7 +2156,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2513,7 +2765,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -2585,7 +2837,7 @@
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O35" t="s">
         <v>12</v>
@@ -2600,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="W35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3208,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29:P37"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3228,40 +3480,40 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3737,40 +3989,40 @@
     </row>
     <row r="29" spans="1:19">
       <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>23</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>24</v>
       </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
       <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>21</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>22</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>23</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>24</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4275,23 +4527,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4302,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4313,20 +4565,24 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>224.2</v>
+        <v>138.6</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>75.7</v>
       </c>
       <c r="E3">
-        <v>206.37</v>
+        <v>110.53700000000001</v>
       </c>
       <c r="F3">
-        <v>49.902700000000003</v>
+        <v>45.021500000000003</v>
       </c>
       <c r="G3">
+        <f>E3/B3</f>
+        <v>0.79752525252525264</v>
+      </c>
+      <c r="H3">
         <f>B3/E3</f>
-        <v>1.0863982167950768</v>
+        <v>1.2538787917168006</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4334,23 +4590,30 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>1595.8</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>3.43</v>
       </c>
       <c r="E4">
-        <v>1290.69</v>
+        <v>580.35199999999998</v>
       </c>
       <c r="F4">
-        <v>2.7359499999999999</v>
+        <v>1.3360700000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G10" si="0">B4/E4</f>
-        <v>1.2363929371111575</v>
+        <f t="shared" ref="G4:G10" si="0">E4/B4</f>
+        <v>0.97900134952766538</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="1">B4/E4</f>
+        <v>1.0214490516100574</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4358,34 +4621,35 @@
         <v>3000</v>
       </c>
       <c r="B5">
-        <v>5312.8</v>
+        <v>1933.2</v>
       </c>
       <c r="C5">
-        <v>2.04</v>
+        <v>17.77</v>
       </c>
       <c r="E5">
-        <v>4375.71</v>
+        <v>1902.77</v>
       </c>
       <c r="F5">
-        <v>44.787300000000002</v>
+        <v>2.1463000000000001</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1.2141572453384708</v>
+        <v>0.98425925925925928</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.0159924741298212</v>
       </c>
       <c r="I5">
         <f>AVERAGE(L:L)</f>
-        <v>199.87</v>
+        <v>31.42</v>
       </c>
       <c r="J5">
         <f>STDEV(L:L)</f>
-        <v>12.644841644007258</v>
+        <v>0.95536761130324721</v>
       </c>
       <c r="L5">
-        <v>214</v>
-      </c>
-      <c r="N5">
-        <v>250</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4393,26 +4657,27 @@
         <v>4000</v>
       </c>
       <c r="B6">
-        <v>12613.8</v>
+        <v>4596.6000000000004</v>
       </c>
       <c r="C6">
-        <v>77.900000000000006</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="E6">
-        <v>11842</v>
+        <v>4508.82</v>
       </c>
       <c r="F6">
-        <v>70.101500000000001</v>
+        <v>27.655100000000001</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1.0651748015537916</v>
-      </c>
-      <c r="L6">
-        <v>185</v>
+        <v>0.98090327633468199</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.019468508390222</v>
       </c>
       <c r="P6">
-        <v>513</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4420,29 +4685,27 @@
         <v>5000</v>
       </c>
       <c r="B7">
-        <v>24732.400000000001</v>
+        <v>9466.6</v>
       </c>
       <c r="C7">
-        <v>38.81</v>
+        <v>289.66000000000003</v>
       </c>
       <c r="E7">
-        <v>24054.799999999999</v>
+        <v>9290.2999999999993</v>
       </c>
       <c r="F7">
-        <v>267.33499999999998</v>
+        <v>285.39600000000002</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.0281690140845072</v>
-      </c>
-      <c r="I7" t="s">
+        <v>0.98137662941288306</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.0189767822352347</v>
+      </c>
+      <c r="L7">
         <v>32</v>
-      </c>
-      <c r="L7">
-        <v>192</v>
-      </c>
-      <c r="N7">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4450,34 +4713,27 @@
         <v>6000</v>
       </c>
       <c r="B8">
-        <v>42903.8</v>
+        <v>16480.2</v>
       </c>
       <c r="C8">
-        <v>43.74</v>
+        <v>148.71</v>
       </c>
       <c r="E8">
-        <v>45420.800000000003</v>
+        <v>16213.1</v>
       </c>
       <c r="F8">
-        <v>276.31799999999998</v>
+        <v>161.62299999999999</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.94458485979991547</v>
-      </c>
-      <c r="I8">
-        <f>AVERAGE(N:N)</f>
-        <v>242.82</v>
-      </c>
-      <c r="J8">
-        <f>STDEV(N:N)</f>
-        <v>13.155157992900799</v>
-      </c>
-      <c r="L8">
-        <v>178</v>
+        <v>0.98379267241902402</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.0164743324842258</v>
       </c>
       <c r="P8">
-        <v>510</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4485,26 +4741,27 @@
         <v>7000</v>
       </c>
       <c r="B9">
-        <v>68075.199999999997</v>
+        <v>25800.2</v>
       </c>
       <c r="C9">
-        <v>222.12</v>
+        <v>176.48</v>
       </c>
       <c r="E9">
-        <v>82141.8</v>
+        <v>25749.3</v>
       </c>
       <c r="F9">
-        <v>521.84900000000005</v>
+        <v>71.982699999999994</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.82875223089827588</v>
+        <v>0.99802714707637918</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.0019767527660948</v>
       </c>
       <c r="L9">
-        <v>182</v>
-      </c>
-      <c r="N9">
-        <v>253</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4512,1289 +4769,1120 @@
         <v>8000</v>
       </c>
       <c r="B10">
-        <v>101557</v>
+        <v>39424.199999999997</v>
       </c>
       <c r="C10">
-        <v>316.44</v>
+        <v>218.29</v>
       </c>
       <c r="E10">
-        <v>155718</v>
+        <v>39366.870000000003</v>
       </c>
       <c r="F10">
-        <v>2521.4499999999998</v>
+        <v>195.92699999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.6521853607161664</v>
+        <v>0.99854581703623679</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.0014563006914188</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="P10">
-        <v>491</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="G11">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0.98852910845584108</v>
+      </c>
       <c r="I11">
         <f>AVERAGE(P:P)</f>
-        <v>500.69</v>
+        <v>340.16</v>
       </c>
       <c r="J11">
         <f>STDEV(P:P)</f>
-        <v>15.120188524290995</v>
+        <v>2.5454256852620794</v>
       </c>
       <c r="L11">
-        <v>194</v>
-      </c>
-      <c r="N11">
-        <v>220</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="L12">
-        <v>182</v>
-      </c>
       <c r="P12">
-        <v>477</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="L13">
-        <v>198</v>
-      </c>
-      <c r="N13">
-        <v>253</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="L14">
-        <v>195</v>
+      <c r="A14" t="s">
+        <v>33</v>
       </c>
       <c r="P14">
-        <v>475</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:16">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
       <c r="L15">
-        <v>215</v>
-      </c>
-      <c r="N15">
-        <v>229</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="L16">
-        <v>200</v>
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>165.55</v>
+      </c>
+      <c r="C16">
+        <v>49.591999999999999</v>
+      </c>
+      <c r="D16">
+        <f>B16/B3</f>
+        <v>1.1944444444444446</v>
       </c>
       <c r="P16">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="12:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <v>1007.89</v>
+      </c>
+      <c r="C17">
+        <v>2.9514900000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D23" si="2">B17/B4</f>
+        <v>1.7002192982456141</v>
+      </c>
       <c r="L17">
-        <v>208</v>
-      </c>
-      <c r="N17">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="12:16">
-      <c r="L18">
-        <v>210</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>3000</v>
+      </c>
+      <c r="B18">
+        <v>3343.29</v>
+      </c>
+      <c r="C18">
+        <v>1.35182</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1.7294072004965859</v>
       </c>
       <c r="P18">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="12:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>4000</v>
+      </c>
+      <c r="B19">
+        <v>8161.56</v>
+      </c>
+      <c r="C19">
+        <v>334.51400000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1.7755645477091764</v>
+      </c>
       <c r="L19">
-        <v>196</v>
-      </c>
-      <c r="N19">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="12:16">
-      <c r="L20">
-        <v>202</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>5000</v>
+      </c>
+      <c r="B20">
+        <v>16789</v>
+      </c>
+      <c r="C20">
+        <v>60.207700000000003</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1.7734984049183444</v>
       </c>
       <c r="P20">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="12:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>6000</v>
+      </c>
+      <c r="B21">
+        <v>29125.200000000001</v>
+      </c>
+      <c r="C21">
+        <v>121.864</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1.7672843776167764</v>
+      </c>
       <c r="L21">
-        <v>192</v>
-      </c>
-      <c r="N21">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="12:16">
-      <c r="L22">
-        <v>211</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>7000</v>
+      </c>
+      <c r="B22">
+        <v>46678.6</v>
+      </c>
+      <c r="C22">
+        <v>77.928200000000004</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1.8092340369454498</v>
       </c>
       <c r="P22">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="12:16">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>8000</v>
+      </c>
+      <c r="B23">
+        <v>69185.3</v>
+      </c>
+      <c r="C23">
+        <v>219.64699999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.7548942020383422</v>
+      </c>
       <c r="L23">
-        <v>185</v>
-      </c>
-      <c r="N23">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="12:16">
-      <c r="L24">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="P24">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="12:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="L25">
-        <v>197</v>
-      </c>
-      <c r="N25">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="12:16">
-      <c r="L26">
-        <v>211</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="P26">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="27" spans="12:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="L27">
-        <v>199</v>
-      </c>
-      <c r="N27">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="12:16">
-      <c r="L28">
-        <v>211</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="P28">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="12:16">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="L29">
-        <v>185</v>
-      </c>
-      <c r="N29">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="12:16">
-      <c r="L30">
-        <v>214</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="P30">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="12:16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="L31">
-        <v>192</v>
-      </c>
-      <c r="N31">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="12:16">
-      <c r="L32">
-        <v>193</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="P32">
-        <v>512</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="12:16">
       <c r="L33">
-        <v>194</v>
-      </c>
-      <c r="N33">
-        <v>256</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="12:16">
-      <c r="L34">
-        <v>213</v>
-      </c>
       <c r="P34">
-        <v>481</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="12:16">
       <c r="L35">
-        <v>210</v>
-      </c>
-      <c r="N35">
-        <v>257</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="12:16">
-      <c r="L36">
-        <v>197</v>
-      </c>
       <c r="P36">
-        <v>495</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="12:16">
       <c r="L37">
-        <v>209</v>
-      </c>
-      <c r="N37">
-        <v>270</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="12:16">
-      <c r="L38">
-        <v>186</v>
-      </c>
       <c r="P38">
-        <v>486</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="12:16">
       <c r="L39">
-        <v>197</v>
-      </c>
-      <c r="N39">
-        <v>232</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="12:16">
-      <c r="L40">
-        <v>194</v>
-      </c>
       <c r="P40">
-        <v>496</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="12:16">
       <c r="L41">
-        <v>203</v>
-      </c>
-      <c r="N41">
-        <v>243</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="12:16">
-      <c r="L42">
-        <v>214</v>
-      </c>
       <c r="P42">
-        <v>502</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="12:16">
       <c r="L43">
-        <v>208</v>
-      </c>
-      <c r="N43">
-        <v>235</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="12:16">
-      <c r="L44">
-        <v>187</v>
-      </c>
       <c r="P44">
-        <v>490</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="12:16">
       <c r="L45">
-        <v>210</v>
-      </c>
-      <c r="N45">
-        <v>234</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="12:16">
-      <c r="L46">
-        <v>182</v>
-      </c>
       <c r="P46">
-        <v>506</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="12:16">
       <c r="L47">
-        <v>197</v>
-      </c>
-      <c r="N47">
-        <v>232</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="12:16">
-      <c r="L48">
-        <v>193</v>
-      </c>
       <c r="P48">
-        <v>514</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="12:16">
       <c r="L49">
-        <v>214</v>
-      </c>
-      <c r="N49">
-        <v>246</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="12:16">
-      <c r="L50">
-        <v>188</v>
-      </c>
       <c r="P50">
-        <v>488</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="12:16">
       <c r="L51">
-        <v>224</v>
-      </c>
-      <c r="N51">
-        <v>258</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="12:16">
-      <c r="L52">
-        <v>213</v>
-      </c>
       <c r="P52">
-        <v>509</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="12:16">
       <c r="L53">
-        <v>194</v>
-      </c>
-      <c r="N53">
-        <v>247</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="12:16">
-      <c r="L54">
-        <v>177</v>
-      </c>
       <c r="P54">
-        <v>489</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="12:16">
       <c r="L55">
-        <v>178</v>
-      </c>
-      <c r="N55">
-        <v>248</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="12:16">
-      <c r="L56">
-        <v>214</v>
-      </c>
       <c r="P56">
-        <v>499</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="12:16">
       <c r="L57">
-        <v>190</v>
-      </c>
-      <c r="N57">
-        <v>247</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="12:16">
-      <c r="L58">
-        <v>223</v>
-      </c>
       <c r="P58">
-        <v>507</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="12:16">
       <c r="L59">
-        <v>202</v>
-      </c>
-      <c r="N59">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="12:16">
-      <c r="L60">
-        <v>209</v>
-      </c>
       <c r="P60">
-        <v>477</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="12:16">
       <c r="L61">
-        <v>187</v>
-      </c>
-      <c r="N61">
-        <v>277</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="12:16">
-      <c r="L62">
-        <v>220</v>
-      </c>
       <c r="P62">
-        <v>491</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="12:16">
       <c r="L63">
-        <v>191</v>
-      </c>
-      <c r="N63">
-        <v>259</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="12:16">
-      <c r="L64">
-        <v>210</v>
-      </c>
       <c r="P64">
-        <v>509</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="12:16">
       <c r="L65">
-        <v>179</v>
-      </c>
-      <c r="N65">
-        <v>235</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="12:16">
-      <c r="L66">
-        <v>210</v>
-      </c>
       <c r="P66">
-        <v>520</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="12:16">
       <c r="L67">
-        <v>193</v>
-      </c>
-      <c r="N67">
-        <v>238</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="12:16">
-      <c r="L68">
-        <v>182</v>
-      </c>
       <c r="P68">
-        <v>488</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="12:16">
       <c r="L69">
-        <v>218</v>
-      </c>
-      <c r="N69">
-        <v>228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="12:16">
-      <c r="L70">
-        <v>226</v>
-      </c>
       <c r="P70">
-        <v>477</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="12:16">
       <c r="L71">
-        <v>204</v>
-      </c>
-      <c r="N71">
-        <v>253</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="12:16">
-      <c r="L72">
-        <v>198</v>
-      </c>
       <c r="P72">
-        <v>486</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="12:16">
       <c r="L73">
-        <v>196</v>
-      </c>
-      <c r="N73">
-        <v>231</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="12:16">
-      <c r="L74">
-        <v>176</v>
-      </c>
       <c r="P74">
-        <v>485</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="12:16">
       <c r="L75">
-        <v>194</v>
-      </c>
-      <c r="N75">
-        <v>245</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="12:16">
-      <c r="L76">
-        <v>191</v>
-      </c>
       <c r="P76">
-        <v>488</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="12:16">
       <c r="L77">
-        <v>204</v>
-      </c>
-      <c r="N77">
-        <v>218</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="12:16">
-      <c r="L78">
-        <v>212</v>
-      </c>
       <c r="P78">
-        <v>513</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="12:16">
       <c r="L79">
-        <v>213</v>
-      </c>
-      <c r="N79">
-        <v>250</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="12:16">
-      <c r="L80">
-        <v>192</v>
-      </c>
       <c r="P80">
-        <v>519</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="12:16">
       <c r="L81">
-        <v>210</v>
-      </c>
-      <c r="N81">
-        <v>249</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="12:16">
-      <c r="L82">
-        <v>212</v>
-      </c>
       <c r="P82">
-        <v>489</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="12:16">
       <c r="L83">
-        <v>181</v>
-      </c>
-      <c r="N83">
-        <v>235</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="12:16">
-      <c r="L84">
-        <v>190</v>
-      </c>
       <c r="P84">
-        <v>509</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="12:16">
       <c r="L85">
-        <v>193</v>
-      </c>
-      <c r="N85">
-        <v>275</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="12:16">
-      <c r="L86">
-        <v>186</v>
-      </c>
       <c r="P86">
-        <v>483</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="12:16">
       <c r="L87">
-        <v>195</v>
-      </c>
-      <c r="N87">
-        <v>232</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="12:16">
-      <c r="L88">
-        <v>214</v>
-      </c>
       <c r="P88">
-        <v>509</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="12:16">
       <c r="L89">
-        <v>207</v>
-      </c>
-      <c r="N89">
-        <v>220</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="12:16">
-      <c r="L90">
-        <v>207</v>
-      </c>
       <c r="P90">
-        <v>529</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="12:16">
       <c r="L91">
-        <v>210</v>
-      </c>
-      <c r="N91">
-        <v>264</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="12:16">
-      <c r="L92">
-        <v>220</v>
-      </c>
       <c r="P92">
-        <v>509</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="12:16">
       <c r="L93">
-        <v>181</v>
-      </c>
-      <c r="N93">
-        <v>236</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="12:16">
-      <c r="L94">
-        <v>209</v>
-      </c>
       <c r="P94">
-        <v>490</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="12:16">
       <c r="L95">
-        <v>220</v>
-      </c>
-      <c r="N95">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="12:16">
-      <c r="L96">
-        <v>195</v>
-      </c>
       <c r="P96">
-        <v>491</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="12:16">
       <c r="L97">
-        <v>197</v>
-      </c>
-      <c r="N97">
-        <v>250</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="12:16">
-      <c r="L98">
-        <v>209</v>
-      </c>
       <c r="P98">
-        <v>490</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="12:16">
       <c r="L99">
-        <v>188</v>
-      </c>
-      <c r="N99">
-        <v>233</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="12:16">
-      <c r="L100">
-        <v>191</v>
-      </c>
       <c r="P100">
-        <v>510</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="12:16">
       <c r="L101">
-        <v>177</v>
-      </c>
-      <c r="N101">
-        <v>233</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="12:16">
-      <c r="L102">
-        <v>191</v>
-      </c>
       <c r="P102">
-        <v>493</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="12:16">
       <c r="L103">
-        <v>209</v>
-      </c>
-      <c r="N103">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="12:16">
-      <c r="L104">
-        <v>216</v>
-      </c>
       <c r="P104">
-        <v>505</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="12:16">
-      <c r="N105">
-        <v>249</v>
+      <c r="L105">
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="12:16">
       <c r="P106">
-        <v>525</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="12:16">
-      <c r="N107">
-        <v>229</v>
+      <c r="L107">
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="12:16">
       <c r="P108">
-        <v>498</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="12:16">
-      <c r="N109">
-        <v>241</v>
+      <c r="L109">
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="12:16">
       <c r="P110">
-        <v>488</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="12:16">
-      <c r="N111">
-        <v>253</v>
+      <c r="L111">
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="12:16">
       <c r="P112">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="113" spans="14:16">
-      <c r="N113">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="12:16">
+      <c r="L113">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="12:16">
       <c r="P114">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="14:16">
-      <c r="N115">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="12:16">
+      <c r="L115">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="12:16">
       <c r="P116">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="117" spans="14:16">
-      <c r="N117">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="12:16">
+      <c r="L117">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="12:16">
       <c r="P118">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="119" spans="14:16">
-      <c r="N119">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="12:16">
+      <c r="L119">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="12:16">
       <c r="P120">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="121" spans="14:16">
-      <c r="N121">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="122" spans="14:16">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="12:16">
+      <c r="L121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="12:16">
       <c r="P122">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="123" spans="14:16">
-      <c r="N123">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="124" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="12:16">
+      <c r="L123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="12:16">
       <c r="P124">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="14:16">
-      <c r="N125">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="126" spans="14:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="12:16">
+      <c r="L125">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="12:16">
       <c r="P126">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="127" spans="14:16">
-      <c r="N127">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="14:16">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="12:16">
+      <c r="L127">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="12:16">
       <c r="P128">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="129" spans="14:16">
-      <c r="N129">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="12:16">
+      <c r="L129">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="12:16">
       <c r="P130">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="131" spans="14:16">
-      <c r="N131">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="132" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="12:16">
+      <c r="L131">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="12:16">
       <c r="P132">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="133" spans="14:16">
-      <c r="N133">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="134" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="12:16">
+      <c r="L133">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="12:16">
       <c r="P134">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="135" spans="14:16">
-      <c r="N135">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="136" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="12:16">
+      <c r="L135">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="12:16">
       <c r="P136">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="137" spans="14:16">
-      <c r="N137">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="138" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="12:16">
+      <c r="L137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="12:16">
       <c r="P138">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="139" spans="14:16">
-      <c r="N139">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="139" spans="12:16">
+      <c r="L139">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="12:16">
       <c r="P140">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="141" spans="14:16">
-      <c r="N141">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="142" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="12:16">
+      <c r="L141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="12:16">
       <c r="P142">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="143" spans="14:16">
-      <c r="N143">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="14:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="143" spans="12:16">
+      <c r="L143">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="12:16">
       <c r="P144">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="145" spans="14:16">
-      <c r="N145">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="146" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="145" spans="12:16">
+      <c r="L145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="12:16">
       <c r="P146">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="147" spans="14:16">
-      <c r="N147">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="148" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="12:16">
+      <c r="L147">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="12:16">
       <c r="P148">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="149" spans="14:16">
-      <c r="N149">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="150" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="12:16">
+      <c r="L149">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="12:16">
       <c r="P150">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="151" spans="14:16">
-      <c r="N151">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="152" spans="14:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="151" spans="12:16">
+      <c r="L151">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="12:16">
       <c r="P152">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="153" spans="14:16">
-      <c r="N153">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="154" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="153" spans="12:16">
+      <c r="L153">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="12:16">
       <c r="P154">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="155" spans="14:16">
-      <c r="N155">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="156" spans="14:16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="12:16">
+      <c r="L155">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="12:16">
       <c r="P156">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="157" spans="14:16">
-      <c r="N157">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="158" spans="14:16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" spans="12:16">
+      <c r="L157">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="12:16">
       <c r="P158">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="159" spans="14:16">
-      <c r="N159">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="160" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="12:16">
+      <c r="L159">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="12:16">
       <c r="P160">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="161" spans="14:16">
-      <c r="N161">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="162" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="12:16">
+      <c r="L161">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="12:16">
       <c r="P162">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="163" spans="14:16">
-      <c r="N163">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="164" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="12:16">
+      <c r="L163">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="12:16">
       <c r="P164">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="165" spans="14:16">
-      <c r="N165">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="12:16">
+      <c r="L165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="12:16">
       <c r="P166">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="167" spans="14:16">
-      <c r="N167">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="168" spans="14:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="12:16">
+      <c r="L167">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="12:16">
       <c r="P168">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="169" spans="14:16">
-      <c r="N169">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="170" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" spans="12:16">
+      <c r="L169">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="12:16">
       <c r="P170">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="171" spans="14:16">
-      <c r="N171">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="172" spans="14:16">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="12:16">
+      <c r="L171">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="12:16">
       <c r="P172">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="173" spans="14:16">
-      <c r="N173">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="14:16">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="12:16">
+      <c r="L173">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="12:16">
       <c r="P174">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="175" spans="14:16">
-      <c r="N175">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="175" spans="12:16">
+      <c r="L175">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="12:16">
       <c r="P176">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="177" spans="14:16">
-      <c r="N177">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="178" spans="14:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="177" spans="12:16">
+      <c r="L177">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="12:16">
       <c r="P178">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="179" spans="14:16">
-      <c r="N179">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="180" spans="14:16">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="179" spans="12:16">
+      <c r="L179">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="12:16">
       <c r="P180">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="181" spans="14:16">
-      <c r="N181">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="182" spans="14:16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="12:16">
+      <c r="L181">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="12:16">
       <c r="P182">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="14:16">
-      <c r="N183">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184" spans="14:16">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="183" spans="12:16">
+      <c r="L183">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="12:16">
       <c r="P184">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="185" spans="14:16">
-      <c r="N185">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="186" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="12:16">
+      <c r="L185">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="12:16">
       <c r="P186">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="187" spans="14:16">
-      <c r="N187">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="188" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="12:16">
+      <c r="L187">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="12:16">
       <c r="P188">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="189" spans="14:16">
-      <c r="N189">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="189" spans="12:16">
+      <c r="L189">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="12:16">
       <c r="P190">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="191" spans="14:16">
-      <c r="N191">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="192" spans="14:16">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="12:16">
+      <c r="L191">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="12:16">
       <c r="P192">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="193" spans="14:16">
-      <c r="N193">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="194" spans="14:16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="193" spans="12:16">
+      <c r="L193">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="12:16">
       <c r="P194">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="195" spans="14:16">
-      <c r="N195">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="196" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195" spans="12:16">
+      <c r="L195">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="12:16">
       <c r="P196">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="197" spans="14:16">
-      <c r="N197">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="198" spans="14:16">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="12:16">
+      <c r="L197">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="12:16">
       <c r="P198">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="199" spans="14:16">
-      <c r="N199">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="200" spans="14:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="199" spans="12:16">
+      <c r="L199">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="12:16">
       <c r="P200">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="201" spans="14:16">
-      <c r="N201">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="14:16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="201" spans="12:16">
+      <c r="L201">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="12:16">
       <c r="P202">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="203" spans="14:16">
-      <c r="N203">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="204" spans="14:16">
-      <c r="P204">
-        <v>503</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="203" spans="12:16">
+      <c r="L203">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5810,23 +5898,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J1:P10"/>
+  <dimension ref="J1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="10:16">
+    <row r="1" spans="10:17">
       <c r="J1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="10:16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="10:17">
       <c r="J3">
         <v>1000</v>
       </c>
@@ -5846,8 +5934,12 @@
         <f t="shared" ref="P3:P9" si="0">K3/M3</f>
         <v>0.89947683109118071</v>
       </c>
-    </row>
-    <row r="4" spans="10:16">
+      <c r="Q3">
+        <f>M3/K3</f>
+        <v>1.1117573743248859</v>
+      </c>
+    </row>
+    <row r="4" spans="10:17">
       <c r="J4">
         <v>2000</v>
       </c>
@@ -5867,8 +5959,12 @@
         <f t="shared" si="0"/>
         <v>0.78670197116799057</v>
       </c>
-    </row>
-    <row r="5" spans="10:16">
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="1">M4/K4</f>
+        <v>1.2711293941660433</v>
+      </c>
+    </row>
+    <row r="5" spans="10:17">
       <c r="J5">
         <v>3000</v>
       </c>
@@ -5888,8 +5984,12 @@
         <f t="shared" si="0"/>
         <v>0.72535337728637028</v>
       </c>
-    </row>
-    <row r="6" spans="10:16">
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.3786383731211318</v>
+      </c>
+    </row>
+    <row r="6" spans="10:17">
       <c r="J6">
         <v>4000</v>
       </c>
@@ -5909,8 +6009,12 @@
         <f t="shared" si="0"/>
         <v>0.68734259532958908</v>
       </c>
-    </row>
-    <row r="7" spans="10:16">
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1.4548785522603729</v>
+      </c>
+    </row>
+    <row r="7" spans="10:17">
       <c r="J7">
         <v>5000</v>
       </c>
@@ -5930,8 +6034,12 @@
         <f t="shared" si="0"/>
         <v>0.64823172914642258</v>
       </c>
-    </row>
-    <row r="8" spans="10:16">
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1.5426582116194441</v>
+      </c>
+    </row>
+    <row r="8" spans="10:17">
       <c r="J8">
         <v>6000</v>
       </c>
@@ -5951,8 +6059,12 @@
         <f t="shared" si="0"/>
         <v>0.63052545389544734</v>
       </c>
-    </row>
-    <row r="9" spans="10:16">
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1.5859787956567069</v>
+      </c>
+    </row>
+    <row r="9" spans="10:17">
       <c r="J9">
         <v>7000</v>
       </c>
@@ -5972,8 +6084,12 @@
         <f t="shared" si="0"/>
         <v>0.6116573189249318</v>
       </c>
-    </row>
-    <row r="10" spans="10:16">
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1.6349023694470484</v>
+      </c>
+    </row>
+    <row r="10" spans="10:17">
       <c r="J10">
         <v>8000</v>
       </c>
@@ -5993,9 +6109,64 @@
         <f>K10/M10</f>
         <v>0.5973619084496371</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1.6740270610748338</v>
+      </c>
+    </row>
+    <row r="11" spans="10:17">
+      <c r="J11">
+        <v>9000</v>
+      </c>
+      <c r="K11">
+        <v>98685.6</v>
+      </c>
+      <c r="L11">
+        <v>116.37</v>
+      </c>
+      <c r="M11">
+        <v>168573.4</v>
+      </c>
+      <c r="N11">
+        <v>243.48</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="2">K11/M11</f>
+        <v>0.58541620445455811</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1.708186402068792</v>
+      </c>
+    </row>
+    <row r="12" spans="10:17">
+      <c r="J12">
+        <v>10000</v>
+      </c>
+      <c r="K12">
+        <v>131682.6</v>
+      </c>
+      <c r="L12">
+        <v>602.36</v>
+      </c>
+      <c r="M12">
+        <v>228206.6</v>
+      </c>
+      <c r="N12">
+        <v>1147.06</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.57703239082480529</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1.7330049680064032</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -213,8 +213,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="745">
+  <cellStyleXfs count="757">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -974,7 +986,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="745">
+  <cellStyles count="757">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1347,6 +1359,12 @@
     <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1719,6 +1737,12 @@
     <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4530,7 +4554,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4576,14 +4600,6 @@
       <c r="F3">
         <v>45.021500000000003</v>
       </c>
-      <c r="G3">
-        <f>E3/B3</f>
-        <v>0.79752525252525264</v>
-      </c>
-      <c r="H3">
-        <f>B3/E3</f>
-        <v>1.2538787917168006</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
@@ -4601,14 +4617,6 @@
       <c r="F4">
         <v>1.3360700000000001</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G10" si="0">E4/B4</f>
-        <v>0.97900134952766538</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H10" si="1">B4/E4</f>
-        <v>1.0214490516100574</v>
-      </c>
       <c r="I4" t="s">
         <v>30</v>
       </c>
@@ -4632,14 +4640,6 @@
       <c r="F5">
         <v>2.1463000000000001</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.98425925925925928</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>1.0159924741298212</v>
-      </c>
       <c r="I5">
         <f>AVERAGE(L:L)</f>
         <v>31.42</v>
@@ -4668,14 +4668,6 @@
       <c r="F6">
         <v>27.655100000000001</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.98090327633468199</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1.019468508390222</v>
-      </c>
       <c r="P6">
         <v>341</v>
       </c>
@@ -4696,14 +4688,6 @@
       <c r="F7">
         <v>285.39600000000002</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.98137662941288306</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1.0189767822352347</v>
-      </c>
       <c r="L7">
         <v>32</v>
       </c>
@@ -4724,14 +4708,6 @@
       <c r="F8">
         <v>161.62299999999999</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.98379267241902402</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>1.0164743324842258</v>
-      </c>
       <c r="P8">
         <v>338</v>
       </c>
@@ -4752,14 +4728,6 @@
       <c r="F9">
         <v>71.982699999999994</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.99802714707637918</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>1.0019767527660948</v>
-      </c>
       <c r="L9">
         <v>31</v>
       </c>
@@ -4780,14 +4748,6 @@
       <c r="F10">
         <v>195.92699999999999</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.99854581703623679</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1.0014563006914188</v>
-      </c>
       <c r="I10" t="s">
         <v>29</v>
       </c>
@@ -4796,10 +4756,6 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="G11">
-        <f>AVERAGE(G6:G10)</f>
-        <v>0.98852910845584108</v>
-      </c>
       <c r="I11">
         <f>AVERAGE(P:P)</f>
         <v>340.16</v>
@@ -4851,9 +4807,13 @@
       <c r="C16">
         <v>49.591999999999999</v>
       </c>
-      <c r="D16">
-        <f>B16/B3</f>
-        <v>1.1944444444444446</v>
+      <c r="E16">
+        <f>E3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>B3/E3</f>
+        <v>1.2538787917168006</v>
       </c>
       <c r="P16">
         <v>338</v>
@@ -4869,9 +4829,13 @@
       <c r="C17">
         <v>2.9514900000000002</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D23" si="2">B17/B4</f>
-        <v>1.7002192982456141</v>
+      <c r="E17">
+        <f t="shared" ref="E17:E23" si="0">E4/E4</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F23" si="1">B4/E4</f>
+        <v>1.0214490516100574</v>
       </c>
       <c r="L17">
         <v>32</v>
@@ -4887,9 +4851,13 @@
       <c r="C18">
         <v>1.35182</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>1.7294072004965859</v>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.0159924741298212</v>
       </c>
       <c r="P18">
         <v>338</v>
@@ -4905,9 +4873,13 @@
       <c r="C19">
         <v>334.51400000000001</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>1.7755645477091764</v>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.019468508390222</v>
       </c>
       <c r="L19">
         <v>31</v>
@@ -4923,9 +4895,13 @@
       <c r="C20">
         <v>60.207700000000003</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>1.7734984049183444</v>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1.0189767822352347</v>
       </c>
       <c r="P20">
         <v>338</v>
@@ -4941,9 +4917,13 @@
       <c r="C21">
         <v>121.864</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>1.7672843776167764</v>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.0164743324842258</v>
       </c>
       <c r="L21">
         <v>32</v>
@@ -4959,9 +4939,13 @@
       <c r="C22">
         <v>77.928200000000004</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>1.8092340369454498</v>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1.0019767527660948</v>
       </c>
       <c r="P22">
         <v>342</v>
@@ -4977,9 +4961,13 @@
       <c r="C23">
         <v>219.64699999999999</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>1.7548942020383422</v>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.0014563006914188</v>
       </c>
       <c r="L23">
         <v>32</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -4554,7 +4554,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="G16" sqref="G16:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4815,6 +4815,10 @@
         <f>B3/E3</f>
         <v>1.2538787917168006</v>
       </c>
+      <c r="G16">
+        <f>E16/F16</f>
+        <v>0.79752525252525264</v>
+      </c>
       <c r="P16">
         <v>338</v>
       </c>
@@ -4837,6 +4841,10 @@
         <f t="shared" ref="F17:F23" si="1">B4/E4</f>
         <v>1.0214490516100574</v>
       </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G23" si="2">E17/F17</f>
+        <v>0.97900134952766527</v>
+      </c>
       <c r="L17">
         <v>32</v>
       </c>
@@ -4859,6 +4867,10 @@
         <f t="shared" si="1"/>
         <v>1.0159924741298212</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.98425925925925928</v>
+      </c>
       <c r="P18">
         <v>338</v>
       </c>
@@ -4881,6 +4893,10 @@
         <f t="shared" si="1"/>
         <v>1.019468508390222</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.98090327633468199</v>
+      </c>
       <c r="L19">
         <v>31</v>
       </c>
@@ -4903,6 +4919,10 @@
         <f t="shared" si="1"/>
         <v>1.0189767822352347</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.98137662941288306</v>
+      </c>
       <c r="P20">
         <v>338</v>
       </c>
@@ -4925,6 +4945,10 @@
         <f t="shared" si="1"/>
         <v>1.0164743324842258</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.98379267241902391</v>
+      </c>
       <c r="L21">
         <v>32</v>
       </c>
@@ -4947,6 +4971,10 @@
         <f t="shared" si="1"/>
         <v>1.0019767527660948</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.99802714707637907</v>
+      </c>
       <c r="P22">
         <v>342</v>
       </c>
@@ -4968,6 +4996,10 @@
       <c r="F23">
         <f t="shared" si="1"/>
         <v>1.0014563006914188</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.99854581703623679</v>
       </c>
       <c r="L23">
         <v>32</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="16180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="28780" windowHeight="16340" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
     <sheet name="dopencl summary" sheetId="2" r:id="rId2"/>
     <sheet name="Aparapi Matrix" sheetId="3" r:id="rId3"/>
-    <sheet name="Sharded Matrix" sheetId="4" r:id="rId4"/>
-    <sheet name="cluster ut" sheetId="5" r:id="rId5"/>
+    <sheet name="cluster ut" sheetId="5" r:id="rId4"/>
+    <sheet name="Sharded Matrix" sheetId="4" r:id="rId5"/>
+    <sheet name="Sharded Mandelbrot" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
   <si>
     <t>Local</t>
   </si>
@@ -126,6 +127,24 @@
   <si>
     <t>Original by hand</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>10 shards</t>
+  </si>
+  <si>
+    <t>2 shards</t>
+  </si>
+  <si>
+    <t>100000 iterations</t>
+  </si>
+  <si>
+    <t>1 Device</t>
+  </si>
 </sst>
 </file>
 
@@ -213,8 +232,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="757">
+  <cellStyleXfs count="761">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,7 +1009,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="757">
+  <cellStyles count="761">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1365,6 +1388,8 @@
     <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1743,6 +1768,8 @@
     <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4553,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P203"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G16" sqref="G16:G23"/>
     </sheetView>
   </sheetViews>
@@ -5917,285 +5944,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J1:Q12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="10:17">
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="10:17">
-      <c r="J3">
-        <v>1000</v>
-      </c>
-      <c r="K3">
-        <v>481.4</v>
-      </c>
-      <c r="L3">
-        <v>6.12</v>
-      </c>
-      <c r="M3">
-        <v>535.20000000000005</v>
-      </c>
-      <c r="N3">
-        <v>10.23</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P9" si="0">K3/M3</f>
-        <v>0.89947683109118071</v>
-      </c>
-      <c r="Q3">
-        <f>M3/K3</f>
-        <v>1.1117573743248859</v>
-      </c>
-    </row>
-    <row r="4" spans="10:17">
-      <c r="J4">
-        <v>2000</v>
-      </c>
-      <c r="K4">
-        <v>2139.1999999999998</v>
-      </c>
-      <c r="L4">
-        <v>15.16</v>
-      </c>
-      <c r="M4">
-        <v>2719.2</v>
-      </c>
-      <c r="N4">
-        <v>31.84</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0.78670197116799057</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="1">M4/K4</f>
-        <v>1.2711293941660433</v>
-      </c>
-    </row>
-    <row r="5" spans="10:17">
-      <c r="J5">
-        <v>3000</v>
-      </c>
-      <c r="K5">
-        <v>5655</v>
-      </c>
-      <c r="L5">
-        <v>48.73</v>
-      </c>
-      <c r="M5">
-        <v>7796.2</v>
-      </c>
-      <c r="N5">
-        <v>29.48</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0.72535337728637028</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>1.3786383731211318</v>
-      </c>
-    </row>
-    <row r="6" spans="10:17">
-      <c r="J6">
-        <v>4000</v>
-      </c>
-      <c r="K6">
-        <v>11626.4</v>
-      </c>
-      <c r="L6">
-        <v>120.09</v>
-      </c>
-      <c r="M6">
-        <v>16915</v>
-      </c>
-      <c r="N6">
-        <v>40.14</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0.68734259532958908</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>1.4548785522603729</v>
-      </c>
-    </row>
-    <row r="7" spans="10:17">
-      <c r="J7">
-        <v>5000</v>
-      </c>
-      <c r="K7">
-        <v>20279.8</v>
-      </c>
-      <c r="L7">
-        <v>33.65</v>
-      </c>
-      <c r="M7">
-        <v>31284.799999999999</v>
-      </c>
-      <c r="N7">
-        <v>64.569999999999993</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0.64823172914642258</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>1.5426582116194441</v>
-      </c>
-    </row>
-    <row r="8" spans="10:17">
-      <c r="J8">
-        <v>6000</v>
-      </c>
-      <c r="K8">
-        <v>32804.6</v>
-      </c>
-      <c r="L8">
-        <v>232.71</v>
-      </c>
-      <c r="M8">
-        <v>52027.4</v>
-      </c>
-      <c r="N8">
-        <v>109.6</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0.63052545389544734</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>1.5859787956567069</v>
-      </c>
-    </row>
-    <row r="9" spans="10:17">
-      <c r="J9">
-        <v>7000</v>
-      </c>
-      <c r="K9">
-        <v>49707.8</v>
-      </c>
-      <c r="L9">
-        <v>421.68</v>
-      </c>
-      <c r="M9">
-        <v>81267.399999999994</v>
-      </c>
-      <c r="N9">
-        <v>349.61</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0.6116573189249318</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>1.6349023694470484</v>
-      </c>
-    </row>
-    <row r="10" spans="10:17">
-      <c r="J10">
-        <v>8000</v>
-      </c>
-      <c r="K10">
-        <v>70965.399999999994</v>
-      </c>
-      <c r="L10">
-        <v>437.87</v>
-      </c>
-      <c r="M10">
-        <v>118798</v>
-      </c>
-      <c r="N10">
-        <v>311.64</v>
-      </c>
-      <c r="P10">
-        <f>K10/M10</f>
-        <v>0.5973619084496371</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>1.6740270610748338</v>
-      </c>
-    </row>
-    <row r="11" spans="10:17">
-      <c r="J11">
-        <v>9000</v>
-      </c>
-      <c r="K11">
-        <v>98685.6</v>
-      </c>
-      <c r="L11">
-        <v>116.37</v>
-      </c>
-      <c r="M11">
-        <v>168573.4</v>
-      </c>
-      <c r="N11">
-        <v>243.48</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11:P12" si="2">K11/M11</f>
-        <v>0.58541620445455811</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>1.708186402068792</v>
-      </c>
-    </row>
-    <row r="12" spans="10:17">
-      <c r="J12">
-        <v>10000</v>
-      </c>
-      <c r="K12">
-        <v>131682.6</v>
-      </c>
-      <c r="L12">
-        <v>602.36</v>
-      </c>
-      <c r="M12">
-        <v>228206.6</v>
-      </c>
-      <c r="N12">
-        <v>1147.06</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0.57703239082480529</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>1.7330049680064032</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -7532,4 +7280,530 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J1:Q12"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:17">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="10:17">
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>481.4</v>
+      </c>
+      <c r="L3">
+        <v>6.12</v>
+      </c>
+      <c r="M3">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="N3">
+        <v>10.23</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P9" si="0">K3/M3</f>
+        <v>0.89947683109118071</v>
+      </c>
+      <c r="Q3">
+        <f>M3/K3</f>
+        <v>1.1117573743248859</v>
+      </c>
+    </row>
+    <row r="4" spans="10:17">
+      <c r="J4">
+        <v>2000</v>
+      </c>
+      <c r="K4">
+        <v>2139.1999999999998</v>
+      </c>
+      <c r="L4">
+        <v>15.16</v>
+      </c>
+      <c r="M4">
+        <v>2719.2</v>
+      </c>
+      <c r="N4">
+        <v>31.84</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.78670197116799057</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="1">M4/K4</f>
+        <v>1.2711293941660433</v>
+      </c>
+    </row>
+    <row r="5" spans="10:17">
+      <c r="J5">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>5655</v>
+      </c>
+      <c r="L5">
+        <v>48.73</v>
+      </c>
+      <c r="M5">
+        <v>7796.2</v>
+      </c>
+      <c r="N5">
+        <v>29.48</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.72535337728637028</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.3786383731211318</v>
+      </c>
+    </row>
+    <row r="6" spans="10:17">
+      <c r="J6">
+        <v>4000</v>
+      </c>
+      <c r="K6">
+        <v>11626.4</v>
+      </c>
+      <c r="L6">
+        <v>120.09</v>
+      </c>
+      <c r="M6">
+        <v>16915</v>
+      </c>
+      <c r="N6">
+        <v>40.14</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.68734259532958908</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1.4548785522603729</v>
+      </c>
+    </row>
+    <row r="7" spans="10:17">
+      <c r="J7">
+        <v>5000</v>
+      </c>
+      <c r="K7">
+        <v>20279.8</v>
+      </c>
+      <c r="L7">
+        <v>33.65</v>
+      </c>
+      <c r="M7">
+        <v>31284.799999999999</v>
+      </c>
+      <c r="N7">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.64823172914642258</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1.5426582116194441</v>
+      </c>
+    </row>
+    <row r="8" spans="10:17">
+      <c r="J8">
+        <v>6000</v>
+      </c>
+      <c r="K8">
+        <v>32804.6</v>
+      </c>
+      <c r="L8">
+        <v>232.71</v>
+      </c>
+      <c r="M8">
+        <v>52027.4</v>
+      </c>
+      <c r="N8">
+        <v>109.6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.63052545389544734</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1.5859787956567069</v>
+      </c>
+    </row>
+    <row r="9" spans="10:17">
+      <c r="J9">
+        <v>7000</v>
+      </c>
+      <c r="K9">
+        <v>49707.8</v>
+      </c>
+      <c r="L9">
+        <v>421.68</v>
+      </c>
+      <c r="M9">
+        <v>81267.399999999994</v>
+      </c>
+      <c r="N9">
+        <v>349.61</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.6116573189249318</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1.6349023694470484</v>
+      </c>
+    </row>
+    <row r="10" spans="10:17">
+      <c r="J10">
+        <v>8000</v>
+      </c>
+      <c r="K10">
+        <v>70965.399999999994</v>
+      </c>
+      <c r="L10">
+        <v>437.87</v>
+      </c>
+      <c r="M10">
+        <v>118798</v>
+      </c>
+      <c r="N10">
+        <v>311.64</v>
+      </c>
+      <c r="P10">
+        <f>K10/M10</f>
+        <v>0.5973619084496371</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1.6740270610748338</v>
+      </c>
+    </row>
+    <row r="11" spans="10:17">
+      <c r="J11">
+        <v>9000</v>
+      </c>
+      <c r="K11">
+        <v>98685.6</v>
+      </c>
+      <c r="L11">
+        <v>116.37</v>
+      </c>
+      <c r="M11">
+        <v>168573.4</v>
+      </c>
+      <c r="N11">
+        <v>243.48</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="2">K11/M11</f>
+        <v>0.58541620445455811</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1.708186402068792</v>
+      </c>
+    </row>
+    <row r="12" spans="10:17">
+      <c r="J12">
+        <v>10000</v>
+      </c>
+      <c r="K12">
+        <v>131682.6</v>
+      </c>
+      <c r="L12">
+        <v>602.36</v>
+      </c>
+      <c r="M12">
+        <v>228206.6</v>
+      </c>
+      <c r="N12">
+        <v>1147.06</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.57703239082480529</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1.7330049680064032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4">
+        <v>7561.8</v>
+      </c>
+      <c r="C4">
+        <v>31.84</v>
+      </c>
+      <c r="E4">
+        <v>13659</v>
+      </c>
+      <c r="F4">
+        <v>407.35</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>E4/B4</f>
+        <v>1.8063159565182894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>13699.2</v>
+      </c>
+      <c r="C5">
+        <v>914.66</v>
+      </c>
+      <c r="E5">
+        <v>24844.400000000001</v>
+      </c>
+      <c r="F5">
+        <v>925.68</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I11" si="0">E5/B5</f>
+        <v>1.8135657556645643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+      <c r="B6">
+        <v>20991.8</v>
+      </c>
+      <c r="C6">
+        <v>510.17</v>
+      </c>
+      <c r="E6">
+        <v>39092.199999999997</v>
+      </c>
+      <c r="F6">
+        <v>1001.62</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.8622605017197191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="B7">
+        <v>30064.6</v>
+      </c>
+      <c r="C7">
+        <v>774.91</v>
+      </c>
+      <c r="E7">
+        <v>56131.199999999997</v>
+      </c>
+      <c r="F7">
+        <v>1591.17</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.8670196842798508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="B8">
+        <v>40989.199999999997</v>
+      </c>
+      <c r="C8">
+        <v>1026.77</v>
+      </c>
+      <c r="E8">
+        <v>76742.399999999994</v>
+      </c>
+      <c r="F8">
+        <v>1193.58</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.8722590340870278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+      <c r="B9">
+        <v>53303</v>
+      </c>
+      <c r="C9">
+        <v>1001.87</v>
+      </c>
+      <c r="E9">
+        <v>100000.6</v>
+      </c>
+      <c r="F9">
+        <v>1337.9</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.8760782695157872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9000</v>
+      </c>
+      <c r="B10">
+        <v>67699.199999999997</v>
+      </c>
+      <c r="C10">
+        <v>719.62</v>
+      </c>
+      <c r="E10">
+        <v>126908.2</v>
+      </c>
+      <c r="F10">
+        <v>1108.58</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.8745893599924373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>83704.2</v>
+      </c>
+      <c r="C11">
+        <v>1197.97</v>
+      </c>
+      <c r="E11">
+        <v>156677</v>
+      </c>
+      <c r="F11">
+        <v>1194.72</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.8717937690103963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="28780" windowHeight="16340" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26520" windowHeight="16140" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="cluster ut" sheetId="5" r:id="rId4"/>
     <sheet name="Sharded Matrix" sheetId="4" r:id="rId5"/>
     <sheet name="Sharded Mandelbrot" sheetId="6" r:id="rId6"/>
+    <sheet name="Full Benchmark Single Device" sheetId="9" r:id="rId7"/>
+    <sheet name="Full Benchmark local" sheetId="7" r:id="rId8"/>
+    <sheet name="Full Benchmark Hybrid" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="62">
   <si>
     <t>Local</t>
   </si>
@@ -145,6 +148,72 @@
   <si>
     <t>1 Device</t>
   </si>
+  <si>
+    <t>Matrix Big</t>
+  </si>
+  <si>
+    <t>Matrix Small</t>
+  </si>
+  <si>
+    <t>Mandelbrot Big</t>
+  </si>
+  <si>
+    <t>Mandelbrot Small</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>Nbody</t>
+  </si>
+  <si>
+    <t>Runtimes</t>
+  </si>
+  <si>
+    <t>Average Kernel Time</t>
+  </si>
+  <si>
+    <t>Full Runtimes</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 5</t>
+  </si>
+  <si>
+    <t>Subtract 2 seconds</t>
+  </si>
+  <si>
+    <t>1 local device 8 cores no dopencl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar full_benchmark </t>
+  </si>
+  <si>
+    <t>2 devices local</t>
+  </si>
+  <si>
+    <t>1 device with 8 cores is management itself</t>
+  </si>
+  <si>
+    <t>3 devices local</t>
+  </si>
+  <si>
+    <t>1 device with 8 cores is connected via 10 gbit</t>
+  </si>
+  <si>
+    <t>1 device with 144 cores connected via 1 gbit</t>
+  </si>
 </sst>
 </file>
 
@@ -232,8 +301,248 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="761">
+  <cellStyleXfs count="1001">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1009,7 +1318,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="761">
+  <cellStyles count="1001">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1390,6 +1699,126 @@
     <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1770,6 +2199,126 @@
     <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2101,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3511,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4104,6 +4653,10 @@
         <f>'dopencl matrix'!I37</f>
         <v>21.383199999999999</v>
       </c>
+      <c r="H30">
+        <f>B30/F30</f>
+        <v>5.1242343898226753E-2</v>
+      </c>
       <c r="J30">
         <v>1000</v>
       </c>
@@ -4131,6 +4684,10 @@
         <f>'dopencl matrix'!V37</f>
         <v>49.902700000000003</v>
       </c>
+      <c r="Q30">
+        <f>K30/O30</f>
+        <v>1.2914798662596306E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1">
@@ -4160,6 +4717,10 @@
         <f>'dopencl matrix'!I38</f>
         <v>5.3365200000000002</v>
       </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H37" si="6">B31/F31</f>
+        <v>3.5957216213590049E-2</v>
+      </c>
       <c r="J31" s="1">
         <v>2000</v>
       </c>
@@ -4172,11 +4733,11 @@
         <v>1.3141214409577981</v>
       </c>
       <c r="M31">
-        <f t="shared" ref="M31:M37" si="6">O31-K31</f>
+        <f t="shared" ref="M31:M37" si="7">O31-K31</f>
         <v>1281.30538</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N37" si="7">SQRT(P31^2-L31^2)</f>
+        <f t="shared" ref="N31:N37" si="8">SQRT(P31^2-L31^2)</f>
         <v>2.399688988372243</v>
       </c>
       <c r="O31">
@@ -4187,6 +4748,10 @@
         <f>'dopencl matrix'!V38</f>
         <v>2.7359499999999999</v>
       </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q37" si="9">K31/O31</f>
+        <v>7.2710100798797535E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32">
@@ -4216,6 +4781,10 @@
         <f>'dopencl matrix'!I39</f>
         <v>23.736799999999999</v>
       </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>2.7872530383543495E-2</v>
+      </c>
       <c r="J32">
         <v>3000</v>
       </c>
@@ -4228,11 +4797,11 @@
         <v>1.8511602074226314</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4351.4263200000005</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44.749027332182933</v>
       </c>
       <c r="O32">
@@ -4243,8 +4812,12 @@
         <f>'dopencl matrix'!V39</f>
         <v>44.787300000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>5.5496547988783534E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>4000</v>
       </c>
@@ -4272,6 +4845,10 @@
         <f>'dopencl matrix'!I40</f>
         <v>292.14800000000002</v>
       </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>1.8525418454033139E-2</v>
+      </c>
       <c r="J33" s="1">
         <v>4000</v>
       </c>
@@ -4284,11 +4861,11 @@
         <v>1.0629639560013313</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11801.902099999999</v>
       </c>
       <c r="N33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70.093440562425258</v>
       </c>
       <c r="O33">
@@ -4299,8 +4876,12 @@
         <f>'dopencl matrix'!V40</f>
         <v>70.101500000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>3.3860749873332202E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>5000</v>
       </c>
@@ -4328,6 +4909,10 @@
         <f>'dopencl matrix'!I41</f>
         <v>63.332799999999999</v>
       </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>1.4058372070603129E-2</v>
+      </c>
       <c r="J34">
         <v>5000</v>
       </c>
@@ -4340,11 +4925,11 @@
         <v>3.5625661139358527</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23983.258399999999</v>
       </c>
       <c r="N34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>267.31126116885503</v>
       </c>
       <c r="O34">
@@ -4355,8 +4940,12 @@
         <f>'dopencl matrix'!V41</f>
         <v>267.33499999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>2.9741091175150077E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>6000</v>
       </c>
@@ -4384,6 +4973,10 @@
         <f>'dopencl matrix'!I42</f>
         <v>161.417</v>
       </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>1.0165144131168242E-2</v>
+      </c>
       <c r="J35" s="1">
         <v>6000</v>
       </c>
@@ -4396,11 +4989,11 @@
         <v>4.7195151734093406</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45318.017700000004</v>
       </c>
       <c r="N35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>276.27769236861656</v>
       </c>
       <c r="O35">
@@ -4411,8 +5004,12 @@
         <f>'dopencl matrix'!V42</f>
         <v>276.31799999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>2.2628905699591372E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>7000</v>
       </c>
@@ -4440,6 +5037,10 @@
         <f>'dopencl matrix'!I43</f>
         <v>453.85700000000003</v>
       </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>7.3701267044651254E-3</v>
+      </c>
       <c r="J36">
         <v>7000</v>
       </c>
@@ -4452,11 +5053,11 @@
         <v>9.0879385074328596</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81995.958100000003</v>
       </c>
       <c r="N36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>521.76986131309388</v>
       </c>
       <c r="O36">
@@ -4467,8 +5068,12 @@
         <f>'dopencl matrix'!V43</f>
         <v>521.84900000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>1.7754894584730309E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>8000</v>
       </c>
@@ -4496,6 +5101,10 @@
         <f>'dopencl matrix'!I44</f>
         <v>2295.92</v>
       </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>4.8846843741422348E-3</v>
+      </c>
       <c r="J37" s="1">
         <v>8000</v>
       </c>
@@ -4508,11 +5117,11 @@
         <v>12.036119530972764</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>155534.70629999999</v>
       </c>
       <c r="N37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2521.421272680675</v>
       </c>
       <c r="O37">
@@ -4523,36 +5132,40 @@
         <f>'dopencl matrix'!V44</f>
         <v>2521.4499999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>1.177087427272377E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4561,7 +5174,7 @@
       <c r="F45" s="2"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="N46" s="1"/>
     </row>
@@ -4581,7 +5194,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7286,8 +7899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:Q12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7323,8 +7936,8 @@
         <v>10.23</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P9" si="0">K3/M3</f>
-        <v>0.89947683109118071</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="Q3">
         <f>M3/K3</f>
@@ -7348,11 +7961,11 @@
         <v>31.84</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0.78670197116799057</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="1">M4/K4</f>
+        <f t="shared" ref="Q4:Q12" si="0">M4/K4</f>
         <v>1.2711293941660433</v>
       </c>
     </row>
@@ -7373,11 +7986,11 @@
         <v>29.48</v>
       </c>
       <c r="P5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.72535337728637028</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
         <v>1.3786383731211318</v>
       </c>
     </row>
@@ -7398,11 +8011,11 @@
         <v>40.14</v>
       </c>
       <c r="P6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.68734259532958908</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
         <v>1.4548785522603729</v>
       </c>
     </row>
@@ -7423,11 +8036,11 @@
         <v>64.569999999999993</v>
       </c>
       <c r="P7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0.64823172914642258</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
         <v>1.5426582116194441</v>
       </c>
     </row>
@@ -7448,11 +8061,11 @@
         <v>109.6</v>
       </c>
       <c r="P8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0.63052545389544734</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
         <v>1.5859787956567069</v>
       </c>
     </row>
@@ -7473,11 +8086,11 @@
         <v>349.61</v>
       </c>
       <c r="P9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0.6116573189249318</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
         <v>1.6349023694470484</v>
       </c>
     </row>
@@ -7498,11 +8111,11 @@
         <v>311.64</v>
       </c>
       <c r="P10">
-        <f>K10/M10</f>
-        <v>0.5973619084496371</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6740270610748338</v>
       </c>
     </row>
@@ -7523,11 +8136,11 @@
         <v>243.48</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P12" si="2">K11/M11</f>
-        <v>0.58541620445455811</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.708186402068792</v>
       </c>
     </row>
@@ -7548,11 +8161,11 @@
         <v>1147.06</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0.57703239082480529</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7330049680064032</v>
       </c>
     </row>
@@ -7571,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7806,4 +8419,941 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>219727</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>106274</v>
+      </c>
+      <c r="G2">
+        <v>112798</v>
+      </c>
+      <c r="H2">
+        <v>112170</v>
+      </c>
+      <c r="I2">
+        <v>167087</v>
+      </c>
+      <c r="J2">
+        <v>174579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>218111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>51620</v>
+      </c>
+      <c r="G3">
+        <v>105284</v>
+      </c>
+      <c r="H3">
+        <v>104010</v>
+      </c>
+      <c r="I3">
+        <v>73347</v>
+      </c>
+      <c r="J3">
+        <v>172979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>217747</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>90452</v>
+      </c>
+      <c r="G4">
+        <v>118608</v>
+      </c>
+      <c r="H4">
+        <v>96995</v>
+      </c>
+      <c r="I4">
+        <v>99810</v>
+      </c>
+      <c r="J4">
+        <v>165424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>218530</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>41684</v>
+      </c>
+      <c r="G5">
+        <v>96312</v>
+      </c>
+      <c r="H5">
+        <v>75213</v>
+      </c>
+      <c r="I5">
+        <v>145171</v>
+      </c>
+      <c r="J5">
+        <v>105717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>218978</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>177100</v>
+      </c>
+      <c r="G6">
+        <v>187509</v>
+      </c>
+      <c r="H6">
+        <v>111649</v>
+      </c>
+      <c r="I6">
+        <v>156231</v>
+      </c>
+      <c r="J6">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>161706</v>
+      </c>
+      <c r="G7">
+        <v>144413</v>
+      </c>
+      <c r="H7">
+        <v>125044</v>
+      </c>
+      <c r="I7">
+        <v>181909</v>
+      </c>
+      <c r="J7">
+        <v>214364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>218618.6</v>
+      </c>
+      <c r="C8">
+        <f>STDEV(B2:B6)</f>
+        <v>771.8343734247652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>20821</v>
+      </c>
+      <c r="C12">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>20717</v>
+      </c>
+      <c r="E12">
+        <v>105</v>
+      </c>
+      <c r="F12">
+        <v>20714</v>
+      </c>
+      <c r="G12">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>20593</v>
+      </c>
+      <c r="I12">
+        <v>284</v>
+      </c>
+      <c r="J12">
+        <v>20585</v>
+      </c>
+      <c r="K12">
+        <v>245</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(B12,D12,F12,H12,J12)</f>
+        <v>20686</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(C12,E12,G12,I12,K12)</f>
+        <v>165.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>8496</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>8616</v>
+      </c>
+      <c r="E13">
+        <v>142</v>
+      </c>
+      <c r="F13">
+        <v>8654</v>
+      </c>
+      <c r="G13">
+        <v>107</v>
+      </c>
+      <c r="H13">
+        <v>8683</v>
+      </c>
+      <c r="I13">
+        <v>85</v>
+      </c>
+      <c r="J13">
+        <v>8696</v>
+      </c>
+      <c r="K13">
+        <v>98</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGE(B13,D13,F13,H13,J13)</f>
+        <v>8629</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(C13,E13,G13,I13,K13)</f>
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>3376</v>
+      </c>
+      <c r="C14">
+        <v>4260</v>
+      </c>
+      <c r="D14">
+        <v>3241</v>
+      </c>
+      <c r="E14">
+        <v>4026</v>
+      </c>
+      <c r="F14">
+        <v>3383</v>
+      </c>
+      <c r="G14">
+        <v>4291</v>
+      </c>
+      <c r="H14">
+        <v>3361</v>
+      </c>
+      <c r="I14">
+        <v>4248</v>
+      </c>
+      <c r="J14">
+        <v>3458</v>
+      </c>
+      <c r="K14">
+        <v>4309</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGE(B14,D14,F14,H14,J14)</f>
+        <v>3363.8</v>
+      </c>
+      <c r="N14">
+        <f>AVERAGE(C14,E14,G14,I14,K14)</f>
+        <v>4226.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>8151</v>
+      </c>
+      <c r="C15">
+        <v>10329</v>
+      </c>
+      <c r="D15">
+        <v>7961</v>
+      </c>
+      <c r="E15">
+        <v>10224</v>
+      </c>
+      <c r="F15">
+        <v>7685</v>
+      </c>
+      <c r="G15">
+        <v>9779</v>
+      </c>
+      <c r="H15">
+        <v>7974</v>
+      </c>
+      <c r="I15">
+        <v>10236</v>
+      </c>
+      <c r="J15">
+        <v>7882</v>
+      </c>
+      <c r="K15">
+        <v>10080</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(B15,D15,F15,H15,J15)</f>
+        <v>7930.6</v>
+      </c>
+      <c r="N15">
+        <f>AVERAGE(C15,E15,G15,I15,K15)</f>
+        <v>10129.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>932</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>602</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>602</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>601</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>602</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(B16,D16,F16,H16,J16)</f>
+        <v>667.8</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGE(C16,E16,G16,I16,K16)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>610</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>936</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>948</v>
+      </c>
+      <c r="G17">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>939</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>941</v>
+      </c>
+      <c r="K17">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE(B17,D17,F17,H17,J17)</f>
+        <v>874.8</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGE(C17,E17,G17,I17,K17)</f>
+        <v>29.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>116228</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>102519</v>
+      </c>
+      <c r="G2">
+        <v>91654</v>
+      </c>
+      <c r="H2">
+        <v>98568</v>
+      </c>
+      <c r="I2">
+        <v>71264</v>
+      </c>
+      <c r="J2">
+        <v>67014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>120633</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>85990</v>
+      </c>
+      <c r="G3">
+        <v>47014</v>
+      </c>
+      <c r="H3">
+        <v>106617</v>
+      </c>
+      <c r="I3">
+        <v>97826</v>
+      </c>
+      <c r="J3">
+        <v>63937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4">
+        <v>115257</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>79771</v>
+      </c>
+      <c r="G4">
+        <v>48511</v>
+      </c>
+      <c r="H4">
+        <v>83386</v>
+      </c>
+      <c r="I4">
+        <v>58594</v>
+      </c>
+      <c r="J4">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5">
+        <v>130666</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>80996</v>
+      </c>
+      <c r="G5">
+        <v>83334</v>
+      </c>
+      <c r="H5">
+        <v>99836</v>
+      </c>
+      <c r="I5">
+        <v>119560</v>
+      </c>
+      <c r="J5">
+        <v>53442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6">
+        <v>126599</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>112194</v>
+      </c>
+      <c r="G6">
+        <v>89440</v>
+      </c>
+      <c r="H6">
+        <v>111832</v>
+      </c>
+      <c r="I6">
+        <v>99558</v>
+      </c>
+      <c r="J6">
+        <v>77932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>36430</v>
+      </c>
+      <c r="G7">
+        <v>92526</v>
+      </c>
+      <c r="H7">
+        <v>114394</v>
+      </c>
+      <c r="I7">
+        <v>130640</v>
+      </c>
+      <c r="J7">
+        <v>74926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>121876.6</v>
+      </c>
+      <c r="C8">
+        <f>STDEV(B2:B6)</f>
+        <v>6648.8145785545858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>67417</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>64133</v>
+      </c>
+      <c r="G13">
+        <v>54266</v>
+      </c>
+      <c r="H13">
+        <v>75562</v>
+      </c>
+      <c r="I13">
+        <v>60219</v>
+      </c>
+      <c r="J13">
+        <v>46762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>56733</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>42422</v>
+      </c>
+      <c r="G14">
+        <v>19314</v>
+      </c>
+      <c r="H14">
+        <v>18021</v>
+      </c>
+      <c r="I14">
+        <v>66412</v>
+      </c>
+      <c r="J14">
+        <v>37184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>75593</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>24295</v>
+      </c>
+      <c r="G15">
+        <v>32703</v>
+      </c>
+      <c r="H15">
+        <v>53555</v>
+      </c>
+      <c r="I15">
+        <v>27518</v>
+      </c>
+      <c r="J15">
+        <v>38616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16">
+        <v>69173</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>32815</v>
+      </c>
+      <c r="G16">
+        <v>30643</v>
+      </c>
+      <c r="H16">
+        <v>40023</v>
+      </c>
+      <c r="I16">
+        <v>38672</v>
+      </c>
+      <c r="J16">
+        <v>36419</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>52885</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>67340</v>
+      </c>
+      <c r="G17">
+        <v>47910</v>
+      </c>
+      <c r="H17">
+        <v>69856</v>
+      </c>
+      <c r="I17">
+        <v>66848</v>
+      </c>
+      <c r="J17">
+        <v>52684</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>56454</v>
+      </c>
+      <c r="G18">
+        <v>46157</v>
+      </c>
+      <c r="H18">
+        <v>54538</v>
+      </c>
+      <c r="I18">
+        <v>51029</v>
+      </c>
+      <c r="J18">
+        <v>52827</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <f>AVERAGE(B13:B17)</f>
+        <v>64360.2</v>
+      </c>
+      <c r="C19">
+        <f>STDEV(B13:B17)</f>
+        <v>9334.5763267541934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26520" windowHeight="16140" tabRatio="500" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26520" windowHeight="16200" tabRatio="500" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
   <si>
     <t>Local</t>
   </si>
@@ -214,6 +214,18 @@
   <si>
     <t>1 device with 144 cores connected via 1 gbit</t>
   </si>
+  <si>
+    <t>Matrix 1</t>
+  </si>
+  <si>
+    <t>Matrix 2</t>
+  </si>
+  <si>
+    <t>Mandelbrot 1</t>
+  </si>
+  <si>
+    <t>Mandelbrot 2</t>
+  </si>
 </sst>
 </file>
 
@@ -301,8 +313,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1001">
+  <cellStyleXfs count="1021">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1318,7 +1350,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1001">
+  <cellStyles count="1021">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1819,6 +1851,16 @@
     <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2319,6 +2361,16 @@
     <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8423,10 +8475,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8923,6 +8975,78 @@
       <c r="N17">
         <f>AVERAGE(C17,E17,G17,I17,K17)</f>
         <v>29.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>307200000</v>
+      </c>
+      <c r="C24">
+        <f>B24/1024/1024</f>
+        <v>292.96875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>172800000</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C29" si="0">B25/1024/1024</f>
+        <v>164.794921875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>1600000</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.52587890625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>6400000</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6.103515625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>120003200</v>
+      </c>
+      <c r="C28">
+        <f>B28/1000/1000</f>
+        <v>120.00319999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>4608000</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4.39453125</v>
       </c>
     </row>
   </sheetData>
@@ -8941,7 +9065,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="26520" windowHeight="16200" tabRatio="500" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16240" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>Local</t>
   </si>
@@ -149,10 +149,16 @@
     <t>1 Device</t>
   </si>
   <si>
+    <t>___________________</t>
+  </si>
+  <si>
     <t>Matrix Big</t>
   </si>
   <si>
     <t>Matrix Small</t>
+  </si>
+  <si>
+    <t>Matrix</t>
   </si>
   <si>
     <t>Mandelbrot Big</t>
@@ -189,9 +195,6 @@
   </si>
   <si>
     <t>Run 5</t>
-  </si>
-  <si>
-    <t>Subtract 2 seconds</t>
   </si>
   <si>
     <t>1 local device 8 cores no dopencl</t>
@@ -313,8 +316,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1021">
+  <cellStyleXfs count="1149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1350,7 +1481,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1021">
+  <cellStyles count="1149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1861,6 +1992,70 @@
     <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2371,6 +2566,70 @@
     <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6613,7 +6872,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7952,7 +8211,7 @@
   <dimension ref="J1:Q12"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8234,15 +8493,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -8256,7 +8515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -8270,7 +8529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -8294,7 +8553,7 @@
         <v>1.8063159565182894</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -8318,7 +8577,7 @@
         <v>1.8135657556645643</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -8342,7 +8601,7 @@
         <v>1.8622605017197191</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -8366,7 +8625,7 @@
         <v>1.8670196842798508</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -8390,7 +8649,7 @@
         <v>1.8722590340870278</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -8414,7 +8673,7 @@
         <v>1.8760782695157872</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -8438,7 +8697,7 @@
         <v>1.8745893599924373</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -8460,6 +8719,16 @@
       <c r="I11">
         <f t="shared" si="0"/>
         <v>1.8717937690103963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12">
+        <f>MAX(I4:I11)</f>
+        <v>1.8760782695157872</v>
+      </c>
+      <c r="J12">
+        <f>MIN(I4:I11)</f>
+        <v>1.8063159565182894</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8744,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8489,16 +8758,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
       </c>
       <c r="F1">
         <v>1</v>
@@ -8518,120 +8784,120 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>219727</v>
+        <v>219360</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>106274</v>
+        <v>170788</v>
       </c>
       <c r="G2">
-        <v>112798</v>
+        <v>177283</v>
       </c>
       <c r="H2">
-        <v>112170</v>
+        <v>173015</v>
       </c>
       <c r="I2">
-        <v>167087</v>
+        <v>123402</v>
       </c>
       <c r="J2">
-        <v>174579</v>
+        <v>188585</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3">
-        <v>218111</v>
+        <v>218884</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>51620</v>
+        <v>127980</v>
       </c>
       <c r="G3">
-        <v>105284</v>
+        <v>205371</v>
       </c>
       <c r="H3">
-        <v>104010</v>
+        <v>101222</v>
       </c>
       <c r="I3">
-        <v>73347</v>
+        <v>158770</v>
       </c>
       <c r="J3">
-        <v>172979</v>
+        <v>106361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4">
-        <v>217747</v>
+        <v>218809</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>90452</v>
+        <v>139795</v>
       </c>
       <c r="G4">
-        <v>118608</v>
+        <v>197183</v>
       </c>
       <c r="H4">
-        <v>96995</v>
+        <v>26700</v>
       </c>
       <c r="I4">
-        <v>99810</v>
+        <v>30764</v>
       </c>
       <c r="J4">
-        <v>165424</v>
+        <v>189663</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>218530</v>
+        <v>219336</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5">
-        <v>41684</v>
+        <v>70767</v>
       </c>
       <c r="G5">
-        <v>96312</v>
+        <v>188219</v>
       </c>
       <c r="H5">
-        <v>75213</v>
+        <v>174485</v>
       </c>
       <c r="I5">
-        <v>145171</v>
+        <v>60559</v>
       </c>
       <c r="J5">
-        <v>105717</v>
+        <v>170221</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6">
-        <v>218978</v>
+        <v>219688</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>177100</v>
+        <v>190238</v>
       </c>
       <c r="G6">
-        <v>187509</v>
+        <v>205343</v>
       </c>
       <c r="H6">
-        <v>111649</v>
+        <v>180203</v>
       </c>
       <c r="I6">
-        <v>156231</v>
+        <v>171166</v>
       </c>
       <c r="J6">
-        <v>9152</v>
+        <v>215037</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -8642,78 +8908,78 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>161706</v>
+        <v>162523</v>
       </c>
       <c r="G7">
-        <v>144413</v>
+        <v>13006</v>
       </c>
       <c r="H7">
-        <v>125044</v>
+        <v>206069</v>
       </c>
       <c r="I7">
-        <v>181909</v>
+        <v>129823</v>
       </c>
       <c r="J7">
-        <v>214364</v>
+        <v>12414</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8">
         <f>AVERAGE(B2:B6)</f>
-        <v>218618.6</v>
+        <v>219215.4</v>
       </c>
       <c r="C8">
         <f>STDEV(B2:B6)</f>
-        <v>771.8343734247652</v>
+        <v>365.30507798277318</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
@@ -8721,265 +8987,265 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>20821</v>
+        <v>20629</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>448</v>
       </c>
       <c r="D12">
-        <v>20717</v>
+        <v>20521</v>
       </c>
       <c r="E12">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="F12">
-        <v>20714</v>
+        <v>20625</v>
       </c>
       <c r="G12">
-        <v>91</v>
+        <v>325</v>
       </c>
       <c r="H12">
-        <v>20593</v>
+        <v>20584</v>
       </c>
       <c r="I12">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="J12">
-        <v>20585</v>
+        <v>20676</v>
       </c>
       <c r="K12">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="M12">
         <f>AVERAGE(B12,D12,F12,H12,J12)</f>
-        <v>20686</v>
+        <v>20607</v>
       </c>
       <c r="N12">
         <f>AVERAGE(C12,E12,G12,I12,K12)</f>
-        <v>165.6</v>
+        <v>387.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>8496</v>
+        <v>8693</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>8616</v>
+        <v>8605</v>
       </c>
       <c r="E13">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="F13">
-        <v>8654</v>
+        <v>8548</v>
       </c>
       <c r="G13">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H13">
-        <v>8683</v>
+        <v>8642</v>
       </c>
       <c r="I13">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="J13">
-        <v>8696</v>
+        <v>8537</v>
       </c>
       <c r="K13">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M13">
         <f>AVERAGE(B13,D13,F13,H13,J13)</f>
-        <v>8629</v>
+        <v>8605</v>
       </c>
       <c r="N13">
         <f>AVERAGE(C13,E13,G13,I13,K13)</f>
-        <v>87.6</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>3376</v>
+        <v>3312</v>
       </c>
       <c r="C14">
-        <v>4260</v>
+        <v>4144</v>
       </c>
       <c r="D14">
-        <v>3241</v>
+        <v>3393</v>
       </c>
       <c r="E14">
-        <v>4026</v>
+        <v>4275</v>
       </c>
       <c r="F14">
-        <v>3383</v>
+        <v>3448</v>
       </c>
       <c r="G14">
-        <v>4291</v>
+        <v>4294</v>
       </c>
       <c r="H14">
-        <v>3361</v>
+        <v>3443</v>
       </c>
       <c r="I14">
-        <v>4248</v>
+        <v>4292</v>
       </c>
       <c r="J14">
-        <v>3458</v>
+        <v>3476</v>
       </c>
       <c r="K14">
-        <v>4309</v>
+        <v>4337</v>
       </c>
       <c r="M14">
         <f>AVERAGE(B14,D14,F14,H14,J14)</f>
-        <v>3363.8</v>
+        <v>3414.4</v>
       </c>
       <c r="N14">
         <f>AVERAGE(C14,E14,G14,I14,K14)</f>
-        <v>4226.8</v>
+        <v>4268.3999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>8151</v>
+        <v>8141</v>
       </c>
       <c r="C15">
-        <v>10329</v>
+        <v>10285</v>
       </c>
       <c r="D15">
-        <v>7961</v>
+        <v>8139</v>
       </c>
       <c r="E15">
-        <v>10224</v>
+        <v>10313</v>
       </c>
       <c r="F15">
-        <v>7685</v>
+        <v>8059</v>
       </c>
       <c r="G15">
-        <v>9779</v>
+        <v>10301</v>
       </c>
       <c r="H15">
-        <v>7974</v>
+        <v>8106</v>
       </c>
       <c r="I15">
-        <v>10236</v>
+        <v>10289</v>
       </c>
       <c r="J15">
-        <v>7882</v>
+        <v>8170</v>
       </c>
       <c r="K15">
-        <v>10080</v>
+        <v>10340</v>
       </c>
       <c r="M15">
         <f>AVERAGE(B15,D15,F15,H15,J15)</f>
-        <v>7930.6</v>
+        <v>8123</v>
       </c>
       <c r="N15">
         <f>AVERAGE(C15,E15,G15,I15,K15)</f>
-        <v>10129.6</v>
+        <v>10305.6</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>602</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>932</v>
+      </c>
+      <c r="G16">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>602</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>602</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>601</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
       <c r="J16">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <f>AVERAGE(B16,D16,F16,H16,J16)</f>
-        <v>667.8</v>
+        <v>735.4</v>
       </c>
       <c r="N16">
         <f>AVERAGE(C16,E16,G16,I16,K16)</f>
-        <v>5.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>936</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>948</v>
+        <v>603</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="K17">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M17">
         <f>AVERAGE(B17,D17,F17,H17,J17)</f>
-        <v>874.8</v>
+        <v>801.2</v>
       </c>
       <c r="N17">
         <f>AVERAGE(C17,E17,G17,I17,K17)</f>
-        <v>29.4</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>307200000</v>
@@ -8991,7 +9257,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>172800000</v>
@@ -9003,7 +9269,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1600000</v>
@@ -9015,7 +9281,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>6400000</v>
@@ -9027,7 +9293,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>120003200</v>
@@ -9039,7 +9305,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>4608000</v>
@@ -9047,6 +9313,19 @@
       <c r="C29">
         <f t="shared" si="0"/>
         <v>4.39453125</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>358400000</v>
       </c>
     </row>
   </sheetData>
@@ -9062,10 +9341,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9076,379 +9355,146 @@
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>116228</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>102519</v>
-      </c>
-      <c r="G2">
-        <v>91654</v>
-      </c>
-      <c r="H2">
-        <v>98568</v>
-      </c>
-      <c r="I2">
-        <v>71264</v>
-      </c>
-      <c r="J2">
-        <v>67014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>127923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>120633</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3">
-        <v>85990</v>
-      </c>
-      <c r="G3">
-        <v>47014</v>
-      </c>
-      <c r="H3">
-        <v>106617</v>
-      </c>
-      <c r="I3">
-        <v>97826</v>
-      </c>
-      <c r="J3">
-        <v>63937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>121524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4">
-        <v>115257</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>79771</v>
-      </c>
-      <c r="G4">
-        <v>48511</v>
-      </c>
-      <c r="H4">
-        <v>83386</v>
-      </c>
-      <c r="I4">
-        <v>58594</v>
-      </c>
-      <c r="J4">
-        <v>42437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5">
-        <v>130666</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>80996</v>
-      </c>
-      <c r="G5">
-        <v>83334</v>
-      </c>
-      <c r="H5">
-        <v>99836</v>
-      </c>
-      <c r="I5">
-        <v>119560</v>
-      </c>
-      <c r="J5">
-        <v>53442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6">
-        <v>126599</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>112194</v>
-      </c>
-      <c r="G6">
-        <v>89440</v>
-      </c>
-      <c r="H6">
-        <v>111832</v>
-      </c>
-      <c r="I6">
-        <v>99558</v>
-      </c>
-      <c r="J6">
-        <v>77932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>123627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>36430</v>
-      </c>
-      <c r="G7">
-        <v>92526</v>
-      </c>
-      <c r="H7">
-        <v>114394</v>
-      </c>
-      <c r="I7">
-        <v>130640</v>
-      </c>
-      <c r="J7">
-        <v>74926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8">
         <f>AVERAGE(B2:B6)</f>
-        <v>121876.6</v>
+        <v>124358</v>
       </c>
       <c r="C8">
         <f>STDEV(B2:B6)</f>
-        <v>6648.8145785545858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>3261.5289359439998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
       <c r="B13">
-        <v>67417</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>64133</v>
-      </c>
-      <c r="G13">
-        <v>54266</v>
-      </c>
-      <c r="H13">
-        <v>75562</v>
-      </c>
-      <c r="I13">
-        <v>60219</v>
-      </c>
-      <c r="J13">
-        <v>46762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>67691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>56733</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>42422</v>
-      </c>
-      <c r="G14">
-        <v>19314</v>
-      </c>
-      <c r="H14">
-        <v>18021</v>
-      </c>
-      <c r="I14">
-        <v>66412</v>
-      </c>
-      <c r="J14">
-        <v>37184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>66210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>75593</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15">
-        <v>24295</v>
-      </c>
-      <c r="G15">
-        <v>32703</v>
-      </c>
-      <c r="H15">
-        <v>53555</v>
-      </c>
-      <c r="I15">
-        <v>27518</v>
-      </c>
-      <c r="J15">
-        <v>38616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>62268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="B16">
-        <v>69173</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16">
-        <v>32815</v>
-      </c>
-      <c r="G16">
-        <v>30643</v>
-      </c>
-      <c r="H16">
-        <v>40023</v>
-      </c>
-      <c r="I16">
-        <v>38672</v>
-      </c>
-      <c r="J16">
-        <v>36419</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>57949</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
-        <v>52885</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17">
-        <v>67340</v>
-      </c>
-      <c r="G17">
-        <v>47910</v>
-      </c>
-      <c r="H17">
-        <v>69856</v>
-      </c>
-      <c r="I17">
-        <v>66848</v>
-      </c>
-      <c r="J17">
-        <v>52684</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>54772</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18">
-        <v>56454</v>
-      </c>
-      <c r="G18">
-        <v>46157</v>
-      </c>
-      <c r="H18">
-        <v>54538</v>
-      </c>
-      <c r="I18">
-        <v>51029</v>
-      </c>
-      <c r="J18">
-        <v>52827</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <f>AVERAGE(B13:B17)</f>
-        <v>64360.2</v>
+        <v>61778</v>
       </c>
       <c r="C19">
         <f>STDEV(B13:B17)</f>
-        <v>9334.5763267541934</v>
+        <v>5444.9878328606028</v>
+      </c>
+      <c r="F19">
+        <v>219215.4</v>
+      </c>
+      <c r="G19">
+        <v>124358</v>
+      </c>
+      <c r="H19">
+        <v>61778</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>G19/F19</f>
+        <v>0.56728678733337168</v>
+      </c>
+      <c r="H20">
+        <f>H19/F19</f>
+        <v>0.28181414261954224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>F20/G20</f>
+        <v>1.7627768217565416</v>
+      </c>
+      <c r="H21">
+        <f>F20/H20</f>
+        <v>3.5484379552591538</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16240" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16240" tabRatio="500" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Full Benchmark Single Device" sheetId="9" r:id="rId7"/>
     <sheet name="Full Benchmark local" sheetId="7" r:id="rId8"/>
     <sheet name="Full Benchmark Hybrid" sheetId="8" r:id="rId9"/>
+    <sheet name="EC2 Hybrid Network Measurement" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>Local</t>
   </si>
@@ -229,6 +230,18 @@
   <si>
     <t>Mandelbrot 2</t>
   </si>
+  <si>
+    <t>t2.micro</t>
+  </si>
+  <si>
+    <t>r4.8xlarge</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
@@ -316,8 +329,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1149">
+  <cellStyleXfs count="1163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1481,7 +1508,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1149">
+  <cellStyles count="1163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2056,6 +2083,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2630,6 +2664,13 @@
     <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4367,6 +4408,567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2">
+        <v>175</v>
+      </c>
+      <c r="F2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>189</v>
+      </c>
+      <c r="F3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4">
+        <v>199</v>
+      </c>
+      <c r="F4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5">
+        <v>168</v>
+      </c>
+      <c r="F5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6">
+        <v>178</v>
+      </c>
+      <c r="F6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7">
+        <v>178</v>
+      </c>
+      <c r="F7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>178</v>
+      </c>
+      <c r="F8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>189</v>
+      </c>
+      <c r="F9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10">
+        <v>199</v>
+      </c>
+      <c r="F10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>199</v>
+      </c>
+      <c r="F11">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>199</v>
+      </c>
+      <c r="F12">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13">
+        <v>178</v>
+      </c>
+      <c r="F13">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <v>178</v>
+      </c>
+      <c r="F14">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15">
+        <v>199</v>
+      </c>
+      <c r="F15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16">
+        <v>199</v>
+      </c>
+      <c r="F16">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>178</v>
+      </c>
+      <c r="F17">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>168</v>
+      </c>
+      <c r="F18">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>178</v>
+      </c>
+      <c r="F19">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>178</v>
+      </c>
+      <c r="F20">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>189</v>
+      </c>
+      <c r="F21">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>189</v>
+      </c>
+      <c r="F22">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>189</v>
+      </c>
+      <c r="F23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>199</v>
+      </c>
+      <c r="F24">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>178</v>
+      </c>
+      <c r="F25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>178</v>
+      </c>
+      <c r="F26">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>189</v>
+      </c>
+      <c r="F27">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>168</v>
+      </c>
+      <c r="F28">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>168</v>
+      </c>
+      <c r="F29">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>168</v>
+      </c>
+      <c r="F30">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>168</v>
+      </c>
+      <c r="F31">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>178</v>
+      </c>
+      <c r="F32">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>189</v>
+      </c>
+      <c r="F33">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>168</v>
+      </c>
+      <c r="F34">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <v>157</v>
+      </c>
+      <c r="F35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>178</v>
+      </c>
+      <c r="F36">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <v>168</v>
+      </c>
+      <c r="F37">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>168</v>
+      </c>
+      <c r="F38">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>189</v>
+      </c>
+      <c r="F39">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>178</v>
+      </c>
+      <c r="F40">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41">
+        <v>189</v>
+      </c>
+      <c r="F41">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42">
+        <v>178</v>
+      </c>
+      <c r="F42">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43">
+        <v>199</v>
+      </c>
+      <c r="F43">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44">
+        <v>199</v>
+      </c>
+      <c r="F44">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45">
+        <v>168</v>
+      </c>
+      <c r="F45">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46">
+        <v>168</v>
+      </c>
+      <c r="F46">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47">
+        <v>157</v>
+      </c>
+      <c r="F47">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48">
+        <v>157</v>
+      </c>
+      <c r="F48">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="C49">
+        <v>147</v>
+      </c>
+      <c r="F49">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="C50">
+        <v>157</v>
+      </c>
+      <c r="F50">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51">
+        <v>168</v>
+      </c>
+      <c r="F51">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52">
+        <v>168</v>
+      </c>
+      <c r="F52">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="C53">
+        <v>189</v>
+      </c>
+      <c r="F53">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="C54">
+        <v>178</v>
+      </c>
+      <c r="F54">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="C55">
+        <v>199</v>
+      </c>
+      <c r="F55">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="C56">
+        <v>189</v>
+      </c>
+      <c r="F56">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="C57">
+        <v>168</v>
+      </c>
+      <c r="F57">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="C58">
+        <v>178</v>
+      </c>
+      <c r="F58">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="C59">
+        <v>178</v>
+      </c>
+      <c r="F59">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60">
+        <v>199</v>
+      </c>
+      <c r="F60">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="C61">
+        <v>189</v>
+      </c>
+      <c r="F61">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63">
+        <f>AVERAGE(C2:C61)</f>
+        <v>179.75</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="D63:F63" si="0">AVERAGE(F2:F61)</f>
+        <v>456.06666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64">
+        <f>STDEV(C2:C61)</f>
+        <v>13.182712099757195</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="D64:F64" si="1">STDEV(F2:F61)</f>
+        <v>117.94466767416129</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <f>MIN(C2:C61)</f>
+        <v>147</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="D65:F65" si="2">MIN(F2:F61)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <f>MAX(C2:C61)</f>
+        <v>199</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="D66:F66" si="3">MAX(F2:F61)</f>
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S46"/>
@@ -8746,7 +9348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16240" tabRatio="500" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="17640" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Full Benchmark local" sheetId="7" r:id="rId8"/>
     <sheet name="Full Benchmark Hybrid" sheetId="8" r:id="rId9"/>
     <sheet name="EC2 Hybrid Network Measurement" sheetId="10" r:id="rId10"/>
+    <sheet name="Stacked Network" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
   <si>
     <t>Local</t>
   </si>
@@ -242,6 +243,45 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>g2.2xlarge</t>
+  </si>
+  <si>
+    <t>c4.8xlarge</t>
+  </si>
+  <si>
+    <t>Network Aware Scheduler</t>
+  </si>
+  <si>
+    <t>1 local moonshot 1 c4.8xlarge</t>
+  </si>
+  <si>
+    <t>5 shards</t>
+  </si>
+  <si>
+    <t>c4.8xlarge ping</t>
+  </si>
+  <si>
+    <t>1local moonshot</t>
+  </si>
+  <si>
+    <t>local c4.8xlarge to c4.8xlarge</t>
+  </si>
+  <si>
+    <t>1 local moonshot + 2 c4.8xlarge</t>
+  </si>
+  <si>
+    <t>Performance Scheduler</t>
+  </si>
+  <si>
+    <t>1 local machine class b</t>
+  </si>
+  <si>
+    <t>1 local moonshot + 1 c4.8xlarge</t>
+  </si>
+  <si>
+    <t>1 local moonshot + 3 c4.8xlarge</t>
+  </si>
 </sst>
 </file>
 
@@ -329,8 +369,350 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1163">
+  <cellStyleXfs count="1505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1508,7 +1890,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1163">
+  <cellStyles count="1505">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2090,6 +2472,177 @@
     <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2671,6 +3224,177 @@
     <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4410,503 +5134,1481 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F66"/>
+  <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showRuler="0" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="3:6">
+    <row r="1" spans="2:12">
       <c r="C1" t="s">
         <v>67</v>
       </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
       <c r="F1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>175</v>
       </c>
+      <c r="D2">
+        <v>261</v>
+      </c>
+      <c r="E2">
+        <v>320</v>
+      </c>
       <c r="F2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
+        <v>89.7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2">
+        <v>2.66</v>
+      </c>
+      <c r="L2">
+        <f>1000*K2</f>
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3">
         <v>189</v>
       </c>
+      <c r="D3">
+        <v>252</v>
+      </c>
+      <c r="E3">
+        <v>346</v>
+      </c>
       <c r="F3">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
+        <v>172</v>
+      </c>
+      <c r="H3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K3">
+        <v>2.64</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L61" si="0">1000*K3</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4">
         <v>199</v>
       </c>
+      <c r="D4">
+        <v>273</v>
+      </c>
+      <c r="E4">
+        <v>346</v>
+      </c>
       <c r="F4">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
+        <v>169</v>
+      </c>
+      <c r="K4">
+        <v>2.67</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5">
         <v>168</v>
       </c>
+      <c r="D5">
+        <v>283</v>
+      </c>
+      <c r="E5">
+        <v>377</v>
+      </c>
       <c r="F5">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
+        <v>168</v>
+      </c>
+      <c r="K5">
+        <v>2.71</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
         <v>178</v>
       </c>
+      <c r="D6">
+        <v>294</v>
+      </c>
+      <c r="E6">
+        <v>377</v>
+      </c>
       <c r="F6">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
+        <v>179</v>
+      </c>
+      <c r="K6">
+        <v>2.7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7">
         <v>178</v>
       </c>
+      <c r="D7">
+        <v>294</v>
+      </c>
+      <c r="E7">
+        <v>409</v>
+      </c>
       <c r="F7">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
+        <v>164</v>
+      </c>
+      <c r="K7">
+        <v>2.71</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8">
         <v>178</v>
       </c>
+      <c r="D8">
+        <v>325</v>
+      </c>
+      <c r="E8">
+        <v>409</v>
+      </c>
       <c r="F8">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
+        <v>174</v>
+      </c>
+      <c r="K8">
+        <v>2.72</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9">
         <v>189</v>
       </c>
+      <c r="D9">
+        <v>325</v>
+      </c>
+      <c r="E9">
+        <v>440</v>
+      </c>
       <c r="F9">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
+        <v>176</v>
+      </c>
+      <c r="K9">
+        <v>2.7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10">
         <v>199</v>
       </c>
+      <c r="D10">
+        <v>336</v>
+      </c>
+      <c r="E10">
+        <v>461</v>
+      </c>
       <c r="F10">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
+        <v>168</v>
+      </c>
+      <c r="K10">
+        <v>2.72</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11">
         <v>199</v>
       </c>
+      <c r="D11">
+        <v>357</v>
+      </c>
+      <c r="E11">
+        <v>472</v>
+      </c>
       <c r="F11">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
+        <v>175</v>
+      </c>
+      <c r="K11">
+        <v>2.7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12">
         <v>199</v>
       </c>
+      <c r="D12">
+        <v>367</v>
+      </c>
+      <c r="E12">
+        <v>493</v>
+      </c>
       <c r="F12">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
+        <v>167</v>
+      </c>
+      <c r="K12">
+        <v>2.71</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13">
         <v>178</v>
       </c>
+      <c r="D13">
+        <v>377</v>
+      </c>
+      <c r="E13">
+        <v>514</v>
+      </c>
       <c r="F13">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
+        <v>173</v>
+      </c>
+      <c r="K13">
+        <v>2.67</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14">
         <v>178</v>
       </c>
+      <c r="D14">
+        <v>388</v>
+      </c>
+      <c r="E14">
+        <v>524</v>
+      </c>
       <c r="F14">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
+        <v>175</v>
+      </c>
+      <c r="K14">
+        <v>2.71</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15">
+        <v>14</v>
+      </c>
       <c r="C15">
         <v>199</v>
       </c>
+      <c r="D15">
+        <v>409</v>
+      </c>
+      <c r="E15">
+        <v>545</v>
+      </c>
       <c r="F15">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
+        <v>174</v>
+      </c>
+      <c r="K15">
+        <v>2.73</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16">
+        <v>15</v>
+      </c>
       <c r="C16">
         <v>199</v>
       </c>
+      <c r="D16">
+        <v>419</v>
+      </c>
+      <c r="E16">
+        <v>336</v>
+      </c>
       <c r="F16">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
+        <v>166</v>
+      </c>
+      <c r="K16">
+        <v>2.67</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>16</v>
+      </c>
       <c r="C17">
         <v>178</v>
       </c>
+      <c r="D17">
+        <v>430</v>
+      </c>
+      <c r="E17">
+        <v>304</v>
+      </c>
       <c r="F17">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+        <v>173</v>
+      </c>
+      <c r="K17">
+        <v>2.71</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18">
         <v>168</v>
       </c>
+      <c r="D18">
+        <v>493</v>
+      </c>
+      <c r="E18">
+        <v>315</v>
+      </c>
       <c r="F18">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>174</v>
+      </c>
+      <c r="K18">
+        <v>2.68</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19">
+        <v>18</v>
+      </c>
       <c r="C19">
         <v>178</v>
       </c>
+      <c r="D19">
+        <v>367</v>
+      </c>
+      <c r="E19">
+        <v>336</v>
+      </c>
       <c r="F19">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
+        <v>167</v>
+      </c>
+      <c r="K19">
+        <v>2.7</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20">
         <v>178</v>
       </c>
+      <c r="D20">
+        <v>294</v>
+      </c>
+      <c r="E20">
+        <v>346</v>
+      </c>
       <c r="F20">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
+        <v>176</v>
+      </c>
+      <c r="K20">
+        <v>2.7</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21">
+        <v>20</v>
+      </c>
       <c r="C21">
         <v>189</v>
       </c>
+      <c r="D21">
+        <v>304</v>
+      </c>
+      <c r="E21">
+        <v>367</v>
+      </c>
       <c r="F21">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
+        <v>169</v>
+      </c>
+      <c r="K21">
+        <v>2.72</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22">
+        <v>21</v>
+      </c>
       <c r="C22">
         <v>189</v>
       </c>
+      <c r="D22">
+        <v>325</v>
+      </c>
+      <c r="E22">
+        <v>388</v>
+      </c>
       <c r="F22">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
+        <v>174</v>
+      </c>
+      <c r="K22">
+        <v>2.71</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>22</v>
+      </c>
       <c r="C23">
         <v>189</v>
       </c>
+      <c r="D23">
+        <v>325</v>
+      </c>
+      <c r="E23">
+        <v>357</v>
+      </c>
       <c r="F23">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
+        <v>169</v>
+      </c>
+      <c r="K23">
+        <v>2.71</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>23</v>
+      </c>
       <c r="C24">
         <v>199</v>
       </c>
+      <c r="D24">
+        <v>336</v>
+      </c>
+      <c r="E24">
+        <v>325</v>
+      </c>
       <c r="F24">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
+        <v>169</v>
+      </c>
+      <c r="K24">
+        <v>2.7</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>24</v>
+      </c>
       <c r="C25">
         <v>178</v>
       </c>
+      <c r="D25">
+        <v>346</v>
+      </c>
+      <c r="E25">
+        <v>357</v>
+      </c>
       <c r="F25">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
+        <v>173</v>
+      </c>
+      <c r="K25">
+        <v>2.72</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26">
+        <v>25</v>
+      </c>
       <c r="C26">
         <v>178</v>
       </c>
+      <c r="D26">
+        <v>367</v>
+      </c>
+      <c r="E26">
+        <v>377</v>
+      </c>
       <c r="F26">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
+        <v>172</v>
+      </c>
+      <c r="K26">
+        <v>2.71</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27">
+        <v>26</v>
+      </c>
       <c r="C27">
         <v>189</v>
       </c>
+      <c r="D27">
+        <v>377</v>
+      </c>
+      <c r="E27">
+        <v>388</v>
+      </c>
       <c r="F27">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
+        <v>174</v>
+      </c>
+      <c r="K27">
+        <v>2.71</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28">
+        <v>27</v>
+      </c>
       <c r="C28">
         <v>168</v>
       </c>
+      <c r="D28">
+        <v>388</v>
+      </c>
+      <c r="E28">
+        <v>398</v>
+      </c>
       <c r="F28">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
+        <v>171</v>
+      </c>
+      <c r="K28">
+        <v>2.7</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29">
+        <v>28</v>
+      </c>
       <c r="C29">
         <v>168</v>
       </c>
+      <c r="D29">
+        <v>398</v>
+      </c>
+      <c r="E29">
+        <v>409</v>
+      </c>
       <c r="F29">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
+        <v>175</v>
+      </c>
+      <c r="K29">
+        <v>2.72</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30">
+        <v>29</v>
+      </c>
       <c r="C30">
         <v>168</v>
       </c>
+      <c r="D30">
+        <v>419</v>
+      </c>
+      <c r="E30">
+        <v>409</v>
+      </c>
       <c r="F30">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
+        <v>166</v>
+      </c>
+      <c r="K30">
+        <v>2.72</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31">
+        <v>30</v>
+      </c>
       <c r="C31">
         <v>168</v>
       </c>
+      <c r="D31">
+        <v>430</v>
+      </c>
+      <c r="E31">
+        <v>430</v>
+      </c>
       <c r="F31">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
+        <v>176</v>
+      </c>
+      <c r="K31">
+        <v>2.71</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32">
+        <v>31</v>
+      </c>
       <c r="C32">
         <v>178</v>
       </c>
+      <c r="D32">
+        <v>440</v>
+      </c>
+      <c r="E32">
+        <v>440</v>
+      </c>
       <c r="F32">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
+        <v>168</v>
+      </c>
+      <c r="K32">
+        <v>2.71</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33">
+        <v>32</v>
+      </c>
       <c r="C33">
         <v>189</v>
       </c>
+      <c r="D33">
+        <v>461</v>
+      </c>
+      <c r="E33">
+        <v>461</v>
+      </c>
       <c r="F33">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
+        <v>170</v>
+      </c>
+      <c r="K33">
+        <v>2.72</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34">
+        <v>33</v>
+      </c>
       <c r="C34">
         <v>168</v>
       </c>
+      <c r="D34">
+        <v>472</v>
+      </c>
+      <c r="E34">
+        <v>482</v>
+      </c>
       <c r="F34">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
+        <v>141</v>
+      </c>
+      <c r="K34">
+        <v>2.71</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35">
+        <v>34</v>
+      </c>
       <c r="C35">
         <v>157</v>
       </c>
+      <c r="D35">
+        <v>535</v>
+      </c>
+      <c r="E35">
+        <v>493</v>
+      </c>
       <c r="F35">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
+        <v>154</v>
+      </c>
+      <c r="K35">
+        <v>2.7</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36">
+        <v>35</v>
+      </c>
       <c r="C36">
         <v>178</v>
       </c>
+      <c r="D36">
+        <v>587</v>
+      </c>
+      <c r="E36">
+        <v>524</v>
+      </c>
       <c r="F36">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6">
+        <v>166</v>
+      </c>
+      <c r="K36">
+        <v>2.72</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37">
+        <v>36</v>
+      </c>
       <c r="C37">
         <v>168</v>
       </c>
+      <c r="D37">
+        <v>587</v>
+      </c>
+      <c r="E37">
+        <v>535</v>
+      </c>
       <c r="F37">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
+        <v>172</v>
+      </c>
+      <c r="K37">
+        <v>2.67</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38">
+        <v>37</v>
+      </c>
       <c r="C38">
         <v>168</v>
       </c>
+      <c r="D38">
+        <v>587</v>
+      </c>
+      <c r="E38">
+        <v>556</v>
+      </c>
       <c r="F38">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
+        <v>172</v>
+      </c>
+      <c r="K38">
+        <v>2.7</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39">
+        <v>38</v>
+      </c>
       <c r="C39">
         <v>189</v>
       </c>
+      <c r="D39">
+        <v>587</v>
+      </c>
+      <c r="E39">
+        <v>577</v>
+      </c>
       <c r="F39">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
+        <v>170</v>
+      </c>
+      <c r="K39">
+        <v>2.69</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40">
+        <v>39</v>
+      </c>
       <c r="C40">
         <v>178</v>
       </c>
+      <c r="D40">
+        <v>587</v>
+      </c>
+      <c r="E40">
+        <v>598</v>
+      </c>
       <c r="F40">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
+        <v>176</v>
+      </c>
+      <c r="K40">
+        <v>2.7</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41">
+        <v>40</v>
+      </c>
       <c r="C41">
         <v>189</v>
       </c>
+      <c r="D41">
+        <v>587</v>
+      </c>
+      <c r="E41">
+        <v>661</v>
+      </c>
       <c r="F41">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
+        <v>167</v>
+      </c>
+      <c r="K41">
+        <v>2.54</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42">
+        <v>41</v>
+      </c>
       <c r="C42">
         <v>178</v>
       </c>
+      <c r="D42">
+        <v>587</v>
+      </c>
+      <c r="E42">
+        <v>692</v>
+      </c>
       <c r="F42">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6">
+        <v>178</v>
+      </c>
+      <c r="K42">
+        <v>2.71</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43">
+        <v>42</v>
+      </c>
       <c r="C43">
         <v>199</v>
       </c>
+      <c r="D43">
+        <v>587</v>
+      </c>
+      <c r="E43">
+        <v>556</v>
+      </c>
       <c r="F43">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
+        <v>170</v>
+      </c>
+      <c r="K43">
+        <v>2.71</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44">
+        <v>43</v>
+      </c>
       <c r="C44">
         <v>199</v>
       </c>
+      <c r="D44">
+        <v>587</v>
+      </c>
+      <c r="E44">
+        <v>357</v>
+      </c>
       <c r="F44">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
+        <v>172</v>
+      </c>
+      <c r="K44">
+        <v>2.71</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45">
+        <v>44</v>
+      </c>
       <c r="C45">
         <v>168</v>
       </c>
+      <c r="D45">
+        <v>598</v>
+      </c>
+      <c r="E45">
+        <v>377</v>
+      </c>
       <c r="F45">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
+        <v>171</v>
+      </c>
+      <c r="K45">
+        <v>2.66</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46">
+        <v>45</v>
+      </c>
       <c r="C46">
         <v>168</v>
       </c>
+      <c r="D46">
+        <v>587</v>
+      </c>
+      <c r="E46">
+        <v>398</v>
+      </c>
       <c r="F46">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
+        <v>172</v>
+      </c>
+      <c r="K46">
+        <v>2.7</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47">
         <v>157</v>
       </c>
+      <c r="D47">
+        <v>587</v>
+      </c>
+      <c r="E47">
+        <v>409</v>
+      </c>
       <c r="F47">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
+        <v>170</v>
+      </c>
+      <c r="K47">
+        <v>2.68</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48">
+        <v>47</v>
+      </c>
       <c r="C48">
         <v>157</v>
       </c>
+      <c r="D48">
+        <v>587</v>
+      </c>
+      <c r="E48">
+        <v>419</v>
+      </c>
       <c r="F48">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
+        <v>170</v>
+      </c>
+      <c r="K48">
+        <v>2.7</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="C49">
         <v>147</v>
       </c>
+      <c r="D49">
+        <v>587</v>
+      </c>
+      <c r="E49">
+        <v>440</v>
+      </c>
       <c r="F49">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
+        <v>170</v>
+      </c>
+      <c r="K49">
+        <v>2.71</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50">
+        <v>49</v>
+      </c>
       <c r="C50">
         <v>157</v>
       </c>
+      <c r="D50">
+        <v>587</v>
+      </c>
+      <c r="E50">
+        <v>451</v>
+      </c>
       <c r="F50">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
+        <v>173</v>
+      </c>
+      <c r="K50">
+        <v>2.71</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51">
+        <v>50</v>
+      </c>
       <c r="C51">
         <v>168</v>
       </c>
+      <c r="D51">
+        <v>598</v>
+      </c>
+      <c r="E51">
+        <v>482</v>
+      </c>
       <c r="F51">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
+        <v>172</v>
+      </c>
+      <c r="K51">
+        <v>2.72</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52">
+        <v>51</v>
+      </c>
       <c r="C52">
         <v>168</v>
       </c>
+      <c r="D52">
+        <v>587</v>
+      </c>
+      <c r="E52">
+        <v>493</v>
+      </c>
       <c r="F52">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
+        <v>182</v>
+      </c>
+      <c r="K52">
+        <v>2.72</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53">
+        <v>52</v>
+      </c>
       <c r="C53">
         <v>189</v>
       </c>
+      <c r="D53">
+        <v>587</v>
+      </c>
+      <c r="E53">
+        <v>514</v>
+      </c>
       <c r="F53">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>169</v>
+      </c>
+      <c r="K53">
+        <v>2.71</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54">
+        <v>53</v>
+      </c>
       <c r="C54">
         <v>178</v>
       </c>
+      <c r="D54">
+        <v>587</v>
+      </c>
+      <c r="E54">
+        <v>524</v>
+      </c>
       <c r="F54">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>169</v>
+      </c>
+      <c r="K54">
+        <v>2.69</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55">
+        <v>54</v>
+      </c>
       <c r="C55">
         <v>199</v>
       </c>
+      <c r="D55">
+        <v>587</v>
+      </c>
+      <c r="E55">
+        <v>556</v>
+      </c>
       <c r="F55">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>169</v>
+      </c>
+      <c r="K55">
+        <v>2.7</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56">
+        <v>55</v>
+      </c>
       <c r="C56">
         <v>189</v>
       </c>
+      <c r="D56">
+        <v>587</v>
+      </c>
+      <c r="E56">
+        <v>566</v>
+      </c>
       <c r="F56">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
+        <v>168</v>
+      </c>
+      <c r="K56">
+        <v>2.54</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57">
+        <v>56</v>
+      </c>
       <c r="C57">
         <v>168</v>
       </c>
+      <c r="D57">
+        <v>587</v>
+      </c>
+      <c r="E57">
+        <v>587</v>
+      </c>
       <c r="F57">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
+        <v>169</v>
+      </c>
+      <c r="K57">
+        <v>2.68</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58">
+        <v>57</v>
+      </c>
       <c r="C58">
         <v>178</v>
       </c>
+      <c r="D58">
+        <v>451</v>
+      </c>
+      <c r="E58">
+        <v>608</v>
+      </c>
       <c r="F58">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
+        <v>180</v>
+      </c>
+      <c r="K58">
+        <v>2.68</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59">
+        <v>58</v>
+      </c>
       <c r="C59">
         <v>178</v>
       </c>
+      <c r="D59">
+        <v>461</v>
+      </c>
+      <c r="E59">
+        <v>629</v>
+      </c>
       <c r="F59">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
+        <v>169</v>
+      </c>
+      <c r="K59">
+        <v>2.69</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60">
+        <v>59</v>
+      </c>
       <c r="C60">
         <v>199</v>
       </c>
+      <c r="D60">
+        <v>514</v>
+      </c>
+      <c r="E60">
+        <v>671</v>
+      </c>
       <c r="F60">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
+        <v>170</v>
+      </c>
+      <c r="K60">
+        <v>2.42</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61">
+        <v>60</v>
+      </c>
       <c r="C61">
         <v>189</v>
       </c>
+      <c r="D61">
+        <v>535</v>
+      </c>
+      <c r="E61">
+        <v>692</v>
+      </c>
       <c r="F61">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
+        <v>169</v>
+      </c>
+      <c r="K61">
+        <v>2.7</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
       <c r="B63" t="s">
         <v>34</v>
       </c>
@@ -4914,12 +6616,24 @@
         <f>AVERAGE(C2:C61)</f>
         <v>179.75</v>
       </c>
+      <c r="D63">
+        <f>AVERAGE(D2:D61)</f>
+        <v>456.06666666666666</v>
+      </c>
+      <c r="E63">
+        <f>AVERAGE(E2:E61)</f>
+        <v>460.38333333333333</v>
+      </c>
       <c r="F63">
-        <f t="shared" ref="D63:F63" si="0">AVERAGE(F2:F61)</f>
-        <v>456.06666666666666</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
+        <f>AVERAGE(F2:F61)</f>
+        <v>169.26166666666668</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="G63:L63" si="1">AVERAGE(K2:K61)</f>
+        <v>2.6906666666666661</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
       <c r="B64" t="s">
         <v>35</v>
       </c>
@@ -4927,9 +6641,21 @@
         <f>STDEV(C2:C61)</f>
         <v>13.182712099757195</v>
       </c>
+      <c r="D64">
+        <f>STDEV(D2:D61)</f>
+        <v>117.94466767416129</v>
+      </c>
+      <c r="E64">
+        <f>STDEV(E2:E61)</f>
+        <v>102.67640325464629</v>
+      </c>
       <c r="F64">
-        <f t="shared" ref="D64:F64" si="1">STDEV(F2:F61)</f>
-        <v>117.94466767416129</v>
+        <f>STDEV(F2:F61)</f>
+        <v>11.934412451602793</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ref="G64:L64" si="2">STDEV(K2:K61)</f>
+        <v>4.9295603223564917E-2</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -4940,9 +6666,17 @@
         <f>MIN(C2:C61)</f>
         <v>147</v>
       </c>
+      <c r="D65">
+        <f>MIN(D2:D61)</f>
+        <v>252</v>
+      </c>
+      <c r="E65">
+        <f>MIN(E2:E61)</f>
+        <v>304</v>
+      </c>
       <c r="F65">
-        <f t="shared" ref="D65:F65" si="2">MIN(F2:F61)</f>
-        <v>252</v>
+        <f>MIN(F2:F61)</f>
+        <v>89.7</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -4953,9 +6687,869 @@
         <f>MAX(C2:C61)</f>
         <v>199</v>
       </c>
+      <c r="D66">
+        <f>MAX(D2:D61)</f>
+        <v>598</v>
+      </c>
+      <c r="E66">
+        <f>MAX(E2:E61)</f>
+        <v>692</v>
+      </c>
       <c r="F66">
-        <f t="shared" ref="D66:F66" si="3">MAX(F2:F61)</f>
-        <v>598</v>
+        <f>MAX(F2:F61)</f>
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G61"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>148</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>131</v>
+      </c>
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>88.6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>140</v>
+      </c>
+      <c r="B6">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>129</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>124</v>
+      </c>
+      <c r="B8">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>136</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>143</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>145</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>149</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>148</v>
+      </c>
+      <c r="B11">
+        <v>168</v>
+      </c>
+      <c r="C11">
+        <v>142</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>145</v>
+      </c>
+      <c r="B12">
+        <v>166</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>145</v>
+      </c>
+      <c r="B13">
+        <v>165</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>152</v>
+      </c>
+      <c r="B15">
+        <v>166</v>
+      </c>
+      <c r="C15">
+        <v>143</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>168</v>
+      </c>
+      <c r="C16">
+        <v>142</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>167</v>
+      </c>
+      <c r="C17">
+        <v>149</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>166</v>
+      </c>
+      <c r="C18">
+        <v>142</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>145</v>
+      </c>
+      <c r="B19">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>149</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>146</v>
+      </c>
+      <c r="B20">
+        <v>138</v>
+      </c>
+      <c r="C20">
+        <v>148</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>153</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>140</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>94.9</v>
+      </c>
+      <c r="C23">
+        <v>149</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>142</v>
+      </c>
+      <c r="B24">
+        <v>89.7</v>
+      </c>
+      <c r="C24">
+        <v>140</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>141</v>
+      </c>
+      <c r="B25">
+        <v>95.9</v>
+      </c>
+      <c r="C25">
+        <v>149</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>146</v>
+      </c>
+      <c r="B26">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>139</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>67.8</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>145</v>
+      </c>
+      <c r="B28">
+        <v>81.8</v>
+      </c>
+      <c r="C28">
+        <v>129</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>145</v>
+      </c>
+      <c r="B29">
+        <v>96.4</v>
+      </c>
+      <c r="C29">
+        <v>130</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>145</v>
+      </c>
+      <c r="B30">
+        <v>117</v>
+      </c>
+      <c r="C30">
+        <v>149</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>139</v>
+      </c>
+      <c r="B31">
+        <v>133</v>
+      </c>
+      <c r="C31">
+        <v>140</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>147</v>
+      </c>
+      <c r="B32">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <v>149</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>146</v>
+      </c>
+      <c r="B33">
+        <v>167</v>
+      </c>
+      <c r="C33">
+        <v>140</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>145</v>
+      </c>
+      <c r="B34">
+        <v>165</v>
+      </c>
+      <c r="C34">
+        <v>149</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>138</v>
+      </c>
+      <c r="B35">
+        <v>166</v>
+      </c>
+      <c r="C35">
+        <v>149</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>133</v>
+      </c>
+      <c r="C36">
+        <v>139</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>91.2</v>
+      </c>
+      <c r="B37">
+        <v>138</v>
+      </c>
+      <c r="C37">
+        <v>139</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>159</v>
+      </c>
+      <c r="C38">
+        <v>121</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <v>160</v>
+      </c>
+      <c r="C39">
+        <v>129</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>96.4</v>
+      </c>
+      <c r="B40">
+        <v>166</v>
+      </c>
+      <c r="C40">
+        <v>129</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B41">
+        <v>97.5</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>90.2</v>
+      </c>
+      <c r="B42">
+        <v>105</v>
+      </c>
+      <c r="C42">
+        <v>119</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>97</v>
+      </c>
+      <c r="B43">
+        <v>123</v>
+      </c>
+      <c r="C43">
+        <v>119</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <v>131</v>
+      </c>
+      <c r="C44">
+        <v>140</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>154</v>
+      </c>
+      <c r="C45">
+        <v>149</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>134</v>
+      </c>
+      <c r="B46">
+        <v>168</v>
+      </c>
+      <c r="C46">
+        <v>149</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>145</v>
+      </c>
+      <c r="B47">
+        <v>168</v>
+      </c>
+      <c r="C47">
+        <v>149</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>162</v>
+      </c>
+      <c r="C48">
+        <v>139</v>
+      </c>
+      <c r="G48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>145</v>
+      </c>
+      <c r="B49">
+        <v>169</v>
+      </c>
+      <c r="C49">
+        <v>149</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>146</v>
+      </c>
+      <c r="B50">
+        <v>165</v>
+      </c>
+      <c r="C50">
+        <v>149</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>144</v>
+      </c>
+      <c r="B51">
+        <v>167</v>
+      </c>
+      <c r="C51">
+        <v>139</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>145</v>
+      </c>
+      <c r="B52">
+        <v>168</v>
+      </c>
+      <c r="C52">
+        <v>149</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>144</v>
+      </c>
+      <c r="B53">
+        <v>165</v>
+      </c>
+      <c r="C53">
+        <v>149</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>149</v>
+      </c>
+      <c r="B54">
+        <v>173</v>
+      </c>
+      <c r="C54">
+        <v>139</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>149</v>
+      </c>
+      <c r="B55">
+        <v>169</v>
+      </c>
+      <c r="C55">
+        <v>149</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>144</v>
+      </c>
+      <c r="B56">
+        <v>160</v>
+      </c>
+      <c r="C56">
+        <v>149</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>155</v>
+      </c>
+      <c r="B57">
+        <v>169</v>
+      </c>
+      <c r="C57">
+        <v>139</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>144</v>
+      </c>
+      <c r="B58">
+        <v>169</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>144</v>
+      </c>
+      <c r="B59">
+        <v>160</v>
+      </c>
+      <c r="C59">
+        <v>139</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>140</v>
+      </c>
+      <c r="B60">
+        <v>169</v>
+      </c>
+      <c r="C60">
+        <v>149</v>
+      </c>
+      <c r="G60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="G61">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -8773,14 +11367,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="A29:A30"/>
@@ -8797,6 +11383,14 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8810,10 +11404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J1:Q12"/>
+  <dimension ref="F1:Q27"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8821,7 +11415,7 @@
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:17">
+    <row r="1" spans="9:17">
       <c r="J1" t="s">
         <v>27</v>
       </c>
@@ -8832,7 +11426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="10:17">
+    <row r="3" spans="9:17">
       <c r="J3">
         <v>1000</v>
       </c>
@@ -8857,7 +11451,7 @@
         <v>1.1117573743248859</v>
       </c>
     </row>
-    <row r="4" spans="10:17">
+    <row r="4" spans="9:17">
       <c r="J4">
         <v>2000</v>
       </c>
@@ -8882,7 +11476,7 @@
         <v>1.2711293941660433</v>
       </c>
     </row>
-    <row r="5" spans="10:17">
+    <row r="5" spans="9:17">
       <c r="J5">
         <v>3000</v>
       </c>
@@ -8907,7 +11501,7 @@
         <v>1.3786383731211318</v>
       </c>
     </row>
-    <row r="6" spans="10:17">
+    <row r="6" spans="9:17">
       <c r="J6">
         <v>4000</v>
       </c>
@@ -8932,7 +11526,7 @@
         <v>1.4548785522603729</v>
       </c>
     </row>
-    <row r="7" spans="10:17">
+    <row r="7" spans="9:17">
       <c r="J7">
         <v>5000</v>
       </c>
@@ -8957,7 +11551,7 @@
         <v>1.5426582116194441</v>
       </c>
     </row>
-    <row r="8" spans="10:17">
+    <row r="8" spans="9:17">
       <c r="J8">
         <v>6000</v>
       </c>
@@ -8982,7 +11576,11 @@
         <v>1.5859787956567069</v>
       </c>
     </row>
-    <row r="9" spans="10:17">
+    <row r="9" spans="9:17">
+      <c r="I9">
+        <f>5*K9/1000/60</f>
+        <v>4.1423166666666669</v>
+      </c>
       <c r="J9">
         <v>7000</v>
       </c>
@@ -9007,7 +11605,11 @@
         <v>1.6349023694470484</v>
       </c>
     </row>
-    <row r="10" spans="10:17">
+    <row r="10" spans="9:17">
+      <c r="I10">
+        <f t="shared" ref="I10:I12" si="1">5*K10/1000/60</f>
+        <v>5.9137833333333329</v>
+      </c>
       <c r="J10">
         <v>8000</v>
       </c>
@@ -9032,7 +11634,11 @@
         <v>1.6740270610748338</v>
       </c>
     </row>
-    <row r="11" spans="10:17">
+    <row r="11" spans="9:17">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>8.2238000000000007</v>
+      </c>
       <c r="J11">
         <v>9000</v>
       </c>
@@ -9057,7 +11663,11 @@
         <v>1.708186402068792</v>
       </c>
     </row>
-    <row r="12" spans="10:17">
+    <row r="12" spans="9:17">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10.973549999999999</v>
+      </c>
       <c r="J12">
         <v>10000</v>
       </c>
@@ -9080,6 +11690,226 @@
       <c r="Q12">
         <f t="shared" si="0"/>
         <v>1.7330049680064032</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15">
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <v>5794.4</v>
+      </c>
+      <c r="H20">
+        <v>87.43</v>
+      </c>
+      <c r="K20">
+        <v>3000</v>
+      </c>
+      <c r="L20">
+        <v>5929</v>
+      </c>
+      <c r="M20">
+        <v>979.14</v>
+      </c>
+      <c r="O20">
+        <f>G20/L20</f>
+        <v>0.97729802664867593</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15">
+      <c r="F21">
+        <v>4000</v>
+      </c>
+      <c r="G21">
+        <v>13140.2</v>
+      </c>
+      <c r="H21">
+        <v>58.12</v>
+      </c>
+      <c r="K21">
+        <v>4000</v>
+      </c>
+      <c r="L21">
+        <v>13938</v>
+      </c>
+      <c r="M21">
+        <v>4169.26</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O27" si="2">G21/L21</f>
+        <v>0.94276079781891242</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15">
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22">
+        <v>25364.799999999999</v>
+      </c>
+      <c r="H22">
+        <v>245.47</v>
+      </c>
+      <c r="K22">
+        <v>5000</v>
+      </c>
+      <c r="L22">
+        <v>29123.8</v>
+      </c>
+      <c r="M22">
+        <v>482.32</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>0.87093030442455999</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23">
+        <v>6000</v>
+      </c>
+      <c r="G23">
+        <v>43845.2</v>
+      </c>
+      <c r="H23">
+        <v>340.62</v>
+      </c>
+      <c r="K23">
+        <v>6000</v>
+      </c>
+      <c r="L23">
+        <v>47186</v>
+      </c>
+      <c r="M23">
+        <v>440.93</v>
+      </c>
+      <c r="O23">
+        <f>G23/L23</f>
+        <v>0.92919933878692829</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24">
+        <v>7000</v>
+      </c>
+      <c r="G24">
+        <v>69495.600000000006</v>
+      </c>
+      <c r="H24">
+        <v>689.04</v>
+      </c>
+      <c r="K24">
+        <v>7000</v>
+      </c>
+      <c r="L24">
+        <v>64343.199999999997</v>
+      </c>
+      <c r="M24">
+        <v>405.74</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>1.0800768379564587</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
+      <c r="F25">
+        <v>8000</v>
+      </c>
+      <c r="G25">
+        <v>103728.6</v>
+      </c>
+      <c r="H25">
+        <v>389.39</v>
+      </c>
+      <c r="K25">
+        <v>8000</v>
+      </c>
+      <c r="L25">
+        <v>75985</v>
+      </c>
+      <c r="M25">
+        <v>584.27</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>1.365119431466737</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15">
+      <c r="F26">
+        <v>9000</v>
+      </c>
+      <c r="G26">
+        <v>148526.20000000001</v>
+      </c>
+      <c r="H26">
+        <v>687.09</v>
+      </c>
+      <c r="K26">
+        <v>9000</v>
+      </c>
+      <c r="L26">
+        <v>108408.4</v>
+      </c>
+      <c r="M26">
+        <v>211.64</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>1.370061729533874</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15">
+      <c r="F27">
+        <v>10000</v>
+      </c>
+      <c r="G27">
+        <v>203346.6</v>
+      </c>
+      <c r="H27">
+        <v>443.73</v>
+      </c>
+      <c r="K27">
+        <v>10000</v>
+      </c>
+      <c r="L27">
+        <v>136494.6</v>
+      </c>
+      <c r="M27">
+        <v>1139.93</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>1.48977761757608</v>
       </c>
     </row>
   </sheetData>
@@ -9095,10 +11925,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9331,6 +12161,139 @@
       <c r="J12">
         <f>MIN(I4:I11)</f>
         <v>1.8063159565182894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19">
+        <v>3000</v>
+      </c>
+      <c r="E19">
+        <v>7253.6</v>
+      </c>
+      <c r="F19">
+        <v>21.91</v>
+      </c>
+      <c r="H19">
+        <f>E4/E19</f>
+        <v>1.8830649608470276</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20">
+        <v>4000</v>
+      </c>
+      <c r="E20">
+        <v>12785</v>
+      </c>
+      <c r="F20">
+        <v>797.28</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H26" si="1">E5/E20</f>
+        <v>1.9432459913961675</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21">
+        <v>5000</v>
+      </c>
+      <c r="E21">
+        <v>16050.6</v>
+      </c>
+      <c r="F21">
+        <v>509.86</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.4355600413691696</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22">
+        <v>6000</v>
+      </c>
+      <c r="E22">
+        <v>23072</v>
+      </c>
+      <c r="F22">
+        <v>834.28</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2.4328710124826629</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23">
+        <v>7000</v>
+      </c>
+      <c r="E23">
+        <v>31619.200000000001</v>
+      </c>
+      <c r="F23">
+        <v>908.93</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>2.4270822791215463</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24">
+        <v>8000</v>
+      </c>
+      <c r="E24">
+        <v>41506</v>
+      </c>
+      <c r="F24">
+        <v>1403.99</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>2.4093046788416133</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25">
+        <v>9000</v>
+      </c>
+      <c r="E25">
+        <v>52642.6</v>
+      </c>
+      <c r="F25">
+        <v>1446.05</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>2.4107509887429575</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>64719.8</v>
+      </c>
+      <c r="F26">
+        <v>1188.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2.4208511151146945</v>
       </c>
     </row>
   </sheetData>
@@ -9349,7 +12312,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9622,11 +12585,11 @@
         <v>347</v>
       </c>
       <c r="M12">
-        <f>AVERAGE(B12,D12,F12,H12,J12)</f>
+        <f t="shared" ref="M12:N17" si="0">AVERAGE(B12,D12,F12,H12,J12)</f>
         <v>20607</v>
       </c>
       <c r="N12">
-        <f>AVERAGE(C12,E12,G12,I12,K12)</f>
+        <f t="shared" si="0"/>
         <v>387.2</v>
       </c>
     </row>
@@ -9665,11 +12628,11 @@
         <v>103</v>
       </c>
       <c r="M13">
-        <f>AVERAGE(B13,D13,F13,H13,J13)</f>
+        <f t="shared" si="0"/>
         <v>8605</v>
       </c>
       <c r="N13">
-        <f>AVERAGE(C13,E13,G13,I13,K13)</f>
+        <f t="shared" si="0"/>
         <v>125.4</v>
       </c>
     </row>
@@ -9708,11 +12671,11 @@
         <v>4337</v>
       </c>
       <c r="M14">
-        <f>AVERAGE(B14,D14,F14,H14,J14)</f>
+        <f t="shared" si="0"/>
         <v>3414.4</v>
       </c>
       <c r="N14">
-        <f>AVERAGE(C14,E14,G14,I14,K14)</f>
+        <f t="shared" si="0"/>
         <v>4268.3999999999996</v>
       </c>
     </row>
@@ -9751,11 +12714,11 @@
         <v>10340</v>
       </c>
       <c r="M15">
-        <f>AVERAGE(B15,D15,F15,H15,J15)</f>
+        <f t="shared" si="0"/>
         <v>8123</v>
       </c>
       <c r="N15">
-        <f>AVERAGE(C15,E15,G15,I15,K15)</f>
+        <f t="shared" si="0"/>
         <v>10305.6</v>
       </c>
     </row>
@@ -9794,11 +12757,11 @@
         <v>6</v>
       </c>
       <c r="M16">
-        <f>AVERAGE(B16,D16,F16,H16,J16)</f>
+        <f t="shared" si="0"/>
         <v>735.4</v>
       </c>
       <c r="N16">
-        <f>AVERAGE(C16,E16,G16,I16,K16)</f>
+        <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
     </row>
@@ -9837,11 +12800,11 @@
         <v>21</v>
       </c>
       <c r="M17">
-        <f>AVERAGE(B17,D17,F17,H17,J17)</f>
+        <f t="shared" si="0"/>
         <v>801.2</v>
       </c>
       <c r="N17">
-        <f>AVERAGE(C17,E17,G17,I17,K17)</f>
+        <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -9865,7 +12828,7 @@
         <v>172800000</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C29" si="0">B25/1024/1024</f>
+        <f t="shared" ref="C25:C29" si="1">B25/1024/1024</f>
         <v>164.794921875</v>
       </c>
     </row>
@@ -9877,7 +12840,7 @@
         <v>1600000</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.52587890625</v>
       </c>
     </row>
@@ -9889,7 +12852,7 @@
         <v>6400000</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.103515625</v>
       </c>
     </row>
@@ -9913,7 +12876,7 @@
         <v>4608000</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.39453125</v>
       </c>
     </row>
@@ -9946,7 +12909,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10112,16 +13075,351 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>219215.4</v>
+      </c>
+      <c r="C2">
+        <v>365.30507798277318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>166687</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>155297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>176794</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>157152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>172714</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>155995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>177936</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>147771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>160456</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>155449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <f>AVERAGE(B5:B13)</f>
+        <v>170917.4</v>
+      </c>
+      <c r="C15" s="1">
+        <f>STDEV(B5:B13)</f>
+        <v>7320.5211426509795</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <f>AVERAGE(F6:F13)</f>
+        <v>154332.79999999999</v>
+      </c>
+      <c r="G15">
+        <f>STDEV(F6:F12)</f>
+        <v>3739.7727471064336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <f>B2/B15</f>
+        <v>1.2825809426073647</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <f>B2/F15</f>
+        <v>1.4204070683613594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1">
+        <v>143516</v>
+      </c>
+      <c r="F23">
+        <v>117735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <v>147779</v>
+      </c>
+      <c r="F24">
+        <v>121556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25">
+        <v>138683</v>
+      </c>
+      <c r="F25">
+        <v>120751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26">
+        <v>136432</v>
+      </c>
+      <c r="F26">
+        <v>122354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27">
+        <v>139137</v>
+      </c>
+      <c r="F27">
+        <v>116938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29">
+        <f>AVERAGE(B23:B27)</f>
+        <v>141109.4</v>
+      </c>
+      <c r="C29">
+        <f>STDEV(B23:B27)</f>
+        <v>4525.7910137345052</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F23:F27)</f>
+        <v>119866.8</v>
+      </c>
+      <c r="G29">
+        <f>STDEV(F23:F27)</f>
+        <v>2394.9849060067163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30">
+        <f>B2/B29</f>
+        <v>1.5535137985137772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="F31">
+        <f>B2/F29</f>
+        <v>1.8288249957452771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36">
+        <v>140290</v>
+      </c>
+      <c r="F36">
+        <v>122022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37">
+        <v>141798</v>
+      </c>
+      <c r="F37">
+        <v>120328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38">
+        <v>138602</v>
+      </c>
+      <c r="F38">
+        <v>120435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39">
+        <v>131204</v>
+      </c>
+      <c r="F39">
+        <v>124068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40">
+        <v>135778</v>
+      </c>
+      <c r="F40">
+        <v>115408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42">
+        <f>AVERAGE(B36:B40)</f>
+        <v>137534.39999999999</v>
+      </c>
+      <c r="C42">
+        <f>STDEV(B36:B40)</f>
+        <v>4185.3999569933576</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(F36:F40)</f>
+        <v>120452.2</v>
+      </c>
+      <c r="G42">
+        <f>STDEV(F36:F40)</f>
+        <v>3201.4823441649651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44">
+        <f>B2/B42</f>
+        <v>1.5938950546190627</v>
+      </c>
+      <c r="F44">
+        <f>B2/F42</f>
+        <v>1.8199368712236057</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="17640" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Full Benchmark Hybrid" sheetId="8" r:id="rId9"/>
     <sheet name="EC2 Hybrid Network Measurement" sheetId="10" r:id="rId10"/>
     <sheet name="Stacked Network" sheetId="11" r:id="rId11"/>
+    <sheet name="LowDataBenchmark" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>Local</t>
   </si>
@@ -282,6 +283,30 @@
   <si>
     <t>1 local moonshot + 3 c4.8xlarge</t>
   </si>
+  <si>
+    <t>1 local class B</t>
+  </si>
+  <si>
+    <t>Mandelbrot</t>
+  </si>
+  <si>
+    <t>NBody</t>
+  </si>
+  <si>
+    <t>lowdatabenchmark.jar</t>
+  </si>
+  <si>
+    <t>1 local + 1 c4.8xlarge</t>
+  </si>
+  <si>
+    <t>1 local moonshot 2 c4.8xlarge</t>
+  </si>
+  <si>
+    <t>aparapi_mandelbrot_benchmark.jar</t>
+  </si>
+  <si>
+    <t>1 local moonshot 3 c4.8xlarge</t>
+  </si>
 </sst>
 </file>
 
@@ -369,8 +394,180 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1505">
+  <cellStyleXfs count="1677">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1890,7 +2087,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1505">
+  <cellStyles count="1677">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2643,6 +2840,92 @@
     <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3395,6 +3678,92 @@
     <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6629,7 +6998,7 @@
         <v>169.26166666666668</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="G63:L63" si="1">AVERAGE(K2:K61)</f>
+        <f t="shared" ref="K63" si="1">AVERAGE(K2:K61)</f>
         <v>2.6906666666666661</v>
       </c>
     </row>
@@ -6654,7 +7023,7 @@
         <v>11.934412451602793</v>
       </c>
       <c r="K64">
-        <f t="shared" ref="G64:L64" si="2">STDEV(K2:K61)</f>
+        <f t="shared" ref="K64" si="2">STDEV(K2:K61)</f>
         <v>4.9295603223564917E-2</v>
       </c>
     </row>
@@ -7550,6 +7919,293 @@
     <row r="61" spans="1:7">
       <c r="G61">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3">
+        <v>208934</v>
+      </c>
+      <c r="F3">
+        <v>74761</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4">
+        <v>209201</v>
+      </c>
+      <c r="F4">
+        <v>95660</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5">
+        <v>208879</v>
+      </c>
+      <c r="F5">
+        <v>88360</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6">
+        <v>210834</v>
+      </c>
+      <c r="F6">
+        <v>85869</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7">
+        <v>209405</v>
+      </c>
+      <c r="F7">
+        <v>77330</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9">
+        <f>AVERAGE(C3:C7)</f>
+        <v>209450.6</v>
+      </c>
+      <c r="D9">
+        <f>STDEV(C3:C7)</f>
+        <v>801.83807592306312</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(F3:F7)</f>
+        <v>84396</v>
+      </c>
+      <c r="G9">
+        <f>STDEV(F3:F7)</f>
+        <v>8478.241297580531</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="F11">
+        <f>C9/F9</f>
+        <v>2.4817597990426088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>800000</v>
+      </c>
+      <c r="C21">
+        <v>1707</v>
+      </c>
+      <c r="D21">
+        <v>2144</v>
+      </c>
+      <c r="F21">
+        <f>B21/1024/1024</f>
+        <v>0.762939453125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22">
+        <v>3200000</v>
+      </c>
+      <c r="C22">
+        <v>4076</v>
+      </c>
+      <c r="D22">
+        <v>5144</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F30" si="0">B22/1024/1024</f>
+        <v>3.0517578125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <v>3200000</v>
+      </c>
+      <c r="C23">
+        <v>6784</v>
+      </c>
+      <c r="D23">
+        <v>8595</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3.0517578125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>7200000</v>
+      </c>
+      <c r="C24">
+        <v>8558</v>
+      </c>
+      <c r="D24">
+        <v>10913</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>6.866455078125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>1800000</v>
+      </c>
+      <c r="C25">
+        <v>3094</v>
+      </c>
+      <c r="D25">
+        <v>3884</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.71661376953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>5000000</v>
+      </c>
+      <c r="C26">
+        <v>6355</v>
+      </c>
+      <c r="D26">
+        <v>8052</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4.76837158203125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>1382400</v>
+      </c>
+      <c r="C27">
+        <v>360</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.318359375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
+        <v>1843200</v>
+      </c>
+      <c r="C28">
+        <v>599</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.7578125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <v>3686400</v>
+      </c>
+      <c r="C29">
+        <v>2313</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3.515625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>6912000</v>
+      </c>
+      <c r="C30">
+        <v>7930</v>
+      </c>
+      <c r="D30">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>6.591796875</v>
       </c>
     </row>
   </sheetData>
@@ -11367,6 +12023,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="A29:A30"/>
@@ -11383,14 +12047,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11404,10 +12060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:Q27"/>
+  <dimension ref="F1:Q54"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11415,7 +12071,7 @@
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:17">
+    <row r="1" spans="10:17">
       <c r="J1" t="s">
         <v>27</v>
       </c>
@@ -11426,7 +12082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="9:17">
+    <row r="3" spans="10:17">
       <c r="J3">
         <v>1000</v>
       </c>
@@ -11451,7 +12107,7 @@
         <v>1.1117573743248859</v>
       </c>
     </row>
-    <row r="4" spans="9:17">
+    <row r="4" spans="10:17">
       <c r="J4">
         <v>2000</v>
       </c>
@@ -11476,7 +12132,7 @@
         <v>1.2711293941660433</v>
       </c>
     </row>
-    <row r="5" spans="9:17">
+    <row r="5" spans="10:17">
       <c r="J5">
         <v>3000</v>
       </c>
@@ -11501,7 +12157,7 @@
         <v>1.3786383731211318</v>
       </c>
     </row>
-    <row r="6" spans="9:17">
+    <row r="6" spans="10:17">
       <c r="J6">
         <v>4000</v>
       </c>
@@ -11526,7 +12182,7 @@
         <v>1.4548785522603729</v>
       </c>
     </row>
-    <row r="7" spans="9:17">
+    <row r="7" spans="10:17">
       <c r="J7">
         <v>5000</v>
       </c>
@@ -11551,7 +12207,7 @@
         <v>1.5426582116194441</v>
       </c>
     </row>
-    <row r="8" spans="9:17">
+    <row r="8" spans="10:17">
       <c r="J8">
         <v>6000</v>
       </c>
@@ -11576,11 +12232,7 @@
         <v>1.5859787956567069</v>
       </c>
     </row>
-    <row r="9" spans="9:17">
-      <c r="I9">
-        <f>5*K9/1000/60</f>
-        <v>4.1423166666666669</v>
-      </c>
+    <row r="9" spans="10:17">
       <c r="J9">
         <v>7000</v>
       </c>
@@ -11605,11 +12257,7 @@
         <v>1.6349023694470484</v>
       </c>
     </row>
-    <row r="10" spans="9:17">
-      <c r="I10">
-        <f t="shared" ref="I10:I12" si="1">5*K10/1000/60</f>
-        <v>5.9137833333333329</v>
-      </c>
+    <row r="10" spans="10:17">
       <c r="J10">
         <v>8000</v>
       </c>
@@ -11634,11 +12282,7 @@
         <v>1.6740270610748338</v>
       </c>
     </row>
-    <row r="11" spans="9:17">
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>8.2238000000000007</v>
-      </c>
+    <row r="11" spans="10:17">
       <c r="J11">
         <v>9000</v>
       </c>
@@ -11663,11 +12307,7 @@
         <v>1.708186402068792</v>
       </c>
     </row>
-    <row r="12" spans="9:17">
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>10.973549999999999</v>
-      </c>
+    <row r="12" spans="10:17">
       <c r="J12">
         <v>10000</v>
       </c>
@@ -11764,7 +12404,7 @@
         <v>4169.26</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O27" si="2">G21/L21</f>
+        <f t="shared" ref="O21:O27" si="1">G21/L21</f>
         <v>0.94276079781891242</v>
       </c>
     </row>
@@ -11788,7 +12428,7 @@
         <v>482.32</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.87093030442455999</v>
       </c>
     </row>
@@ -11836,7 +12476,7 @@
         <v>405.74</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0800768379564587</v>
       </c>
     </row>
@@ -11860,7 +12500,7 @@
         <v>584.27</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.365119431466737</v>
       </c>
     </row>
@@ -11884,7 +12524,7 @@
         <v>211.64</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.370061729533874</v>
       </c>
     </row>
@@ -11908,8 +12548,280 @@
         <v>1139.93</v>
       </c>
       <c r="O27">
+        <f t="shared" si="1"/>
+        <v>1.48977761757608</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15">
+      <c r="L31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16">
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16">
+      <c r="K34">
+        <v>3000</v>
+      </c>
+      <c r="L34">
+        <v>6460.2</v>
+      </c>
+      <c r="M34">
+        <v>621.65</v>
+      </c>
+      <c r="O34">
+        <f>G20/L34</f>
+        <v>0.89693817528869069</v>
+      </c>
+    </row>
+    <row r="35" spans="11:16">
+      <c r="K35">
+        <v>4000</v>
+      </c>
+      <c r="L35">
+        <v>10906.2</v>
+      </c>
+      <c r="M35">
+        <v>708.46</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O41" si="2">G21/L35</f>
+        <v>1.2048376153013882</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16">
+      <c r="K36">
+        <v>5000</v>
+      </c>
+      <c r="L36">
+        <v>16457.2</v>
+      </c>
+      <c r="M36">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="2"/>
-        <v>1.48977761757608</v>
+        <v>1.5412585372967453</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16">
+      <c r="K37">
+        <v>6000</v>
+      </c>
+      <c r="L37">
+        <v>27464.6</v>
+      </c>
+      <c r="M37">
+        <v>2037.17</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>1.5964259446705942</v>
+      </c>
+    </row>
+    <row r="38" spans="11:16">
+      <c r="K38">
+        <v>7000</v>
+      </c>
+      <c r="L38">
+        <v>42105.2</v>
+      </c>
+      <c r="M38">
+        <v>199.16</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>1.6505229757844639</v>
+      </c>
+    </row>
+    <row r="39" spans="11:16">
+      <c r="K39">
+        <v>8000</v>
+      </c>
+      <c r="L39">
+        <v>64587.199999999997</v>
+      </c>
+      <c r="M39">
+        <v>109.15</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1.6060241038472021</v>
+      </c>
+    </row>
+    <row r="40" spans="11:16">
+      <c r="K40">
+        <v>9000</v>
+      </c>
+      <c r="L40">
+        <v>84265.2</v>
+      </c>
+      <c r="M40">
+        <v>970.36</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1.7626042541879687</v>
+      </c>
+    </row>
+    <row r="41" spans="11:16">
+      <c r="K41">
+        <v>10000</v>
+      </c>
+      <c r="L41">
+        <v>119216.2</v>
+      </c>
+      <c r="M41">
+        <v>1438.71</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1.7056960379545734</v>
+      </c>
+    </row>
+    <row r="44" spans="11:16">
+      <c r="L44" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="11:16">
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="11:16">
+      <c r="K47">
+        <v>3000</v>
+      </c>
+      <c r="L47">
+        <v>6582.8</v>
+      </c>
+      <c r="M47">
+        <v>576.23</v>
+      </c>
+      <c r="P47">
+        <f>G20/L47</f>
+        <v>0.88023333535881376</v>
+      </c>
+    </row>
+    <row r="48" spans="11:16">
+      <c r="K48">
+        <v>4000</v>
+      </c>
+      <c r="L48">
+        <v>11935.6</v>
+      </c>
+      <c r="M48">
+        <v>1280.45</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ref="P48:P54" si="3">G21/L48</f>
+        <v>1.1009249639733236</v>
+      </c>
+    </row>
+    <row r="49" spans="11:16">
+      <c r="K49">
+        <v>5000</v>
+      </c>
+      <c r="L49">
+        <v>15206.4</v>
+      </c>
+      <c r="M49">
+        <v>825.75</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>1.6680345117845117</v>
+      </c>
+    </row>
+    <row r="50" spans="11:16">
+      <c r="K50">
+        <v>6000</v>
+      </c>
+      <c r="L50">
+        <v>23481.4</v>
+      </c>
+      <c r="M50">
+        <v>439.46</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>1.8672310850290015</v>
+      </c>
+    </row>
+    <row r="51" spans="11:16">
+      <c r="K51">
+        <v>7000</v>
+      </c>
+      <c r="L51">
+        <v>33514</v>
+      </c>
+      <c r="M51">
+        <v>1330.29</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>2.0736289311929346</v>
+      </c>
+    </row>
+    <row r="52" spans="11:16">
+      <c r="K52">
+        <v>8000</v>
+      </c>
+      <c r="L52">
+        <v>41700.800000000003</v>
+      </c>
+      <c r="M52">
+        <v>401.26</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>2.4874486820396733</v>
+      </c>
+    </row>
+    <row r="53" spans="11:16">
+      <c r="K53">
+        <v>9000</v>
+      </c>
+      <c r="L53">
+        <v>59883.4</v>
+      </c>
+      <c r="M53">
+        <v>697.73</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>2.4802566320549602</v>
+      </c>
+    </row>
+    <row r="54" spans="11:16">
+      <c r="K54">
+        <v>10000</v>
+      </c>
+      <c r="L54">
+        <v>81445.399999999994</v>
+      </c>
+      <c r="M54">
+        <v>945.36</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>2.4967229579571102</v>
       </c>
     </row>
   </sheetData>
@@ -11925,15 +12837,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D26"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -11946,8 +12858,26 @@
       <c r="E1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1">
+        <v>6000</v>
+      </c>
+      <c r="L1">
+        <v>6000</v>
+      </c>
+      <c r="M1">
+        <v>1000</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -11961,7 +12891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -11985,7 +12915,7 @@
         <v>1.8063159565182894</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -12009,7 +12939,7 @@
         <v>1.8135657556645643</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -12033,7 +12963,7 @@
         <v>1.8622605017197191</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -12057,7 +12987,7 @@
         <v>1.8670196842798508</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -12081,7 +13011,7 @@
         <v>1.8722590340870278</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -12105,7 +13035,7 @@
         <v>1.8760782695157872</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -12129,7 +13059,7 @@
         <v>1.8745893599924373</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -12153,7 +13083,7 @@
         <v>1.8717937690103963</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:15">
       <c r="I12">
         <f>MAX(I4:I11)</f>
         <v>1.8760782695157872</v>
@@ -12163,7 +13093,7 @@
         <v>1.8063159565182894</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>74</v>
       </c>
@@ -12294,6 +13224,272 @@
       <c r="H26">
         <f t="shared" si="1"/>
         <v>2.4208511151146945</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33">
+        <v>3000</v>
+      </c>
+      <c r="E33">
+        <v>4032.8</v>
+      </c>
+      <c r="F33">
+        <v>66.2</v>
+      </c>
+      <c r="I33">
+        <f>E4/E33</f>
+        <v>3.3869767903193808</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34">
+        <v>4000</v>
+      </c>
+      <c r="E34">
+        <v>5966.2</v>
+      </c>
+      <c r="F34">
+        <v>36.64</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I40" si="2">E5/E34</f>
+        <v>4.1641916127518357</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35">
+        <v>5000</v>
+      </c>
+      <c r="E35">
+        <v>8598.2000000000007</v>
+      </c>
+      <c r="F35">
+        <v>47.58</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>4.5465562559605495</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36">
+        <v>6000</v>
+      </c>
+      <c r="E36">
+        <v>12674.2</v>
+      </c>
+      <c r="F36">
+        <v>729.58</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>4.4287765697243211</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37">
+        <v>7000</v>
+      </c>
+      <c r="E37">
+        <v>17066.8</v>
+      </c>
+      <c r="F37">
+        <v>588.82000000000005</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>4.4965898703916372</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38">
+        <v>8000</v>
+      </c>
+      <c r="E38">
+        <v>22198.6</v>
+      </c>
+      <c r="F38">
+        <v>733.77</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>4.5048156190030006</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39">
+        <v>9000</v>
+      </c>
+      <c r="E39">
+        <v>28875.599999999999</v>
+      </c>
+      <c r="F39">
+        <v>1379.13</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>4.3949978528584692</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40">
+        <v>10000</v>
+      </c>
+      <c r="E40">
+        <v>35105.199999999997</v>
+      </c>
+      <c r="F40">
+        <v>975.26</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>4.4630709980287824</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47">
+        <v>3000</v>
+      </c>
+      <c r="E47">
+        <v>3547</v>
+      </c>
+      <c r="F47">
+        <v>186.06</v>
+      </c>
+      <c r="I47">
+        <f>E4/E47</f>
+        <v>3.8508598815900763</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9">
+      <c r="D48">
+        <v>4000</v>
+      </c>
+      <c r="E48">
+        <v>5545.2</v>
+      </c>
+      <c r="F48">
+        <v>197.84</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I54" si="3">E5/E48</f>
+        <v>4.4803433600230838</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49">
+        <v>5000</v>
+      </c>
+      <c r="E49">
+        <v>8037</v>
+      </c>
+      <c r="F49">
+        <v>204.39</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>4.8640288664924718</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9">
+      <c r="D50">
+        <v>6000</v>
+      </c>
+      <c r="E50">
+        <v>11512.4</v>
+      </c>
+      <c r="F50">
+        <v>682.29</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>4.8757166186025502</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51">
+        <v>7000</v>
+      </c>
+      <c r="E51">
+        <v>14820</v>
+      </c>
+      <c r="F51">
+        <v>219.23</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>5.1782995951417004</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="D52">
+        <v>8000</v>
+      </c>
+      <c r="E52">
+        <v>19269.8</v>
+      </c>
+      <c r="F52">
+        <v>289.45999999999998</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>5.1894985936543199</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9">
+      <c r="D53">
+        <v>9000</v>
+      </c>
+      <c r="E53">
+        <v>23931.8</v>
+      </c>
+      <c r="F53">
+        <v>144.66</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>5.3029107714421819</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9">
+      <c r="D54">
+        <v>10000</v>
+      </c>
+      <c r="E54">
+        <v>29993.200000000001</v>
+      </c>
+      <c r="F54">
+        <v>300.87</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>5.2237507168291479</v>
       </c>
     </row>
   </sheetData>
@@ -13077,8 +14273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="16160" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="EC2 Hybrid Network Measurement" sheetId="10" r:id="rId10"/>
     <sheet name="Stacked Network" sheetId="11" r:id="rId11"/>
     <sheet name="LowDataBenchmark" sheetId="12" r:id="rId12"/>
+    <sheet name="EC2 Only Benchmark GPU" sheetId="13" r:id="rId13"/>
+    <sheet name="EC2 Only Benchmark CPU" sheetId="14" r:id="rId14"/>
+    <sheet name="Local Benchmark" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="103">
   <si>
     <t>Local</t>
   </si>
@@ -305,7 +308,40 @@
     <t>aparapi_mandelbrot_benchmark.jar</t>
   </si>
   <si>
+    <t>STDEV:</t>
+  </si>
+  <si>
     <t>1 local moonshot 3 c4.8xlarge</t>
+  </si>
+  <si>
+    <t>1 g2.2xlarge</t>
+  </si>
+  <si>
+    <t>20 shards</t>
+  </si>
+  <si>
+    <t>Matrix 6 shards</t>
+  </si>
+  <si>
+    <t>FullBenchmark</t>
+  </si>
+  <si>
+    <t>2 g2.2xlarge</t>
+  </si>
+  <si>
+    <t>3 g2.2xlarge</t>
+  </si>
+  <si>
+    <t>Gbits/sec</t>
+  </si>
+  <si>
+    <t>1 classb</t>
+  </si>
+  <si>
+    <t>2 class b</t>
+  </si>
+  <si>
+    <t>3 class b</t>
   </si>
 </sst>
 </file>
@@ -394,8 +430,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1677">
+  <cellStyleXfs count="1805">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2087,7 +2251,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1677">
+  <cellStyles count="1805">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2926,6 +3090,70 @@
     <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3764,6 +3992,70 @@
     <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5505,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A36" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -8206,6 +8498,1642 @@
       <c r="F30">
         <f t="shared" si="0"/>
         <v>6.591796875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="E1">
+        <v>1.07</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5">
+        <v>17394.2</v>
+      </c>
+      <c r="C5">
+        <v>52.2</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+      <c r="H5">
+        <v>22075</v>
+      </c>
+      <c r="I5">
+        <v>26.56</v>
+      </c>
+      <c r="M5">
+        <v>706082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6">
+        <v>30035.599999999999</v>
+      </c>
+      <c r="C6">
+        <v>132.77000000000001</v>
+      </c>
+      <c r="G6">
+        <v>4000</v>
+      </c>
+      <c r="H6">
+        <v>21560.799999999999</v>
+      </c>
+      <c r="I6">
+        <v>54.83</v>
+      </c>
+      <c r="M6">
+        <v>705611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>45530</v>
+      </c>
+      <c r="C7">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+      <c r="H7">
+        <v>106976.8</v>
+      </c>
+      <c r="I7">
+        <v>278.08999999999997</v>
+      </c>
+      <c r="M7">
+        <v>703702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8">
+        <v>64779</v>
+      </c>
+      <c r="C8">
+        <v>184.64</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+      <c r="H8">
+        <v>183337.60000000001</v>
+      </c>
+      <c r="I8">
+        <v>29.63</v>
+      </c>
+      <c r="M8">
+        <v>705981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9">
+        <v>87124.800000000003</v>
+      </c>
+      <c r="C9">
+        <v>184.28</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+      <c r="H9">
+        <v>137689</v>
+      </c>
+      <c r="I9">
+        <v>214.57</v>
+      </c>
+      <c r="M9">
+        <v>703804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10">
+        <v>112660</v>
+      </c>
+      <c r="C10">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="B11">
+        <v>142041.4</v>
+      </c>
+      <c r="C11">
+        <v>47.59</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(M5:M9)</f>
+        <v>705036</v>
+      </c>
+      <c r="N11">
+        <f>STDEV(M5:M9)</f>
+        <v>1184.8149644564758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>175213.6</v>
+      </c>
+      <c r="C12">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>3000</v>
+      </c>
+      <c r="B17">
+        <v>7931.4</v>
+      </c>
+      <c r="C17">
+        <v>60.74</v>
+      </c>
+      <c r="E17">
+        <f>B5/B17</f>
+        <v>2.1930806667170994</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="H17">
+        <v>11280.6</v>
+      </c>
+      <c r="I17">
+        <v>71.38</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K20" si="0">H5/H17</f>
+        <v>1.9568994557027108</v>
+      </c>
+      <c r="M17">
+        <v>386852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>4000</v>
+      </c>
+      <c r="B18">
+        <v>16024.6</v>
+      </c>
+      <c r="C18">
+        <v>9.85</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E24" si="1">B6/B18</f>
+        <v>1.8743431973340987</v>
+      </c>
+      <c r="G18">
+        <v>4000</v>
+      </c>
+      <c r="H18">
+        <v>11185.2</v>
+      </c>
+      <c r="I18">
+        <v>58.18</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.9276186389157099</v>
+      </c>
+      <c r="M18">
+        <v>380910</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="B19">
+        <v>20040</v>
+      </c>
+      <c r="C19">
+        <v>37.58</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.2719560878243512</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+      <c r="H19">
+        <v>54246.400000000001</v>
+      </c>
+      <c r="I19">
+        <v>63.4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.9720534450212364</v>
+      </c>
+      <c r="M19">
+        <v>389633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>6000</v>
+      </c>
+      <c r="B20">
+        <v>34673</v>
+      </c>
+      <c r="C20">
+        <v>22.23</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.86828367894327</v>
+      </c>
+      <c r="G20">
+        <v>6000</v>
+      </c>
+      <c r="H20">
+        <v>92399.2</v>
+      </c>
+      <c r="I20">
+        <v>79.28</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.9841903393102971</v>
+      </c>
+      <c r="M20">
+        <v>385531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>7000</v>
+      </c>
+      <c r="B21">
+        <v>38085.4</v>
+      </c>
+      <c r="C21">
+        <v>195.74</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.2876167770326687</v>
+      </c>
+      <c r="G21">
+        <v>7000</v>
+      </c>
+      <c r="H21">
+        <v>70534.2</v>
+      </c>
+      <c r="I21">
+        <v>139.74</v>
+      </c>
+      <c r="K21">
+        <f>H9/H21</f>
+        <v>1.9520884904060727</v>
+      </c>
+      <c r="M21">
+        <v>379139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>8000</v>
+      </c>
+      <c r="B22">
+        <v>60481.2</v>
+      </c>
+      <c r="C22">
+        <v>106.99</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.8627275913837689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>9000</v>
+      </c>
+      <c r="B23">
+        <v>61985.8</v>
+      </c>
+      <c r="C23">
+        <v>258.42</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.2915151534706335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="B24">
+        <v>93929.8</v>
+      </c>
+      <c r="C24">
+        <v>64.41</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.8653675404397752</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(M17:M21)</f>
+        <v>384413</v>
+      </c>
+      <c r="N24">
+        <f>STDEV(M17:M21)</f>
+        <v>4316.6286034357881</v>
+      </c>
+      <c r="P24">
+        <f>M11/M24</f>
+        <v>1.8340586816782991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>3000</v>
+      </c>
+      <c r="B30">
+        <v>5177.8</v>
+      </c>
+      <c r="C30">
+        <v>24.28</v>
+      </c>
+      <c r="E30">
+        <f>B5/B30</f>
+        <v>3.3593804318436402</v>
+      </c>
+      <c r="G30">
+        <v>3000</v>
+      </c>
+      <c r="H30">
+        <v>7518.2</v>
+      </c>
+      <c r="I30">
+        <v>22.37</v>
+      </c>
+      <c r="K30">
+        <f>H5/H30</f>
+        <v>2.9362081349259133</v>
+      </c>
+      <c r="M30">
+        <v>285663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <v>10644.2</v>
+      </c>
+      <c r="C31">
+        <v>31.8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E37" si="2">B6/B31</f>
+        <v>2.8217808759700116</v>
+      </c>
+      <c r="G31">
+        <v>4000</v>
+      </c>
+      <c r="H31">
+        <v>7460.8</v>
+      </c>
+      <c r="I31">
+        <v>30.56</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K34" si="3">H6/H31</f>
+        <v>2.8898777610980053</v>
+      </c>
+      <c r="M31">
+        <v>291493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>5000</v>
+      </c>
+      <c r="B32">
+        <v>13308.8</v>
+      </c>
+      <c r="C32">
+        <v>45.7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>3.4210447222890119</v>
+      </c>
+      <c r="G32">
+        <v>5000</v>
+      </c>
+      <c r="H32">
+        <v>36290.400000000001</v>
+      </c>
+      <c r="I32">
+        <v>59.05</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>2.9477988669179727</v>
+      </c>
+      <c r="M32">
+        <v>285578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>6000</v>
+      </c>
+      <c r="B33">
+        <v>23266</v>
+      </c>
+      <c r="C33">
+        <v>35.08</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>2.7842774864609301</v>
+      </c>
+      <c r="G33">
+        <v>6000</v>
+      </c>
+      <c r="H33">
+        <v>61687.8</v>
+      </c>
+      <c r="I33">
+        <v>148.32</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>2.97202364162768</v>
+      </c>
+      <c r="M33">
+        <v>286913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>7000</v>
+      </c>
+      <c r="B34">
+        <v>25313.599999999999</v>
+      </c>
+      <c r="C34">
+        <v>52.57</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>3.4418178370520196</v>
+      </c>
+      <c r="G34">
+        <v>7000</v>
+      </c>
+      <c r="H34">
+        <v>47279.199999999997</v>
+      </c>
+      <c r="I34">
+        <v>176.2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>2.9122531684123252</v>
+      </c>
+      <c r="M34">
+        <v>287386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>8000</v>
+      </c>
+      <c r="B35">
+        <v>40543.199999999997</v>
+      </c>
+      <c r="C35">
+        <v>88.32</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>2.778764379723357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>9000</v>
+      </c>
+      <c r="B36">
+        <v>41248.800000000003</v>
+      </c>
+      <c r="C36">
+        <v>76.97</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>3.4435280541494535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="B37">
+        <v>62937</v>
+      </c>
+      <c r="C37">
+        <v>101.95</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2.7839522061744284</v>
+      </c>
+      <c r="M37">
+        <f>AVERAGE(M30:M34)</f>
+        <v>287406.59999999998</v>
+      </c>
+      <c r="N37">
+        <f>STDEV(M30:M34)</f>
+        <v>2414.8834961546281</v>
+      </c>
+      <c r="P37">
+        <f>M11/M37</f>
+        <v>2.453096066687404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="P37" sqref="A1:P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="E1">
+        <v>1.07</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="G6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="M11" t="e">
+        <f>AVERAGE(M5:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f>STDEV(M5:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>3000</v>
+      </c>
+      <c r="E17" t="e">
+        <f>B5/B17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" ref="K17:K20" si="0">H5/H17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>4000</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" ref="E18:E24" si="1">B6/B18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18">
+        <v>4000</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>6000</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20">
+        <v>6000</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>7000</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21">
+        <v>7000</v>
+      </c>
+      <c r="K21" t="e">
+        <f>H9/H21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>8000</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>9000</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="e">
+        <f>AVERAGE(M17:M21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f>STDEV(M17:M21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <f>M11/M24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>3000</v>
+      </c>
+      <c r="E30" t="e">
+        <f>B5/B30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30">
+        <v>3000</v>
+      </c>
+      <c r="K30" t="e">
+        <f>H5/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" ref="E31:E37" si="2">B6/B31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31">
+        <v>4000</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" ref="K31:K34" si="3">H6/H31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>5000</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32">
+        <v>5000</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>6000</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33">
+        <v>6000</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>7000</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34">
+        <v>7000</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>8000</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>9000</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" t="e">
+        <f>AVERAGE(M30:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f>STDEV(M30:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" t="e">
+        <f>M11/M37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P37"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5">
+        <v>18800.2</v>
+      </c>
+      <c r="C5">
+        <v>403.94</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
+      <c r="H5">
+        <v>10304.6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6">
+        <v>27941.8</v>
+      </c>
+      <c r="C6">
+        <v>688.1</v>
+      </c>
+      <c r="G6">
+        <v>4000</v>
+      </c>
+      <c r="H6">
+        <v>13079.6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>45053</v>
+      </c>
+      <c r="C7">
+        <v>652.70000000000005</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8">
+        <v>61328.800000000003</v>
+      </c>
+      <c r="C8">
+        <v>1260.6300000000001</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+      <c r="H8">
+        <v>61167.8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9">
+        <v>91329.600000000006</v>
+      </c>
+      <c r="C9">
+        <v>813.93</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10">
+        <v>108310.6</v>
+      </c>
+      <c r="C10">
+        <v>1124.9000000000001</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="B11">
+        <v>135091.20000000001</v>
+      </c>
+      <c r="C11">
+        <v>884.63</v>
+      </c>
+      <c r="G11">
+        <v>9000</v>
+      </c>
+      <c r="M11" t="e">
+        <f>AVERAGE(M5:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f>STDEV(M5:M9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>168668.6</v>
+      </c>
+      <c r="C12">
+        <v>716.71</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>3000</v>
+      </c>
+      <c r="B17">
+        <v>9784.2000000000007</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>165.48</v>
+      </c>
+      <c r="E17">
+        <f>B5/B17</f>
+        <v>1.9214856605547719</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="H17">
+        <v>7183.8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17">
+        <v>127.33</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K24" si="0">H5/H17</f>
+        <v>1.4344218937052813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>4000</v>
+      </c>
+      <c r="B18">
+        <v>14257.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>317.55</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E24" si="1">B6/B18</f>
+        <v>1.9597553619773036</v>
+      </c>
+      <c r="G18">
+        <v>4000</v>
+      </c>
+      <c r="H18">
+        <v>9978.4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18">
+        <v>280.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.3107913092279324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+      <c r="H19">
+        <v>16951.400000000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19">
+        <v>337.54</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>6000</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20">
+        <v>6000</v>
+      </c>
+      <c r="H20">
+        <v>39051.800000000003</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20">
+        <v>406.54</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.5663247276694032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>7000</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21">
+        <v>7000</v>
+      </c>
+      <c r="K21" t="e">
+        <f>H9/H21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>8000</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22">
+        <v>8000</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>9000</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23">
+        <v>9000</v>
+      </c>
+      <c r="K23" t="e">
+        <f>H11/H23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24">
+        <v>10000</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="e">
+        <f>AVERAGE(M17:M21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f>STDEV(M17:M21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <f>M11/M24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>3000</v>
+      </c>
+      <c r="E30" t="e">
+        <f>B5/B30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30">
+        <v>3000</v>
+      </c>
+      <c r="K30" t="e">
+        <f>H5/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" ref="E31:E37" si="2">B6/B31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31">
+        <v>4000</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" ref="K31:K37" si="3">H6/H31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>5000</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32">
+        <v>5000</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>6000</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33">
+        <v>6000</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>7000</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34">
+        <v>7000</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>8000</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35">
+        <v>8000</v>
+      </c>
+      <c r="K35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>9000</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36">
+        <v>9000</v>
+      </c>
+      <c r="K36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37">
+        <v>10000</v>
+      </c>
+      <c r="K37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" t="e">
+        <f>AVERAGE(M30:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f>STDEV(M30:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" t="e">
+        <f>M11/M37</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -12062,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12690,7 +14618,7 @@
     </row>
     <row r="44" spans="11:16">
       <c r="L44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s">
         <v>75</v>
@@ -12839,7 +14767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
@@ -13361,7 +15289,7 @@
     </row>
     <row r="44" spans="4:9">
       <c r="E44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="4:9">
@@ -14105,7 +16033,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28460" windowHeight="17860" tabRatio="500" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28460" windowHeight="16320" tabRatio="500" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dopencl matrix" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2539">
+  <cellStyleXfs count="2555">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2999,7 +3015,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2539">
+  <cellStyles count="2555">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4269,6 +4285,14 @@
     <cellStyle name="Followed Hyperlink" xfId="2534" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2536" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2554" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5538,6 +5562,14 @@
     <cellStyle name="Hyperlink" xfId="2533" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2535" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2553" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9947,8 +9979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56:I58"/>
+    <sheetView showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10692,6 +10724,12 @@
         <v>2.1654189269965154</v>
       </c>
     </row>
+    <row r="38" spans="1:16">
+      <c r="E38" s="1">
+        <f>AVERAGE(E30:E36)</f>
+        <v>2.8505698434313897</v>
+      </c>
+    </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>107</v>
@@ -10993,6 +11031,12 @@
       <c r="P50" s="1">
         <f>M11/M50</f>
         <v>2.2751760880487644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="E51" s="1">
+        <f>AVERAGE(E43:E49)</f>
+        <v>3.7349859250104229</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -17378,10 +17422,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17393,7 +17437,7 @@
       </c>
       <c r="E1">
         <f t="shared" ref="C1:E1" si="0">AVERAGE(D:D)</f>
-        <v>9.252711864406777</v>
+        <v>9.4444999999999961</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17403,7 +17447,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="C2:E2" si="1">STDEV(D:D)</f>
-        <v>2.6052368247275162E-2</v>
+        <v>6.8381407920227455E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -17411,7 +17455,7 @@
         <v>996</v>
       </c>
       <c r="D3">
-        <v>9.26</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -17419,7 +17463,7 @@
         <v>986</v>
       </c>
       <c r="D4">
-        <v>9.2799999999999994</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -17427,7 +17471,7 @@
         <v>996</v>
       </c>
       <c r="D5">
-        <v>9.24</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -17435,7 +17479,7 @@
         <v>996</v>
       </c>
       <c r="D6">
-        <v>9.18</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -17443,7 +17487,7 @@
         <v>986</v>
       </c>
       <c r="D7">
-        <v>9.25</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17451,7 +17495,7 @@
         <v>996</v>
       </c>
       <c r="D8">
-        <v>9.2799999999999994</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17459,7 +17503,7 @@
         <v>996</v>
       </c>
       <c r="D9">
-        <v>9.24</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -17467,7 +17511,7 @@
         <v>986</v>
       </c>
       <c r="D10">
-        <v>9.26</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17475,7 +17519,7 @@
         <v>996</v>
       </c>
       <c r="D11">
-        <v>9.27</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -17483,7 +17527,7 @@
         <v>996</v>
       </c>
       <c r="D12">
-        <v>9.27</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -17491,7 +17535,7 @@
         <v>986</v>
       </c>
       <c r="D13">
-        <v>9.26</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17499,7 +17543,7 @@
         <v>996</v>
       </c>
       <c r="D14">
-        <v>9.3000000000000007</v>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17507,7 +17551,7 @@
         <v>996</v>
       </c>
       <c r="D15">
-        <v>9.1999999999999993</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -17515,7 +17559,7 @@
         <v>986</v>
       </c>
       <c r="D16">
-        <v>9.23</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17523,7 +17567,7 @@
         <v>996</v>
       </c>
       <c r="D17">
-        <v>9.2100000000000009</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17531,7 +17575,7 @@
         <v>996</v>
       </c>
       <c r="D18">
-        <v>9.26</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -17539,7 +17583,7 @@
         <v>986</v>
       </c>
       <c r="D19">
-        <v>9.26</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17547,7 +17591,7 @@
         <v>996</v>
       </c>
       <c r="D20">
-        <v>9.2899999999999991</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17555,7 +17599,7 @@
         <v>996</v>
       </c>
       <c r="D21">
-        <v>9.26</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -17563,7 +17607,7 @@
         <v>986</v>
       </c>
       <c r="D22">
-        <v>9.19</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -17571,7 +17615,7 @@
         <v>996</v>
       </c>
       <c r="D23">
-        <v>9.2799999999999994</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -17579,7 +17623,7 @@
         <v>996</v>
       </c>
       <c r="D24">
-        <v>9.27</v>
+        <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -17587,7 +17631,7 @@
         <v>986</v>
       </c>
       <c r="D25">
-        <v>9.24</v>
+        <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -17595,7 +17639,7 @@
         <v>996</v>
       </c>
       <c r="D26">
-        <v>9.23</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -17603,7 +17647,7 @@
         <v>996</v>
       </c>
       <c r="D27">
-        <v>9.24</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -17611,7 +17655,7 @@
         <v>986</v>
       </c>
       <c r="D28">
-        <v>9.23</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -17619,7 +17663,7 @@
         <v>996</v>
       </c>
       <c r="D29">
-        <v>9.27</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -17627,7 +17671,7 @@
         <v>996</v>
       </c>
       <c r="D30">
-        <v>9.24</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -17635,7 +17679,7 @@
         <v>986</v>
       </c>
       <c r="D31">
-        <v>9.2799999999999994</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -17643,7 +17687,7 @@
         <v>996</v>
       </c>
       <c r="D32">
-        <v>9.2100000000000009</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -17651,7 +17695,7 @@
         <v>996</v>
       </c>
       <c r="D33">
-        <v>9.2799999999999994</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -17659,7 +17703,7 @@
         <v>986</v>
       </c>
       <c r="D34">
-        <v>9.25</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -17667,7 +17711,7 @@
         <v>996</v>
       </c>
       <c r="D35">
-        <v>9.27</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -17675,7 +17719,7 @@
         <v>996</v>
       </c>
       <c r="D36">
-        <v>9.26</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -17683,7 +17727,7 @@
         <v>986</v>
       </c>
       <c r="D37">
-        <v>9.24</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -17691,7 +17735,7 @@
         <v>996</v>
       </c>
       <c r="D38">
-        <v>9.25</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -17699,7 +17743,7 @@
         <v>996</v>
       </c>
       <c r="D39">
-        <v>9.2799999999999994</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -17707,7 +17751,7 @@
         <v>986</v>
       </c>
       <c r="D40">
-        <v>9.24</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -17715,7 +17759,7 @@
         <v>996</v>
       </c>
       <c r="D41">
-        <v>9.24</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -17723,7 +17767,7 @@
         <v>996</v>
       </c>
       <c r="D42">
-        <v>9.31</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -17731,7 +17775,7 @@
         <v>986</v>
       </c>
       <c r="D43">
-        <v>9.23</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -17739,7 +17783,7 @@
         <v>996</v>
       </c>
       <c r="D44">
-        <v>9.25</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -17747,7 +17791,7 @@
         <v>996</v>
       </c>
       <c r="D45">
-        <v>9.2200000000000006</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -17755,7 +17799,7 @@
         <v>986</v>
       </c>
       <c r="D46">
-        <v>9.2100000000000009</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -17771,7 +17815,7 @@
         <v>996</v>
       </c>
       <c r="D48">
-        <v>9.26</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17779,7 +17823,7 @@
         <v>986</v>
       </c>
       <c r="D49">
-        <v>9.2799999999999994</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17787,7 +17831,7 @@
         <v>996</v>
       </c>
       <c r="D50">
-        <v>9.24</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17795,7 +17839,7 @@
         <v>996</v>
       </c>
       <c r="D51">
-        <v>9.2799999999999994</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -17803,7 +17847,7 @@
         <v>986</v>
       </c>
       <c r="D52">
-        <v>9.24</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17811,7 +17855,7 @@
         <v>996</v>
       </c>
       <c r="D53">
-        <v>9.25</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17819,7 +17863,7 @@
         <v>996</v>
       </c>
       <c r="D54">
-        <v>9.26</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17827,7 +17871,7 @@
         <v>986</v>
       </c>
       <c r="D55">
-        <v>9.26</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17835,7 +17879,7 @@
         <v>996</v>
       </c>
       <c r="D56">
-        <v>9.27</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -17843,7 +17887,7 @@
         <v>996</v>
       </c>
       <c r="D57">
-        <v>9.26</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -17851,7 +17895,7 @@
         <v>986</v>
       </c>
       <c r="D58">
-        <v>9.2799999999999994</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -17859,7 +17903,7 @@
         <v>996</v>
       </c>
       <c r="D59">
-        <v>9.24</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -17867,7 +17911,7 @@
         <v>996</v>
       </c>
       <c r="D60">
-        <v>9.24</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -17875,7 +17919,12 @@
         <v>986</v>
       </c>
       <c r="D61">
-        <v>9.2799999999999994</v>
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="D62">
+        <v>9.5500000000000007</v>
       </c>
     </row>
   </sheetData>
